--- a/data/hotels_by_city/Houston/Houston_shard_227.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_227.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="531">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56707-d225963-Reviews-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
   </si>
   <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Extended-Stay-America-Houston-Stafford.h120214.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1481 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r595894704-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>56707</t>
+  </si>
+  <si>
+    <t>225963</t>
+  </si>
+  <si>
+    <t>595894704</t>
+  </si>
+  <si>
+    <t>07/13/2018</t>
+  </si>
+  <si>
+    <t>Wonderful staff</t>
+  </si>
+  <si>
+    <t>The staff are wonderful, friendly, and helpful.  The stay has been enjoyable for myself and my children.  The environment is both safe and convenient.  Walmart, Sam's, and several restaurants are within walking distance.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Stafford, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>The staff are wonderful, friendly, and helpful.  The stay has been enjoyable for myself and my children.  The environment is both safe and convenient.  Walmart, Sam's, and several restaurants are within walking distance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r594643177-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>594643177</t>
+  </si>
+  <si>
+    <t>07/09/2018</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Glad we found this place. Close to restaurants, stores, and entertainment. Nice, clean and safe place to stay. Comfortable beds reasonable rates, could stand to be little less, but over all affordable.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Stafford, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Glad we found this place. Close to restaurants, stores, and entertainment. Nice, clean and safe place to stay. Comfortable beds reasonable rates, could stand to be little less, but over all affordable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r593784178-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>593784178</t>
+  </si>
+  <si>
+    <t>07/07/2018</t>
+  </si>
+  <si>
+    <t>Guest</t>
+  </si>
+  <si>
+    <t>Awsome place close to so! Many! Things! To do! Management! A+!! Great! Staff! And manager! Was very helpful and attentive! Highly recommend staying at this  place or any of there other locations ☺,I have been to many other hotels and had horrible service provided.MoreShow less</t>
+  </si>
+  <si>
+    <t>Awsome place close to so! Many! Things! To do! Management! A+!! Great! Staff! And manager! Was very helpful and attentive! Highly recommend staying at this  place or any of there other locations ☺,I have been to many other hotels and had horrible service provided.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r590211707-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>590211707</t>
+  </si>
+  <si>
+    <t>06/24/2018</t>
+  </si>
+  <si>
+    <t>Great Manager</t>
+  </si>
+  <si>
+    <t>Great location, helpful and kind staff. Was a wonderful place to stay temporarily while I was house shopping. The General Manager was very helpful and bent over backward to make our stay comfortable. Would recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Stafford, responded to this reviewResponded June 24, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 24, 2018</t>
+  </si>
+  <si>
+    <t>Great location, helpful and kind staff. Was a wonderful place to stay temporarily while I was house shopping. The General Manager was very helpful and bent over backward to make our stay comfortable. Would recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r568909211-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>568909211</t>
+  </si>
+  <si>
+    <t>03/26/2018</t>
+  </si>
+  <si>
+    <t>Worst experience ever!</t>
+  </si>
+  <si>
+    <t>The hotel itself had lots of bugs and weird stains on the pull out bed. The price they charged me was more and I still paid it. Staff didn’t come to clean the room because we weren’t staying there long enough (5 days we stayed and had 8 rooms) they still didn’t clean. We had to return the dirty towels on our own and then get new towels from them. The staff didn’t notify me that there was no housekeeping nor of the towel situation. We had 4 people staying in one room and whole family was staying at the hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Stafford, responded to this reviewResponded March 27, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 27, 2018</t>
+  </si>
+  <si>
+    <t>The hotel itself had lots of bugs and weird stains on the pull out bed. The price they charged me was more and I still paid it. Staff didn’t come to clean the room because we weren’t staying there long enough (5 days we stayed and had 8 rooms) they still didn’t clean. We had to return the dirty towels on our own and then get new towels from them. The staff didn’t notify me that there was no housekeeping nor of the towel situation. We had 4 people staying in one room and whole family was staying at the hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r566286529-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>566286529</t>
+  </si>
+  <si>
+    <t>03/13/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medical </t>
+  </si>
+  <si>
+    <t>I have enjoyed a great stay while having some surgical procedures. The General Manager Terriko has been super accommodating. Great location with great weekly housekeeping services. I'm very happy with the services available and cleanliness. MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Stafford, responded to this reviewResponded March 14, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 14, 2018</t>
+  </si>
+  <si>
+    <t>I have enjoyed a great stay while having some surgical procedures. The General Manager Terriko has been super accommodating. Great location with great weekly housekeeping services. I'm very happy with the services available and cleanliness. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r556320221-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>556320221</t>
+  </si>
+  <si>
+    <t>01/25/2018</t>
+  </si>
+  <si>
+    <t>Just average room</t>
+  </si>
+  <si>
+    <t>My husband and I booked a 5-day stay but had to stay 7 days because of freezing and icy weather. The kitchen was well-equipped, but the room was quite crowded. For a stay this long, it was not very convenient. There were two office chairs for the little extended counter where we would eat, but other than that only one recliner and no sofa as we had somehow expected. The bed was comfortable and the place was reasonably clean. There was very little room to move around, and in order to watch TV, if there were two people present, one would have to sit on the bed or in one of the office chairs.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Stafford, responded to this reviewResponded January 26, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 26, 2018</t>
+  </si>
+  <si>
+    <t>My husband and I booked a 5-day stay but had to stay 7 days because of freezing and icy weather. The kitchen was well-equipped, but the room was quite crowded. For a stay this long, it was not very convenient. There were two office chairs for the little extended counter where we would eat, but other than that only one recliner and no sofa as we had somehow expected. The bed was comfortable and the place was reasonably clean. There was very little room to move around, and in order to watch TV, if there were two people present, one would have to sit on the bed or in one of the office chairs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r552802001-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>552802001</t>
+  </si>
+  <si>
+    <t>01/09/2018</t>
+  </si>
+  <si>
+    <t>Good place</t>
+  </si>
+  <si>
+    <t>The place is good for a week stay. Was expecting a breakfast service but there was a On-The-Go snack bars and hot chocolate and coffee instead which was a bit disappointment. The rates are a bit higher for service.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Stafford, responded to this reviewResponded January 10, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 10, 2018</t>
+  </si>
+  <si>
+    <t>The place is good for a week stay. Was expecting a breakfast service but there was a On-The-Go snack bars and hot chocolate and coffee instead which was a bit disappointment. The rates are a bit higher for service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r551551578-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>551551578</t>
+  </si>
+  <si>
+    <t>01/04/2018</t>
+  </si>
+  <si>
+    <t>Not bad but not great.</t>
+  </si>
+  <si>
+    <t>The room itself was fine. Could use an actual light in the shower. There were some bugs crawling at the bottom of the tub from what I assume is little use of a king suite. Easily fixed by running the water. Worst part was not feeling super safe. Wash comfortable leaving anything in my car, and people were banging on the walls and floor above us and yelling late at night and early in the morning. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Stafford, responded to this reviewResponded January 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 5, 2018</t>
+  </si>
+  <si>
+    <t>The room itself was fine. Could use an actual light in the shower. There were some bugs crawling at the bottom of the tub from what I assume is little use of a king suite. Easily fixed by running the water. Worst part was not feeling super safe. Wash comfortable leaving anything in my car, and people were banging on the walls and floor above us and yelling late at night and early in the morning. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r544214561-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>544214561</t>
+  </si>
+  <si>
+    <t>11/30/2017</t>
+  </si>
+  <si>
+    <t>Family stay</t>
+  </si>
+  <si>
+    <t>We feel every day  like we are at home thanks to the great staff at the hotel. Everyone is very warm and welcoming to us. The service is terrific and we have everything that we need.  We have a kitchen which allows us to cook together as a family. MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Stafford, responded to this reviewResponded November 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 30, 2017</t>
+  </si>
+  <si>
+    <t>We feel every day  like we are at home thanks to the great staff at the hotel. Everyone is very warm and welcoming to us. The service is terrific and we have everything that we need.  We have a kitchen which allows us to cook together as a family. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r530688524-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>530688524</t>
+  </si>
+  <si>
+    <t>10/05/2017</t>
+  </si>
+  <si>
+    <t>Experience</t>
+  </si>
+  <si>
+    <t>The hotel staff is very helpful and nice. We love to stay here. It is very quiet and easy to get to all kind of places in Houston. Freeway and shopping is easy to get to. Pool is great for the kids and adults and it feels like being on vacationMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Stafford, responded to this reviewResponded October 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 7, 2017</t>
+  </si>
+  <si>
+    <t>The hotel staff is very helpful and nice. We love to stay here. It is very quiet and easy to get to all kind of places in Houston. Freeway and shopping is easy to get to. Pool is great for the kids and adults and it feels like being on vacationMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r511469375-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>511469375</t>
+  </si>
+  <si>
+    <t>08/11/2017</t>
+  </si>
+  <si>
+    <t>Staff</t>
+  </si>
+  <si>
+    <t>Awesome stay made this my home away from home will gladly return.  Bathrooms were clean everyone was very helpful to make sure I was comfortable it's was in a great location. Major restaurant and grocery store within walking distance. Your stay here is a must.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Stafford, responded to this reviewResponded August 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 12, 2017</t>
+  </si>
+  <si>
+    <t>Awesome stay made this my home away from home will gladly return.  Bathrooms were clean everyone was very helpful to make sure I was comfortable it's was in a great location. Major restaurant and grocery store within walking distance. Your stay here is a must.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r505192108-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>505192108</t>
+  </si>
+  <si>
+    <t>07/24/2017</t>
+  </si>
+  <si>
+    <t>Great staff and very quiet and clean</t>
+  </si>
+  <si>
+    <t>My daughter and I were relocating to another state and needed to stay here in Stafford for a few nights. This extended stay was easy to book and very affordable. For this price you wouldn't expect such a nice accommodation. They provide free wifi and there are great channels. I would stay at this extended anytime! MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Stafford, responded to this reviewResponded July 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 25, 2017</t>
+  </si>
+  <si>
+    <t>My daughter and I were relocating to another state and needed to stay here in Stafford for a few nights. This extended stay was easy to book and very affordable. For this price you wouldn't expect such a nice accommodation. They provide free wifi and there are great channels. I would stay at this extended anytime! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r504869981-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>504869981</t>
+  </si>
+  <si>
+    <t>07/23/2017</t>
+  </si>
+  <si>
+    <t>Convenient location.</t>
+  </si>
+  <si>
+    <t>Everything was very good, excellent service, very nice staff, good price, everything you need it's around 10 miles away. Was convenient close to work, freeways all around. Thanks to everyone there for your kindness.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Stafford, responded to this reviewResponded July 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 24, 2017</t>
+  </si>
+  <si>
+    <t>Everything was very good, excellent service, very nice staff, good price, everything you need it's around 10 miles away. Was convenient close to work, freeways all around. Thanks to everyone there for your kindness.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r502823482-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>502823482</t>
+  </si>
+  <si>
+    <t>07/17/2017</t>
+  </si>
+  <si>
+    <t>Cockroaches in room</t>
+  </si>
+  <si>
+    <t>Cockroaches in room, constantly leaking at shower, rooms too small, bad odor, like cigarettes, pool is dirty, there was always a pair of sandals floating and a bath suitcase in the bottom. Pros: nice neighborhood, quiet. MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Stafford, responded to this reviewResponded July 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2017</t>
+  </si>
+  <si>
+    <t>Cockroaches in room, constantly leaking at shower, rooms too small, bad odor, like cigarettes, pool is dirty, there was always a pair of sandals floating and a bath suitcase in the bottom. Pros: nice neighborhood, quiet. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r495537346-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>495537346</t>
+  </si>
+  <si>
+    <t>06/23/2017</t>
+  </si>
+  <si>
+    <t>Two story hotel with no elevator</t>
+  </si>
+  <si>
+    <t>This is a decent Extended Stay America motel in most respects. My problem was that it is two stories with no elevator and no available ground floor rooms. I have a bad knee and the stair climbing and descent was arduous to say the least. They do have a very nice fitness center with everything operative which is unusual for Extended StayMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Stafford, responded to this reviewResponded June 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 24, 2017</t>
+  </si>
+  <si>
+    <t>This is a decent Extended Stay America motel in most respects. My problem was that it is two stories with no elevator and no available ground floor rooms. I have a bad knee and the stair climbing and descent was arduous to say the least. They do have a very nice fitness center with everything operative which is unusual for Extended StayMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r494445781-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>494445781</t>
+  </si>
+  <si>
+    <t>06/19/2017</t>
+  </si>
+  <si>
+    <t>Dirty Pool</t>
+  </si>
+  <si>
+    <t>Room was nice but pool was very dirty. One of our planned activities while visiting was to enjoy the pool, very disappointed. Should not have to use 200 characters or more to leave a review. My review should be my choice of words and how many.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Stafford, responded to this reviewResponded June 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 20, 2017</t>
+  </si>
+  <si>
+    <t>Room was nice but pool was very dirty. One of our planned activities while visiting was to enjoy the pool, very disappointed. Should not have to use 200 characters or more to leave a review. My review should be my choice of words and how many.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r499306910-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>499306910</t>
+  </si>
+  <si>
+    <t>06/14/2017</t>
+  </si>
+  <si>
+    <t>Great Home Away From Home</t>
+  </si>
+  <si>
+    <t>Just like home. We are in transition and the staff makes it very accommodating. The kids like the pool. The room is nice and big and it feels like we are really living in an actual apartment complex.  The neighbors all seem to be very comfortablethere as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Stafford, responded to this reviewResponded July 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 12, 2017</t>
+  </si>
+  <si>
+    <t>Just like home. We are in transition and the staff makes it very accommodating. The kids like the pool. The room is nice and big and it feels like we are really living in an actual apartment complex.  The neighbors all seem to be very comfortablethere as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r490854237-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>490854237</t>
+  </si>
+  <si>
+    <t>06/05/2017</t>
+  </si>
+  <si>
+    <t>Excellent Hotel Experience at Stay America Stafford</t>
+  </si>
+  <si>
+    <t>I have stayed in numerous Hotels, and many have been upscale and some casual and one thing that I value the most is customer service. I appreciate the friendly greeting from not only the General Manager but also from the entire staff, and if you have any concerns anyone from her staff can help you and it is immediately taken care of! I feel right at home at Stay America in Stafford, and so will you!MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Stafford, responded to this reviewResponded June 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 6, 2017</t>
+  </si>
+  <si>
+    <t>I have stayed in numerous Hotels, and many have been upscale and some casual and one thing that I value the most is customer service. I appreciate the friendly greeting from not only the General Manager but also from the entire staff, and if you have any concerns anyone from her staff can help you and it is immediately taken care of! I feel right at home at Stay America in Stafford, and so will you!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r440764534-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>440764534</t>
+  </si>
+  <si>
+    <t>11/28/2016</t>
+  </si>
+  <si>
+    <t>What happened to this chain?</t>
+  </si>
+  <si>
+    <t>First, we were put in a room that had a phone cord across the middle of the room from baseboard to baseboard (not like it could be unplugged) - the night clerk was able to find us two non-slip door mats to put over it.  We had to call for a coffee maker and mugs (absolutely no dishes, flatware or kitchen ware - more on that later), and then again for a TV remote!  The night clerk was very sweet and helpful, but quite embarrassed about the whole situation.
+The next morning the manager told us that NOW it's corporate policy that the guests ORDER what kitchen items they need and then they are brought up (really???).  That was also when we found out that this room should not have been rented (they knew about the phone cord), and they were apparently overbooked so there were no other rooms available.  (We had made our two-night reservation at least two weeks in advance on the Extended Stay website.)  She refunded our charges and called the Sugar Land location to have us move there for the remainder of our trip. We ended up going to the new Marriott next door in Sugar Land. 
+We used to stay in Extended Stay hotels in Atlanta, Indianapolis, and other areas and to find that NOW the rooms are not properly set up before guests are checked in, and that they overbook is disappointing.  It's like...First, we were put in a room that had a phone cord across the middle of the room from baseboard to baseboard (not like it could be unplugged) - the night clerk was able to find us two non-slip door mats to put over it.  We had to call for a coffee maker and mugs (absolutely no dishes, flatware or kitchen ware - more on that later), and then again for a TV remote!  The night clerk was very sweet and helpful, but quite embarrassed about the whole situation.The next morning the manager told us that NOW it's corporate policy that the guests ORDER what kitchen items they need and then they are brought up (really???).  That was also when we found out that this room should not have been rented (they knew about the phone cord), and they were apparently overbooked so there were no other rooms available.  (We had made our two-night reservation at least two weeks in advance on the Extended Stay website.)  She refunded our charges and called the Sugar Land location to have us move there for the remainder of our trip. We ended up going to the new Marriott next door in Sugar Land. We used to stay in Extended Stay hotels in Atlanta, Indianapolis, and other areas and to find that NOW the rooms are not properly set up before guests are checked in, and that they overbook is disappointing.  It's like they don't trust their clients.  Too bad.(And their towels were like sandpaper.)MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>First, we were put in a room that had a phone cord across the middle of the room from baseboard to baseboard (not like it could be unplugged) - the night clerk was able to find us two non-slip door mats to put over it.  We had to call for a coffee maker and mugs (absolutely no dishes, flatware or kitchen ware - more on that later), and then again for a TV remote!  The night clerk was very sweet and helpful, but quite embarrassed about the whole situation.
+The next morning the manager told us that NOW it's corporate policy that the guests ORDER what kitchen items they need and then they are brought up (really???).  That was also when we found out that this room should not have been rented (they knew about the phone cord), and they were apparently overbooked so there were no other rooms available.  (We had made our two-night reservation at least two weeks in advance on the Extended Stay website.)  She refunded our charges and called the Sugar Land location to have us move there for the remainder of our trip. We ended up going to the new Marriott next door in Sugar Land. 
+We used to stay in Extended Stay hotels in Atlanta, Indianapolis, and other areas and to find that NOW the rooms are not properly set up before guests are checked in, and that they overbook is disappointing.  It's like...First, we were put in a room that had a phone cord across the middle of the room from baseboard to baseboard (not like it could be unplugged) - the night clerk was able to find us two non-slip door mats to put over it.  We had to call for a coffee maker and mugs (absolutely no dishes, flatware or kitchen ware - more on that later), and then again for a TV remote!  The night clerk was very sweet and helpful, but quite embarrassed about the whole situation.The next morning the manager told us that NOW it's corporate policy that the guests ORDER what kitchen items they need and then they are brought up (really???).  That was also when we found out that this room should not have been rented (they knew about the phone cord), and they were apparently overbooked so there were no other rooms available.  (We had made our two-night reservation at least two weeks in advance on the Extended Stay website.)  She refunded our charges and called the Sugar Land location to have us move there for the remainder of our trip. We ended up going to the new Marriott next door in Sugar Land. We used to stay in Extended Stay hotels in Atlanta, Indianapolis, and other areas and to find that NOW the rooms are not properly set up before guests are checked in, and that they overbook is disappointing.  It's like they don't trust their clients.  Too bad.(And their towels were like sandpaper.)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r428865421-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>428865421</t>
+  </si>
+  <si>
+    <t>10/17/2016</t>
+  </si>
+  <si>
+    <t>Horrible customer service</t>
+  </si>
+  <si>
+    <t>Came back to find front desk clerk in my room, another night i was sleeping at 11:45 and a man entered my room and said the front desk clerk gave him a key, requested a phone from several different staff members, never received, stayed for over a month housekeeping came once.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r396932573-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>396932573</t>
+  </si>
+  <si>
+    <t>07/25/2016</t>
+  </si>
+  <si>
+    <t>Horrible experience, stinky room, no room service</t>
+  </si>
+  <si>
+    <t>I had to travel in past few months frequently for my sales business to Houston. Stayed in this place for 4 times as I had no other option available due one reason or another. The bathrooms always had broken or dirty toilet seats, the flush would usually not work properly. The carpets smell bad, you will always find some kind of bug here or there. Always buy the insect killer spray if you have to stay here and use it frequently before going out.They usually come from tub drain or the door. The room service is entirely dependent on how the staff is feeling that particular day or who's on duty at the time of call. Some times there are nice and professional staff to answer your call but that's quite rare.My advice : think twice before staying here, only if you have no other options available like me.God BlessMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>I had to travel in past few months frequently for my sales business to Houston. Stayed in this place for 4 times as I had no other option available due one reason or another. The bathrooms always had broken or dirty toilet seats, the flush would usually not work properly. The carpets smell bad, you will always find some kind of bug here or there. Always buy the insect killer spray if you have to stay here and use it frequently before going out.They usually come from tub drain or the door. The room service is entirely dependent on how the staff is feeling that particular day or who's on duty at the time of call. Some times there are nice and professional staff to answer your call but that's quite rare.My advice : think twice before staying here, only if you have no other options available like me.God BlessMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r389702256-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>389702256</t>
+  </si>
+  <si>
+    <t>07/06/2016</t>
+  </si>
+  <si>
+    <t>It is a room.</t>
+  </si>
+  <si>
+    <t>We entered the room and turned on the lamp.  It started sparking and smoking.   The lamp had a compact fluorescent bulb and the bulb was broken. (See picture)  Called the front office and was told maintenance wouldn't be there for a few days.  Would have to wait.  Trash was piled up for the two day's  we were there.  (See picture) The one thing I did like was the room layout.  Had a kitchenette.  A refrigerator,  two burner stove top, a microwave and even a dishwasher but no dishes, no pots or pans and no utensils.  We called the front office, they told us we would have to check out those amenities from the front office.  They did offer breakfast, oatmeal bars, muffins, apples, oatmeal, coffee and tea.  So much more I didn't get pictures of so won't comment on them.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>We entered the room and turned on the lamp.  It started sparking and smoking.   The lamp had a compact fluorescent bulb and the bulb was broken. (See picture)  Called the front office and was told maintenance wouldn't be there for a few days.  Would have to wait.  Trash was piled up for the two day's  we were there.  (See picture) The one thing I did like was the room layout.  Had a kitchenette.  A refrigerator,  two burner stove top, a microwave and even a dishwasher but no dishes, no pots or pans and no utensils.  We called the front office, they told us we would have to check out those amenities from the front office.  They did offer breakfast, oatmeal bars, muffins, apples, oatmeal, coffee and tea.  So much more I didn't get pictures of so won't comment on them.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r388863203-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>388863203</t>
+  </si>
+  <si>
+    <t>07/03/2016</t>
+  </si>
+  <si>
+    <t>Avoid like the plague</t>
+  </si>
+  <si>
+    <t>I am glad I did not get to book for three nights. I called the hotel for reservation and was told only one room was available  so I booked. I wish I had hung up and checked the travel sites.   This property has been so neglected.  The carpet is shredding. There was nothing to set suitcases on. The light bulb in the only lamp was broken and their was no maintenance available.  Our room was dark and dingy. This is suppose to have a coffee maker and utensils  since it is extended stay. Apparently you have to request those ir l tems. There is no dish soap..no soap for the dishwasher and no housekeeping. None of this was disclosed at booking b phone.  If you want housekeeping you apparently have to pay extra. Free Internet has worked so far .  I see where some people got room rates of 50.00...went were charged 88.00.  I wouldn't mind the difference if the place was well kept and clean. I have learned a valuable lesson. Trust no one.MoreShow less</t>
+  </si>
+  <si>
+    <t>I am glad I did not get to book for three nights. I called the hotel for reservation and was told only one room was available  so I booked. I wish I had hung up and checked the travel sites.   This property has been so neglected.  The carpet is shredding. There was nothing to set suitcases on. The light bulb in the only lamp was broken and their was no maintenance available.  Our room was dark and dingy. This is suppose to have a coffee maker and utensils  since it is extended stay. Apparently you have to request those ir l tems. There is no dish soap..no soap for the dishwasher and no housekeeping. None of this was disclosed at booking b phone.  If you want housekeeping you apparently have to pay extra. Free Internet has worked so far .  I see where some people got room rates of 50.00...went were charged 88.00.  I wouldn't mind the difference if the place was well kept and clean. I have learned a valuable lesson. Trust no one.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r381642032-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>381642032</t>
+  </si>
+  <si>
+    <t>06/11/2016</t>
+  </si>
+  <si>
+    <t>Avoid this place at all cost</t>
+  </si>
+  <si>
+    <t>The rooms are very small, the customer service is poor, and the room which is a kitchenette doesn't come with utensils. When I arrived I was told there were no rooms available, even though I had a reservation. The front desk clerk was at the end of his shift and said there is nothing he can do and left the building. They offer free slow wifi. I had to use my phone 4G and it was much faster. When I arrive there was a roach having babies that I had to smash. Stay Away!</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r360162597-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>360162597</t>
+  </si>
+  <si>
+    <t>03/30/2016</t>
+  </si>
+  <si>
+    <t>Great for short term stays</t>
+  </si>
+  <si>
+    <t>This was a great and afforadable place to stay due to the discounted rate I received from my school's program. Also, the manager was fair and worked with us in so many ways. I recommend speaking to the staff when you have issues. They solved all my concerns.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r316140226-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>316140226</t>
+  </si>
+  <si>
+    <t>10/04/2015</t>
+  </si>
+  <si>
+    <t>A filthy flop house.  No room cleaning for over a week. No hot water for over a week</t>
+  </si>
+  <si>
+    <t>I stayed in that dirty joint for a month. What a ghastly experience. Garbage a pled high for days   No hot water for a bath for over a week  cigarette butts all over the passagesIndifferent and shabby staff  Disgusting flop houseMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Stafford, responded to this reviewResponded October 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 14, 2015</t>
+  </si>
+  <si>
+    <t>I stayed in that dirty joint for a month. What a ghastly experience. Garbage a pled high for days   No hot water for a bath for over a week  cigarette butts all over the passagesIndifferent and shabby staff  Disgusting flop houseMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r281923434-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>281923434</t>
+  </si>
+  <si>
+    <t>06/21/2015</t>
+  </si>
+  <si>
+    <t>Needs an overhual</t>
+  </si>
+  <si>
+    <t>This hotel has a great location and is quiet but the rooms were not cleaned well and the  furniture needs replacing. The refrigerator and the metal door had large dents in them. The couch was sagging and the curtains had some stains. The landscaping was great. I wish they would invest some of the landscaping costs on upgrading the rooms.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r267746578-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>267746578</t>
+  </si>
+  <si>
+    <t>04/24/2015</t>
+  </si>
+  <si>
+    <t>terrible hotel room</t>
+  </si>
+  <si>
+    <t>The refrigerator was turned off with bad smell, room was hot with no air and also smelled, kitchen floor was sticky, there was absolutely nothing in the kitchen - not even a coffee pot in the room.  I had to go the lobby for coffee, and the advertised breakfast is granola bars, apples, and instant bags of oatmeal.  Everything about this hotel is CHEAP - I paid $100 for a room that should have cost $49 - Motel 6 or Super 8 have better hotel rooms at half the price.  Front desk staff seems completely uninterested - both at check in and at check out (different people).  This hotel cannot possibly get repeat business.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>The refrigerator was turned off with bad smell, room was hot with no air and also smelled, kitchen floor was sticky, there was absolutely nothing in the kitchen - not even a coffee pot in the room.  I had to go the lobby for coffee, and the advertised breakfast is granola bars, apples, and instant bags of oatmeal.  Everything about this hotel is CHEAP - I paid $100 for a room that should have cost $49 - Motel 6 or Super 8 have better hotel rooms at half the price.  Front desk staff seems completely uninterested - both at check in and at check out (different people).  This hotel cannot possibly get repeat business.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r259032570-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>259032570</t>
+  </si>
+  <si>
+    <t>03/11/2015</t>
+  </si>
+  <si>
+    <t>Dirtiest Hotel I Have Ever Stayed At</t>
+  </si>
+  <si>
+    <t>I stayed for 1 night, and can honestly say it was the dirtiest hotel I've ever stayed at. Check-In took almost 30 minutes for our group of 7, and 6 of us had to return to the front desk because our cards did not work.  Very inconvenient.  We would have left for a different hotel but we arrived late at night, and didn't have time.  Upon entering my room, I noticed it was filthy.  Patches on the walls and ceilings, stains everywhere, and i'm afraid of what else the dark carpet was hiding.  I made sure none of my things touched the floor.  The black chairs in the kitchen area had white stains all over, and the beds both looked dirty.  I pulled back the sheets on one bed and found a ton of what looked like pubic hair... needless to say i didn't sleep in that bed.  There was also hair all over the bathroom.  Overall, this place deserves zero stars, and should probably be condemned at this point.  Stay here at your own risk...MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>I stayed for 1 night, and can honestly say it was the dirtiest hotel I've ever stayed at. Check-In took almost 30 minutes for our group of 7, and 6 of us had to return to the front desk because our cards did not work.  Very inconvenient.  We would have left for a different hotel but we arrived late at night, and didn't have time.  Upon entering my room, I noticed it was filthy.  Patches on the walls and ceilings, stains everywhere, and i'm afraid of what else the dark carpet was hiding.  I made sure none of my things touched the floor.  The black chairs in the kitchen area had white stains all over, and the beds both looked dirty.  I pulled back the sheets on one bed and found a ton of what looked like pubic hair... needless to say i didn't sleep in that bed.  There was also hair all over the bathroom.  Overall, this place deserves zero stars, and should probably be condemned at this point.  Stay here at your own risk...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r232066527-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>232066527</t>
+  </si>
+  <si>
+    <t>10/01/2014</t>
+  </si>
+  <si>
+    <t>Miserable stay</t>
+  </si>
+  <si>
+    <t>This particular Extended Stay needs better cleaning staff before one client checks in there should be checks and balances and there seem to not be or I would not encounted all the problems of dust ants broke phone and disher washer and bad odor.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r226638891-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>226638891</t>
+  </si>
+  <si>
+    <t>09/03/2014</t>
+  </si>
+  <si>
+    <t>Great service staff, rooms not cleaned well.</t>
+  </si>
+  <si>
+    <t>Well, I booked here on hotwire, and then saw the reviews and got really worried. I really didn't want to stay in a place with bugs. To be really clear! I saw no bugs at all during my stay. There were NO roaches and NO bedbugs. Seems this problem has been taken care of. When I checked in the service was fast and friendly. She got us set up really quickly and explained everything well. We forgot to pack toothpaste and they provided for us! Great staff. The room was nice, we liked it, but details were missed in it's cleaning. The room wasn't filthy but something's were just missed. The fridge had a big, impossible to miss spill. Otherwise was clean, but how could they miss such a big choc milk spill. And in the shower, the tub felt like it had not been cleaned, and there was used soap caked onto the soap dish. This had me concerned so I did a detailed search of the room and mostly everything else was ok. Sheets looked like they were washed at least. I'm not sure I would return. I was very happy that there were NO BUGS though. So if thats your main worry you will be ok here. MoreShow less</t>
+  </si>
+  <si>
+    <t>Well, I booked here on hotwire, and then saw the reviews and got really worried. I really didn't want to stay in a place with bugs. To be really clear! I saw no bugs at all during my stay. There were NO roaches and NO bedbugs. Seems this problem has been taken care of. When I checked in the service was fast and friendly. She got us set up really quickly and explained everything well. We forgot to pack toothpaste and they provided for us! Great staff. The room was nice, we liked it, but details were missed in it's cleaning. The room wasn't filthy but something's were just missed. The fridge had a big, impossible to miss spill. Otherwise was clean, but how could they miss such a big choc milk spill. And in the shower, the tub felt like it had not been cleaned, and there was used soap caked onto the soap dish. This had me concerned so I did a detailed search of the room and mostly everything else was ok. Sheets looked like they were washed at least. I'm not sure I would return. I was very happy that there were NO BUGS though. So if thats your main worry you will be ok here. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r211975971-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>211975971</t>
+  </si>
+  <si>
+    <t>06/25/2014</t>
+  </si>
+  <si>
+    <t>Ok if room is DEEPLY discounted</t>
+  </si>
+  <si>
+    <t>Full Disclosure: our room was DEEPLY discounted through the American Cancer Society.
+The entire facility is in desperate need of an overhaul, that said, almost all of our complaints would be fixed with a renovation.  The room was very nice and spacious, very quiet, we never heard neighbors, and despite being motel style felt very safe.  The surrounding area didn't feel unsafe, we just prefer not to open to the outside. Full kitchen with dishwasher and two burner stove top.  The dishwasher was connected to a strange light switch on the wall, so initially we thought it didn't work.  The kitchen light was temperamental and required flipping the switch multiple times in order for it to turn on.  We have never experienced an air unit like this one, the options were high fan, low fan, off, with no thermostat to set - so a fan was blowing all the time and the air unit would kick on and off "as needed" but I have no idea what determined that.  The room was always very comfortable and we stopped hearing the fan after a while, it was just constant white noise in the room.  The decor was dated, but had nice amenities including onsite laundry, which we used, and a few workout machine we did not, and a pool.  There were no bed bugs as mentioned in previous reviews and, with a discount we would stay here again.  For an extended...Full Disclosure: our room was DEEPLY discounted through the American Cancer Society.The entire facility is in desperate need of an overhaul, that said, almost all of our complaints would be fixed with a renovation.  The room was very nice and spacious, very quiet, we never heard neighbors, and despite being motel style felt very safe.  The surrounding area didn't feel unsafe, we just prefer not to open to the outside. Full kitchen with dishwasher and two burner stove top.  The dishwasher was connected to a strange light switch on the wall, so initially we thought it didn't work.  The kitchen light was temperamental and required flipping the switch multiple times in order for it to turn on.  We have never experienced an air unit like this one, the options were high fan, low fan, off, with no thermostat to set - so a fan was blowing all the time and the air unit would kick on and off "as needed" but I have no idea what determined that.  The room was always very comfortable and we stopped hearing the fan after a while, it was just constant white noise in the room.  The decor was dated, but had nice amenities including onsite laundry, which we used, and a few workout machine we did not, and a pool.  There were no bed bugs as mentioned in previous reviews and, with a discount we would stay here again.  For an extended stay we had a safe, comfortable place to sleep and cook our own meals, which helped save money. With a nice renovation we would even consider staying at full price.  Staff was very nice and we only ran into one issue upon checkout.  We checked out before dawn, the front door was locked and I had to wait for the girl to open it.  We checked out two days earlier than we had planned, but had called the day before and were told it wouldn't be an issue.  The girl running the desk overnight was not able to check us out because, in her own words, "they didn't teach me how to do this." She said the morning staff would have to refund the remaining balance and complete the check out process when they got in around 7.  She left a note and we will see.  I did take the managers card to call in case this doesn't happen.  This is a staffing (and professionalism) issue that probably should be addressed, but would not come in to play if we were deciding to stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Full Disclosure: our room was DEEPLY discounted through the American Cancer Society.
+The entire facility is in desperate need of an overhaul, that said, almost all of our complaints would be fixed with a renovation.  The room was very nice and spacious, very quiet, we never heard neighbors, and despite being motel style felt very safe.  The surrounding area didn't feel unsafe, we just prefer not to open to the outside. Full kitchen with dishwasher and two burner stove top.  The dishwasher was connected to a strange light switch on the wall, so initially we thought it didn't work.  The kitchen light was temperamental and required flipping the switch multiple times in order for it to turn on.  We have never experienced an air unit like this one, the options were high fan, low fan, off, with no thermostat to set - so a fan was blowing all the time and the air unit would kick on and off "as needed" but I have no idea what determined that.  The room was always very comfortable and we stopped hearing the fan after a while, it was just constant white noise in the room.  The decor was dated, but had nice amenities including onsite laundry, which we used, and a few workout machine we did not, and a pool.  There were no bed bugs as mentioned in previous reviews and, with a discount we would stay here again.  For an extended...Full Disclosure: our room was DEEPLY discounted through the American Cancer Society.The entire facility is in desperate need of an overhaul, that said, almost all of our complaints would be fixed with a renovation.  The room was very nice and spacious, very quiet, we never heard neighbors, and despite being motel style felt very safe.  The surrounding area didn't feel unsafe, we just prefer not to open to the outside. Full kitchen with dishwasher and two burner stove top.  The dishwasher was connected to a strange light switch on the wall, so initially we thought it didn't work.  The kitchen light was temperamental and required flipping the switch multiple times in order for it to turn on.  We have never experienced an air unit like this one, the options were high fan, low fan, off, with no thermostat to set - so a fan was blowing all the time and the air unit would kick on and off "as needed" but I have no idea what determined that.  The room was always very comfortable and we stopped hearing the fan after a while, it was just constant white noise in the room.  The decor was dated, but had nice amenities including onsite laundry, which we used, and a few workout machine we did not, and a pool.  There were no bed bugs as mentioned in previous reviews and, with a discount we would stay here again.  For an extended stay we had a safe, comfortable place to sleep and cook our own meals, which helped save money. With a nice renovation we would even consider staying at full price.  Staff was very nice and we only ran into one issue upon checkout.  We checked out before dawn, the front door was locked and I had to wait for the girl to open it.  We checked out two days earlier than we had planned, but had called the day before and were told it wouldn't be an issue.  The girl running the desk overnight was not able to check us out because, in her own words, "they didn't teach me how to do this." She said the morning staff would have to refund the remaining balance and complete the check out process when they got in around 7.  She left a note and we will see.  I did take the managers card to call in case this doesn't happen.  This is a staffing (and professionalism) issue that probably should be addressed, but would not come in to play if we were deciding to stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r196761234-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>196761234</t>
+  </si>
+  <si>
+    <t>03/09/2014</t>
+  </si>
+  <si>
+    <t>convenient location, but....</t>
+  </si>
+  <si>
+    <t>We stay at these ESA all the time. They all vary, but this one does have a bug problem. Our room was okay , the furniture did look very used, especially the sofa /stained. I always check under my sheets no matter if its a 3/5 star hotel . What a surprise to see the mattress cover that was stained and had someone else's  hair woven into the fibers. They did bring me clean linens when I showed it to them but.... That's sooo GROSS !! bathrooms had a moldy smell. there are other ESA's in the area fairly close by , the real one's with everything indoor. I would try another one. I saw drug dealing and prostitution going on. I guess those people live at the hotel. Lots of unwatched children running around. They were nice kids but... dontcha think at a hotel, where any predator could be.!!! They would keep a better eye on them. very sad ! : ( So It's close to a walmart and many restaurants and a gas station . Also close to a shopping strip mall . most of the staff were nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>We stay at these ESA all the time. They all vary, but this one does have a bug problem. Our room was okay , the furniture did look very used, especially the sofa /stained. I always check under my sheets no matter if its a 3/5 star hotel . What a surprise to see the mattress cover that was stained and had someone else's  hair woven into the fibers. They did bring me clean linens when I showed it to them but.... That's sooo GROSS !! bathrooms had a moldy smell. there are other ESA's in the area fairly close by , the real one's with everything indoor. I would try another one. I saw drug dealing and prostitution going on. I guess those people live at the hotel. Lots of unwatched children running around. They were nice kids but... dontcha think at a hotel, where any predator could be.!!! They would keep a better eye on them. very sad ! : ( So It's close to a walmart and many restaurants and a gas station . Also close to a shopping strip mall . most of the staff were nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r193206525-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>193206525</t>
+  </si>
+  <si>
+    <t>02/05/2014</t>
+  </si>
+  <si>
+    <t>Horrible!!</t>
+  </si>
+  <si>
+    <t>I felt like I was staying at the bates motel.  Filthy curtains, carpet, and bedspread.  I had to wear socks the entire time I was in the room.  Everything but the sheets had stains on them.  Absolutely gross.  I wouldn't ever recommend this place.  Avoid at all costs.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Stafford, responded to this reviewResponded February 7, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 7, 2014</t>
+  </si>
+  <si>
+    <t>I felt like I was staying at the bates motel.  Filthy curtains, carpet, and bedspread.  I had to wear socks the entire time I was in the room.  Everything but the sheets had stains on them.  Absolutely gross.  I wouldn't ever recommend this place.  Avoid at all costs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r188689396-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>188689396</t>
+  </si>
+  <si>
+    <t>12/27/2013</t>
+  </si>
+  <si>
+    <t>Very misleading</t>
+  </si>
+  <si>
+    <t>This is a real review that is not being posted by an angry customer but someone who would like to make others aware of what they are getting into. My room had many roaches. Staff was amazing but roaches!??! now i see reviews for bed bugs....I hope I did not bring any home. Upon checkout staff member told me they were aware of the roaches. Also, this resembles a motel not a hotel! All doors lead to the outside. Ruined my Christmas vacation with my husband. Hotwire gave us this room. i have stayed in 2 star hotels and had a awesome room but this was disgusting.</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r187265673-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>187265673</t>
+  </si>
+  <si>
+    <t>12/10/2013</t>
+  </si>
+  <si>
+    <t>Just Fine</t>
+  </si>
+  <si>
+    <t>The staff is extremely professional and kind.  Overall, the facility is average.  Our room was much smaller than other Extended Stay's, but clean and comfortable.  Nothing is terribly impressive about this facility.  It is simply a place to sleep.  Our room did have a flat screen TV with Showtime, which was nice.  My wife and I stayed here because we received a really low rate via hotwire.  I probably wouldn't choose to stay here again, unless the price was right.The location is great.  Shopping and good food is close by.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Stafford, responded to this reviewResponded December 18, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 18, 2013</t>
+  </si>
+  <si>
+    <t>The staff is extremely professional and kind.  Overall, the facility is average.  Our room was much smaller than other Extended Stay's, but clean and comfortable.  Nothing is terribly impressive about this facility.  It is simply a place to sleep.  Our room did have a flat screen TV with Showtime, which was nice.  My wife and I stayed here because we received a really low rate via hotwire.  I probably wouldn't choose to stay here again, unless the price was right.The location is great.  Shopping and good food is close by.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r186655594-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>186655594</t>
+  </si>
+  <si>
+    <t>12/03/2013</t>
+  </si>
+  <si>
+    <t>Don't Stay At This Hotel</t>
+  </si>
+  <si>
+    <t>I made an online reservation for 8 nights and was charged for 9.  It took two days and several phone messages before the manager finally contacted me.  Apparently when my card was swiped upon check-in for the TOTAL AMOUNT, the excuse was made that I wasn't charged for sales tax.  Why would you not include sales tax in the confirmation, or mention it at check-in during payment or during check-out?  Anyway, for $79 a night, there are better places in the Houston area to stay that are less noisy, with more comfortable beds, and a better TV lineup.  The "deluxe" pullout sleeper had springs poking through the mattress and was unfit to sleep on.  My guest had on choice but to sleep on the sofa itself instead.  After 8 nights, I never did get a TV lineup despite asking for one at the front desk several times.  Bottom line, there are better values for your dollar in Houston.  The front desk ladies were very nice and tried to help as they could, but billing policies made something very simple very complicated and frustrating.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Stafford, responded to this reviewResponded December 20, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 20, 2013</t>
+  </si>
+  <si>
+    <t>I made an online reservation for 8 nights and was charged for 9.  It took two days and several phone messages before the manager finally contacted me.  Apparently when my card was swiped upon check-in for the TOTAL AMOUNT, the excuse was made that I wasn't charged for sales tax.  Why would you not include sales tax in the confirmation, or mention it at check-in during payment or during check-out?  Anyway, for $79 a night, there are better places in the Houston area to stay that are less noisy, with more comfortable beds, and a better TV lineup.  The "deluxe" pullout sleeper had springs poking through the mattress and was unfit to sleep on.  My guest had on choice but to sleep on the sofa itself instead.  After 8 nights, I never did get a TV lineup despite asking for one at the front desk several times.  Bottom line, there are better values for your dollar in Houston.  The front desk ladies were very nice and tried to help as they could, but billing policies made something very simple very complicated and frustrating.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r184967743-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>184967743</t>
+  </si>
+  <si>
+    <t>11/17/2013</t>
+  </si>
+  <si>
+    <t>Almost there, but not quite</t>
+  </si>
+  <si>
+    <t>The hotel was ok, not great, but not terrible. But it really has some good potential. The staff for the most part were friendly enough, but I didn't get the room type I had reserved and when mentioned the response was "I'll look into it" and a week later, nothing.The room I did get was what was expected, somewhat worn but clean and functional. The kitchen was functional and did its job. AC was great and worked perfectly.The hotel internet was HORRIBLE!!! Even paying for the faster service didn't resolve the problems and it wasn't nearly the 2.5 times faster than was advertised it would be. The pool was dirty and I don't think the leaves were cleaned out of it once during my stay.It's a tough decision to come back or try another hotel in the areaMoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel was ok, not great, but not terrible. But it really has some good potential. The staff for the most part were friendly enough, but I didn't get the room type I had reserved and when mentioned the response was "I'll look into it" and a week later, nothing.The room I did get was what was expected, somewhat worn but clean and functional. The kitchen was functional and did its job. AC was great and worked perfectly.The hotel internet was HORRIBLE!!! Even paying for the faster service didn't resolve the problems and it wasn't nearly the 2.5 times faster than was advertised it would be. The pool was dirty and I don't think the leaves were cleaned out of it once during my stay.It's a tough decision to come back or try another hotel in the areaMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r178255545-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>178255545</t>
+  </si>
+  <si>
+    <t>09/23/2013</t>
+  </si>
+  <si>
+    <t>Awesome Customer service</t>
+  </si>
+  <si>
+    <t>Myself and my wife stayed here for 2 months during a trip to the USA, the ladies at the reception were just awesome. Very friendly and were also willing to help, felt at home literally. Rooms were good and very functional, felt so comfy.Only issue was the corridor floors were quite dirty.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Stafford, responded to this reviewResponded September 25, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 25, 2013</t>
+  </si>
+  <si>
+    <t>Myself and my wife stayed here for 2 months during a trip to the USA, the ladies at the reception were just awesome. Very friendly and were also willing to help, felt at home literally. Rooms were good and very functional, felt so comfy.Only issue was the corridor floors were quite dirty.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r174219662-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>174219662</t>
+  </si>
+  <si>
+    <t>08/26/2013</t>
+  </si>
+  <si>
+    <t>They take excellent care of their guests</t>
+  </si>
+  <si>
+    <t>The whole staff was professional and courteous.  They made us feel at home and went beyond to see to it that we were comfortable!  They even made our dogs comfortable which we really appreciated!  The location was excellent and very close to my husbands new job (very convenient). MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Stafford, responded to this reviewResponded August 28, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 28, 2013</t>
+  </si>
+  <si>
+    <t>The whole staff was professional and courteous.  They made us feel at home and went beyond to see to it that we were comfortable!  They even made our dogs comfortable which we really appreciated!  The location was excellent and very close to my husbands new job (very convenient). More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r171455248-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>171455248</t>
+  </si>
+  <si>
+    <t>08/09/2013</t>
+  </si>
+  <si>
+    <t>Go anywhere else!</t>
+  </si>
+  <si>
+    <t>The staff is rude, they hotel is in disrepair, the rooms are filthy, and bugs will crawl on you! This is simply the worst run hotel that I have ever stayed at in America! The manager overcharged me for my stay and made no accomidation for the quality of the room of presence of large numbers of bugs. The other guests are very noisy. Very large dogs (Great Dane size) are allowed to stay. Their owner could not control the one present and it leaped on me and my family when he wanted. Stray dogs are common, and a guest's pitbull was not required to be on a leash. Dog fecies is never picked up, and the outside has a certain smell. Stay here at your own risk!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>The staff is rude, they hotel is in disrepair, the rooms are filthy, and bugs will crawl on you! This is simply the worst run hotel that I have ever stayed at in America! The manager overcharged me for my stay and made no accomidation for the quality of the room of presence of large numbers of bugs. The other guests are very noisy. Very large dogs (Great Dane size) are allowed to stay. Their owner could not control the one present and it leaped on me and my family when he wanted. Stray dogs are common, and a guest's pitbull was not required to be on a leash. Dog fecies is never picked up, and the outside has a certain smell. Stay here at your own risk!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r164367396-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>164367396</t>
+  </si>
+  <si>
+    <t>06/18/2013</t>
+  </si>
+  <si>
+    <t>Restful</t>
+  </si>
+  <si>
+    <t>My stay would be perfect except my room was not cleaned well. Someone's hair stuck to the sink counters, bulbs out in kitchenette and trash in the floor that a vacuum would have easily removed. Front desk lady was excellent and property clean and safe- well lit.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Stafford, responded to this reviewResponded June 28, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 28, 2013</t>
+  </si>
+  <si>
+    <t>My stay would be perfect except my room was not cleaned well. Someone's hair stuck to the sink counters, bulbs out in kitchenette and trash in the floor that a vacuum would have easily removed. Front desk lady was excellent and property clean and safe- well lit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r162427372-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>162427372</t>
+  </si>
+  <si>
+    <t>05/30/2013</t>
+  </si>
+  <si>
+    <t>Roach Motel that smelled of urine and smoke.</t>
+  </si>
+  <si>
+    <t>The room was a great size which is why we were thrilled but our non-smoking room smelled like cigarette smoke, the common areas all smelled like urine and half the things in my room were broken.  They were at capacity (because half the hotel was being renovated) so we couldn't change rooms.Worst part, I was there for a hockey tournament which means I was up late at night and sleeping late in the morning to recoup for afternoon games.  No one bothered to tell us there was a loud, gospel church service that went on every Sunday morning at 8:30.  My room was right over the room where the service was so my athiest self was woken bright and early after a 4am bedtime to the sounds of loud music and bible thumping.When I mentioned it to the front desk clerk upon (early) check-out she gave me a coupon for Pizza Hut.  I can't even eat pizza!!!I won't be back.  Ever.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Stafford, responded to this reviewResponded June 5, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 5, 2013</t>
+  </si>
+  <si>
+    <t>The room was a great size which is why we were thrilled but our non-smoking room smelled like cigarette smoke, the common areas all smelled like urine and half the things in my room were broken.  They were at capacity (because half the hotel was being renovated) so we couldn't change rooms.Worst part, I was there for a hockey tournament which means I was up late at night and sleeping late in the morning to recoup for afternoon games.  No one bothered to tell us there was a loud, gospel church service that went on every Sunday morning at 8:30.  My room was right over the room where the service was so my athiest self was woken bright and early after a 4am bedtime to the sounds of loud music and bible thumping.When I mentioned it to the front desk clerk upon (early) check-out she gave me a coupon for Pizza Hut.  I can't even eat pizza!!!I won't be back.  Ever.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r160074078-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>160074078</t>
+  </si>
+  <si>
+    <t>05/08/2013</t>
+  </si>
+  <si>
+    <t>This place stinks!! It is a ghetto in the middle of Stafford Houston</t>
+  </si>
+  <si>
+    <t>Goodness! Where do I start??? 
+I asked for a Non-smoking room, they gave me a smoking one! I spent only a few minutes in the room and my nose was stuffed!!! The manager 'Terriko' must be fired!! She is rude, she lies and she is totally incompetent! She hates her job and should not be in the 'hospitality' business! When I asked for a new room, I was told they were overbooked and now have no more rooms to spare! I was then transferred to another extended stay hotel where I was told this is quite common! The Stafford branch keeps over booking and then have to transfer guest only after they arrives! When I came in, I was charged, you have no idea how much I had to go through before my money was returned! American express was about to call the police on 'Terriko' because she had told so many lies about the procedure that it was unbelievable! Apparently, many people had gone through the same experience with this lady!!! Don't they review their staffs? Will nothing be done about this? How can extended stay America allow this to continue?? I guess it will take a court procedure before the nonsense that goes on in that hotel will be stopped!!!
+Would you believe that guest barbecue in the middle of the lawn in this hotel? They are loud, get drunk and fist fight in front of other guest....Goodness! Where do I start??? I asked for a Non-smoking room, they gave me a smoking one! I spent only a few minutes in the room and my nose was stuffed!!! The manager 'Terriko' must be fired!! She is rude, she lies and she is totally incompetent! She hates her job and should not be in the 'hospitality' business! When I asked for a new room, I was told they were overbooked and now have no more rooms to spare! I was then transferred to another extended stay hotel where I was told this is quite common! The Stafford branch keeps over booking and then have to transfer guest only after they arrives! When I came in, I was charged, you have no idea how much I had to go through before my money was returned! American express was about to call the police on 'Terriko' because she had told so many lies about the procedure that it was unbelievable! Apparently, many people had gone through the same experience with this lady!!! Don't they review their staffs? Will nothing be done about this? How can extended stay America allow this to continue?? I guess it will take a court procedure before the nonsense that goes on in that hotel will be stopped!!!Would you believe that guest barbecue in the middle of the lawn in this hotel? They are loud, get drunk and fist fight in front of other guest. Guess what? One of their very own staffs told me this story and encouraged me to leave that place!!!You would think that a place that is so well situated, close to various malls would be well cared for, no!! To stay in this place will be at your own risk!! Worst experience ever!!!!!!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Stafford, responded to this reviewResponded May 15, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 15, 2013</t>
+  </si>
+  <si>
+    <t>Goodness! Where do I start??? 
+I asked for a Non-smoking room, they gave me a smoking one! I spent only a few minutes in the room and my nose was stuffed!!! The manager 'Terriko' must be fired!! She is rude, she lies and she is totally incompetent! She hates her job and should not be in the 'hospitality' business! When I asked for a new room, I was told they were overbooked and now have no more rooms to spare! I was then transferred to another extended stay hotel where I was told this is quite common! The Stafford branch keeps over booking and then have to transfer guest only after they arrives! When I came in, I was charged, you have no idea how much I had to go through before my money was returned! American express was about to call the police on 'Terriko' because she had told so many lies about the procedure that it was unbelievable! Apparently, many people had gone through the same experience with this lady!!! Don't they review their staffs? Will nothing be done about this? How can extended stay America allow this to continue?? I guess it will take a court procedure before the nonsense that goes on in that hotel will be stopped!!!
+Would you believe that guest barbecue in the middle of the lawn in this hotel? They are loud, get drunk and fist fight in front of other guest....Goodness! Where do I start??? I asked for a Non-smoking room, they gave me a smoking one! I spent only a few minutes in the room and my nose was stuffed!!! The manager 'Terriko' must be fired!! She is rude, she lies and she is totally incompetent! She hates her job and should not be in the 'hospitality' business! When I asked for a new room, I was told they were overbooked and now have no more rooms to spare! I was then transferred to another extended stay hotel where I was told this is quite common! The Stafford branch keeps over booking and then have to transfer guest only after they arrives! When I came in, I was charged, you have no idea how much I had to go through before my money was returned! American express was about to call the police on 'Terriko' because she had told so many lies about the procedure that it was unbelievable! Apparently, many people had gone through the same experience with this lady!!! Don't they review their staffs? Will nothing be done about this? How can extended stay America allow this to continue?? I guess it will take a court procedure before the nonsense that goes on in that hotel will be stopped!!!Would you believe that guest barbecue in the middle of the lawn in this hotel? They are loud, get drunk and fist fight in front of other guest. Guess what? One of their very own staffs told me this story and encouraged me to leave that place!!!You would think that a place that is so well situated, close to various malls would be well cared for, no!! To stay in this place will be at your own risk!! Worst experience ever!!!!!!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r158792004-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>158792004</t>
+  </si>
+  <si>
+    <t>04/25/2013</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Stayed here for one night, our group booked 3 rooms amongst ourselves.My room did look a little worn, with a chip in the sink basin and ripped carpets in some areas. But most importantly the room was clean.My friend's room was not better off, with missing pillows, bad carpets and strange stains on the toilet tiles. However the staff promptly attended to fix these, and when they could not remove the stains, my friend was upgrade to a bigger and better room at no extra cost or hassle.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Stafford, responded to this reviewResponded April 26, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 26, 2013</t>
+  </si>
+  <si>
+    <t>Stayed here for one night, our group booked 3 rooms amongst ourselves.My room did look a little worn, with a chip in the sink basin and ripped carpets in some areas. But most importantly the room was clean.My friend's room was not better off, with missing pillows, bad carpets and strange stains on the toilet tiles. However the staff promptly attended to fix these, and when they could not remove the stains, my friend was upgrade to a bigger and better room at no extra cost or hassle.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r158778346-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>158778346</t>
+  </si>
+  <si>
+    <t>This is the place to stay when away from home awesome staff !!</t>
+  </si>
+  <si>
+    <t>This is our third Extended Stay hotel , My Husband is traviling for work and we have been all over the country traveling. 
+I have to say the staff I have meet here are awesome !  
+The on site Manager Terriko  is one of the best managers I have seen in my travels , ( and we do alot of traveling ) from the 1st time I talked to her on he phone when booking are rooms I knew I called the right Extended Stay Hotel ,  When I was booking the rooms , they didn't have want we needed a the time , but she made it work for us and the other guys traveling with us.  When we needed  to move to another room , she even offered to help me mover all of  my stuff even with  how busy she is ,Terriko  never stops doing things around here helping the staff and the guest that stays here , I know that is her job but she goes over and above what is called for  .The people at the front desk , Charmaine , Jafet  are awesome also,an Ismael  the maintenance guy very nice , All of the staff I have meet are  so so helpful and kind and are always smiling and when your away from home that is a super plus . This Exteneded stay is A++ in my book . The staff here makes you...This is our third Extended Stay hotel , My Husband is traviling for work and we have been all over the country traveling. I have to say the staff I have meet here are awesome !  The on site Manager Terriko  is one of the best managers I have seen in my travels , ( and we do alot of traveling ) from the 1st time I talked to her on he phone when booking are rooms I knew I called the right Extended Stay Hotel ,  When I was booking the rooms , they didn't have want we needed a the time , but she made it work for us and the other guys traveling with us.  When we needed  to move to another room , she even offered to help me mover all of  my stuff even with  how busy she is ,Terriko  never stops doing things around here helping the staff and the guest that stays here , I know that is her job but she goes over and above what is called for  .The people at the front desk , Charmaine , Jafet  are awesome also,an Ismael  the maintenance guy very nice , All of the staff I have meet are  so so helpful and kind and are always smiling and when your away from home that is a super plus . This Exteneded stay is A++ in my book . The staff here makes you feel like they have known you forever. The location is great ! There is of  lots place to eat in the vicinity . If ever you stay here H.E.B store is awesome and if you need to get your nails or feet  done man or women checkout  Sweetwater Nail &amp; spa !  The place needs a little up dating but with a staff like this, that can be over looked any day!!  Terriko I have to say she knows how to run a hotel and to make peope feel comfortable and happy with there stay !   All the guest here have been super nice !!  This place is like a home way from home .  I have never left one of these before but I just wanted tell everyone how awesome the people are here ! Valinda LiggettMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>This is our third Extended Stay hotel , My Husband is traviling for work and we have been all over the country traveling. 
+I have to say the staff I have meet here are awesome !  
+The on site Manager Terriko  is one of the best managers I have seen in my travels , ( and we do alot of traveling ) from the 1st time I talked to her on he phone when booking are rooms I knew I called the right Extended Stay Hotel ,  When I was booking the rooms , they didn't have want we needed a the time , but she made it work for us and the other guys traveling with us.  When we needed  to move to another room , she even offered to help me mover all of  my stuff even with  how busy she is ,Terriko  never stops doing things around here helping the staff and the guest that stays here , I know that is her job but she goes over and above what is called for  .The people at the front desk , Charmaine , Jafet  are awesome also,an Ismael  the maintenance guy very nice , All of the staff I have meet are  so so helpful and kind and are always smiling and when your away from home that is a super plus . This Exteneded stay is A++ in my book . The staff here makes you...This is our third Extended Stay hotel , My Husband is traviling for work and we have been all over the country traveling. I have to say the staff I have meet here are awesome !  The on site Manager Terriko  is one of the best managers I have seen in my travels , ( and we do alot of traveling ) from the 1st time I talked to her on he phone when booking are rooms I knew I called the right Extended Stay Hotel ,  When I was booking the rooms , they didn't have want we needed a the time , but she made it work for us and the other guys traveling with us.  When we needed  to move to another room , she even offered to help me mover all of  my stuff even with  how busy she is ,Terriko  never stops doing things around here helping the staff and the guest that stays here , I know that is her job but she goes over and above what is called for  .The people at the front desk , Charmaine , Jafet  are awesome also,an Ismael  the maintenance guy very nice , All of the staff I have meet are  so so helpful and kind and are always smiling and when your away from home that is a super plus . This Exteneded stay is A++ in my book . The staff here makes you feel like they have known you forever. The location is great ! There is of  lots place to eat in the vicinity . If ever you stay here H.E.B store is awesome and if you need to get your nails or feet  done man or women checkout  Sweetwater Nail &amp; spa !  The place needs a little up dating but with a staff like this, that can be over looked any day!!  Terriko I have to say she knows how to run a hotel and to make peope feel comfortable and happy with there stay !   All the guest here have been super nice !!  This place is like a home way from home .  I have never left one of these before but I just wanted tell everyone how awesome the people are here ! Valinda LiggettMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r158708481-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>158708481</t>
+  </si>
+  <si>
+    <t>04/24/2013</t>
+  </si>
+  <si>
+    <t>Home away from home</t>
+  </si>
+  <si>
+    <t>My family and I have been displaced due to a fire at our home.  We have been staying in hotels since 1/23/13.  We moved into the Extended Stay America (Stafford) on 3/1/13.  It is truly a home away from home.  Terrico, the onsite manager, was very helpful and instrumental in us acquiring rooms to stay at this location.  She is/has worked with my insurance company on pricing (we have to use two suites because of the size and makeup of my family) and walking my adjuster through the paperwork needed for our stay.  In doing this, Terrico has made our situation a little more bearable and not seem so overwhelming.  If ever I ask her about needing something, she responds immediately.  The housekeeping staff (Mr. Rene and the rest of the crew) is also very helpful and they do a nice job of cleaning our two suites.  The location is so convenient as well.  There are plenty of restaurants as well as grocery stores (Wal-mart, Sam's) in the vicinity.  I would recommend staying at Extended Stay America-Stafford. -- Ms. GriffinMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Stafford, responded to this reviewResponded April 25, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 25, 2013</t>
+  </si>
+  <si>
+    <t>My family and I have been displaced due to a fire at our home.  We have been staying in hotels since 1/23/13.  We moved into the Extended Stay America (Stafford) on 3/1/13.  It is truly a home away from home.  Terrico, the onsite manager, was very helpful and instrumental in us acquiring rooms to stay at this location.  She is/has worked with my insurance company on pricing (we have to use two suites because of the size and makeup of my family) and walking my adjuster through the paperwork needed for our stay.  In doing this, Terrico has made our situation a little more bearable and not seem so overwhelming.  If ever I ask her about needing something, she responds immediately.  The housekeeping staff (Mr. Rene and the rest of the crew) is also very helpful and they do a nice job of cleaning our two suites.  The location is so convenient as well.  There are plenty of restaurants as well as grocery stores (Wal-mart, Sam's) in the vicinity.  I would recommend staying at Extended Stay America-Stafford. -- Ms. GriffinMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r150509123-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>150509123</t>
+  </si>
+  <si>
+    <t>01/24/2013</t>
+  </si>
+  <si>
+    <t>Ghetto</t>
+  </si>
+  <si>
+    <t>My fiancé needed a place to stay while attending an academy in Houston for a period of 12 weeks.  This place seemed to be the best deal.  After check-in, we discovered that his room was missing the sofa that was in other rooms.  Judging by the area, we wondered if perhaps it had been stolen.  During his stay, there was a police raid, several loud middle of the night arguments between tenants and visitors, and his neighbor made loud phone calls all night outside of his room keeping us awake.  The dishwasher, toilet, shower, and AC all broke during the stay.  The AC was the worst because it was summer in Houston and because it happened on the weekend (maintenance is only there during the week).  If you ever are in need of an extended stay, travel a little further to the one in Sugar Land.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Stafford, responded to this reviewResponded January 25, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 25, 2013</t>
+  </si>
+  <si>
+    <t>My fiancé needed a place to stay while attending an academy in Houston for a period of 12 weeks.  This place seemed to be the best deal.  After check-in, we discovered that his room was missing the sofa that was in other rooms.  Judging by the area, we wondered if perhaps it had been stolen.  During his stay, there was a police raid, several loud middle of the night arguments between tenants and visitors, and his neighbor made loud phone calls all night outside of his room keeping us awake.  The dishwasher, toilet, shower, and AC all broke during the stay.  The AC was the worst because it was summer in Houston and because it happened on the weekend (maintenance is only there during the week).  If you ever are in need of an extended stay, travel a little further to the one in Sugar Land.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r149803771-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>149803771</t>
+  </si>
+  <si>
+    <t>01/16/2013</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>My stay at this extended stay is amazing.  If you have any issues or concerns, the hotel staff is quick to resolve any issues immediately.  The location of the hotel is easily accessbile to anything you need.  Would suggest if your in the area to stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Stafford, responded to this reviewResponded January 17, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 17, 2013</t>
+  </si>
+  <si>
+    <t>My stay at this extended stay is amazing.  If you have any issues or concerns, the hotel staff is quick to resolve any issues immediately.  The location of the hotel is easily accessbile to anything you need.  Would suggest if your in the area to stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r149111384-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>149111384</t>
+  </si>
+  <si>
+    <t>01/07/2013</t>
+  </si>
+  <si>
+    <t>angel night</t>
+  </si>
+  <si>
+    <t>i will recommend familly and freind, freindly, smell clean, it is a perfect place to stay.the location is perfect for  shopping, restaurant, movies and close to the hwy.If you have a sam's club you will save save money it is just next door. you will not worried about wifi. The management 110 excellent.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Stafford, responded to this reviewResponded January 8, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 8, 2013</t>
+  </si>
+  <si>
+    <t>i will recommend familly and freind, freindly, smell clean, it is a perfect place to stay.the location is perfect for  shopping, restaurant, movies and close to the hwy.If you have a sam's club you will save save money it is just next door. you will not worried about wifi. The management 110 excellent.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r147379194-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>147379194</t>
+  </si>
+  <si>
+    <t>12/13/2012</t>
+  </si>
+  <si>
+    <t>Worth every penny and a little more!</t>
+  </si>
+  <si>
+    <t>My new wife and I were looking for an inexpensive honeymoon after getting married. The price was great, the service was great and the room was very clean! We will recommend this hotel to everyone that needs a quick clean getaway. MoreShow less</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Stafford, responded to this reviewResponded December 14, 2012</t>
+  </si>
+  <si>
+    <t>Responded December 14, 2012</t>
+  </si>
+  <si>
+    <t>My new wife and I were looking for an inexpensive honeymoon after getting married. The price was great, the service was great and the room was very clean! We will recommend this hotel to everyone that needs a quick clean getaway. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r146388574-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>146388574</t>
+  </si>
+  <si>
+    <t>11/28/2012</t>
+  </si>
+  <si>
+    <t>realy good hotel</t>
+  </si>
+  <si>
+    <t>David was a really good help better than everyone in this hotel. He was nice he was really nice.he had manors.i would give this hotel a 5 just because David.this hotel was nice and good and towels were clean.soap was good.this place was so good i really like it and i would come back to this hotel my daughter really liked it she said we will come back.this property would be a 5 my daughter loved it outside .MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Stafford, responded to this reviewResponded November 30, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 30, 2012</t>
+  </si>
+  <si>
+    <t>David was a really good help better than everyone in this hotel. He was nice he was really nice.he had manors.i would give this hotel a 5 just because David.this hotel was nice and good and towels were clean.soap was good.this place was so good i really like it and i would come back to this hotel my daughter really liked it she said we will come back.this property would be a 5 my daughter loved it outside .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r145686894-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>145686894</t>
+  </si>
+  <si>
+    <t>11/18/2012</t>
+  </si>
+  <si>
+    <t>Great staff,Low prices</t>
+  </si>
+  <si>
+    <t>I've lived at Extended Stay America for awhile and have had no problems.Our room was very clean and well put together when we moved here.And Terriko(the manager) is extremely helpful and has made our stay here has pleasant as possible.Another staff member,David,is great as well.Both him and Terriko are very friendly.We've really enjoyed our stay here. :) MoreShow less</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Stafford, responded to this reviewResponded November 22, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 22, 2012</t>
+  </si>
+  <si>
+    <t>I've lived at Extended Stay America for awhile and have had no problems.Our room was very clean and well put together when we moved here.And Terriko(the manager) is extremely helpful and has made our stay here has pleasant as possible.Another staff member,David,is great as well.Both him and Terriko are very friendly.We've really enjoyed our stay here. :) More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r141268890-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>141268890</t>
+  </si>
+  <si>
+    <t>09/25/2012</t>
+  </si>
+  <si>
+    <t>Extended Stay Stafford</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel for a while and have found the people to be mostly pleasant and helpful.  The outside is kept clean and the trash emptied.  Rooms are okay in general, and the pool is nice.  All in all a good experience.  Good access to restaurants and shopping.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Stafford, responded to this reviewResponded September 27, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 27, 2012</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel for a while and have found the people to be mostly pleasant and helpful.  The outside is kept clean and the trash emptied.  Rooms are okay in general, and the pool is nice.  All in all a good experience.  Good access to restaurants and shopping.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r141264711-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>141264711</t>
+  </si>
+  <si>
+    <t>Very Nice accomodations</t>
+  </si>
+  <si>
+    <t>I've been at the hotel for approximately 25 days. It's conveniently located close to several restaurants, shopping centers, convenience stores/gas and leisure places. They have flat screen TV, refridgerators, stove, dishwasher and plates/pots/pans/silverware. All the features of home are available. The employees are nice/courteous and the grounds are very clean. I have absolutely no complaints. And laundry facility is new, water is hot and dryers are outstanding.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>I've been at the hotel for approximately 25 days. It's conveniently located close to several restaurants, shopping centers, convenience stores/gas and leisure places. They have flat screen TV, refridgerators, stove, dishwasher and plates/pots/pans/silverware. All the features of home are available. The employees are nice/courteous and the grounds are very clean. I have absolutely no complaints. And laundry facility is new, water is hot and dryers are outstanding.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r140263251-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>140263251</t>
+  </si>
+  <si>
+    <t>09/14/2012</t>
+  </si>
+  <si>
+    <t>My visit at extended stay</t>
+  </si>
+  <si>
+    <t>The staff as a whole represents your company very well. The housekeeping staff has been very thorough. The grounds stay cleaned up, trash cans are always emptied in a timely manner. Terrika, Mariska, David and Jordan have gone out of thier way to make sure my stay has been carefree and enjoyable!!! TWO THUMBS UP. I will gladly recommend this hotel to my family and friends!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Stafford, responded to this reviewResponded September 17, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 17, 2012</t>
+  </si>
+  <si>
+    <t>The staff as a whole represents your company very well. The housekeeping staff has been very thorough. The grounds stay cleaned up, trash cans are always emptied in a timely manner. Terrika, Mariska, David and Jordan have gone out of thier way to make sure my stay has been carefree and enjoyable!!! TWO THUMBS UP. I will gladly recommend this hotel to my family and friends!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r134563129-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>134563129</t>
+  </si>
+  <si>
+    <t>07/16/2012</t>
+  </si>
+  <si>
+    <t>Perfection</t>
+  </si>
+  <si>
+    <t>front desk person Jordan was veryhelpful and was extremely proffesional. Housekeeping was very friendly and enjoyed my stay. I would recommend this hotel to anyone. And to top it all off their prices are right!MoreShow less</t>
+  </si>
+  <si>
+    <t>ChristopherTM, Manager at Extended Stay America - Houston - Stafford, responded to this reviewResponded July 19, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 19, 2012</t>
+  </si>
+  <si>
+    <t>front desk person Jordan was veryhelpful and was extremely proffesional. Housekeeping was very friendly and enjoyed my stay. I would recommend this hotel to anyone. And to top it all off their prices are right!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r134562516-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>134562516</t>
+  </si>
+  <si>
+    <t>This place is definitely like a home to me!</t>
+  </si>
+  <si>
+    <t>Been a returning guest to the hotel for the past year and every time I come the staff treat me very nice. My children love the outdoor pool and we can bring pets anytime! MoreShow less</t>
+  </si>
+  <si>
+    <t>Been a returning guest to the hotel for the past year and every time I come the staff treat me very nice. My children love the outdoor pool and we can bring pets anytime! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r126353470-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>126353470</t>
+  </si>
+  <si>
+    <t>03/19/2012</t>
+  </si>
+  <si>
+    <t>Absolutely gross</t>
+  </si>
+  <si>
+    <t>First, the staff excellent! Sorry for this review, but the hotel needs updating badly. First room given, smoke free, was not, and windows broken and could be opened from outside. Second room , non smoking, was not and the carpet smelled so gross it literally is now baked into our suitcases . All our clothing stunk so badly the next morning we actually had to buy new clothes to go to the party we were attending. The pillows, smelled like b.o. so bad we all slept without them. The kitchen is just absolutely GROSS!! Its not in a great area either, lots of characters roaming around. AVOID!!!!!</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r4159347-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>4159347</t>
+  </si>
+  <si>
+    <t>12/02/2005</t>
+  </si>
+  <si>
+    <t>Filthy Dirty Rooms in Major Disrepair</t>
+  </si>
+  <si>
+    <t>Room was filthy when we checked in...looked like it hadn't been cleaned in a month. On the floor we found a marijuana joint, match stubs, bobby pin, candy droppings...FILTHY. Furniture in disrepair with major stains on it and the carpet needs to be totally replaced. It was the grossest place I have ever stayed. Drawers in dressing area falling apart. Not enough amenities for extended stay travelers: no coffee, shampoo, paper towels, dish soap, etc. Kitchen utensils/dishes extremely poor quality. Worst place I have ever stayed. Also very loud...garbage trucks woke us up almost every morning at 5 a.m.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r2608402-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>2608402</t>
+  </si>
+  <si>
+    <t>09/28/2004</t>
+  </si>
+  <si>
+    <t>Decent Rooms</t>
+  </si>
+  <si>
+    <t>Stayed at the Wellesley Inn &amp; Suites in Stafford for a wedding in June.  Overall stay was average.  The rooms are decent, but looked a little run down and cramped.  Stayed there because of the kitchenette and full-size refrigerator.The location is central.  There are a few restaurants, including Sonics less than a block away.  Sam's Club is next door and Walmart is down the street.  Easy access to Highways.  Got a great deal through Expedia for about $38/night.  At that rate, couldn't complain much.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r1030243-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>1030243</t>
+  </si>
+  <si>
+    <t>05/26/2003</t>
+  </si>
+  <si>
+    <t>Wellesley Inn was great</t>
+  </si>
+  <si>
+    <t>Our stay at the Wellesley was very pleasant. Very clean, good bed, oveall nice accommodations. Front desk personnel was friendly but most of all helpful in every respect. We definitely will be back.</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2016,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2048,4272 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>64</v>
+      </c>
+      <c r="X4" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5" t="s">
+        <v>79</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>80</v>
+      </c>
+      <c r="X5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>88</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>89</v>
+      </c>
+      <c r="X6" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>88</v>
+      </c>
+      <c r="O7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>97</v>
+      </c>
+      <c r="X7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8" t="s">
+        <v>102</v>
+      </c>
+      <c r="K8" t="s">
+        <v>103</v>
+      </c>
+      <c r="L8" t="s">
+        <v>104</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>105</v>
+      </c>
+      <c r="O8" t="s">
+        <v>106</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>107</v>
+      </c>
+      <c r="X8" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J9" t="s">
+        <v>112</v>
+      </c>
+      <c r="K9" t="s">
+        <v>113</v>
+      </c>
+      <c r="L9" t="s">
+        <v>114</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>115</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>4</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>116</v>
+      </c>
+      <c r="X9" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>120</v>
+      </c>
+      <c r="J10" t="s">
+        <v>121</v>
+      </c>
+      <c r="K10" t="s">
+        <v>122</v>
+      </c>
+      <c r="L10" t="s">
+        <v>123</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>115</v>
+      </c>
+      <c r="O10" t="s">
+        <v>124</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>125</v>
+      </c>
+      <c r="X10" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>128</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>129</v>
+      </c>
+      <c r="J11" t="s">
+        <v>130</v>
+      </c>
+      <c r="K11" t="s">
+        <v>131</v>
+      </c>
+      <c r="L11" t="s">
+        <v>132</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>133</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>134</v>
+      </c>
+      <c r="X11" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>137</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>138</v>
+      </c>
+      <c r="J12" t="s">
+        <v>139</v>
+      </c>
+      <c r="K12" t="s">
+        <v>140</v>
+      </c>
+      <c r="L12" t="s">
+        <v>141</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>142</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>143</v>
+      </c>
+      <c r="X12" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>146</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>147</v>
+      </c>
+      <c r="J13" t="s">
+        <v>148</v>
+      </c>
+      <c r="K13" t="s">
+        <v>149</v>
+      </c>
+      <c r="L13" t="s">
+        <v>150</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>151</v>
+      </c>
+      <c r="O13" t="s">
+        <v>79</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>152</v>
+      </c>
+      <c r="X13" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>155</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>156</v>
+      </c>
+      <c r="J14" t="s">
+        <v>157</v>
+      </c>
+      <c r="K14" t="s">
+        <v>158</v>
+      </c>
+      <c r="L14" t="s">
+        <v>159</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>160</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>161</v>
+      </c>
+      <c r="X14" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>164</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>165</v>
+      </c>
+      <c r="J15" t="s">
+        <v>166</v>
+      </c>
+      <c r="K15" t="s">
+        <v>167</v>
+      </c>
+      <c r="L15" t="s">
+        <v>168</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>169</v>
+      </c>
+      <c r="O15" t="s">
+        <v>79</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>170</v>
+      </c>
+      <c r="X15" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>173</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>174</v>
+      </c>
+      <c r="J16" t="s">
+        <v>175</v>
+      </c>
+      <c r="K16" t="s">
+        <v>176</v>
+      </c>
+      <c r="L16" t="s">
+        <v>177</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>160</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>178</v>
+      </c>
+      <c r="X16" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>181</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>182</v>
+      </c>
+      <c r="J17" t="s">
+        <v>183</v>
+      </c>
+      <c r="K17" t="s">
+        <v>184</v>
+      </c>
+      <c r="L17" t="s">
+        <v>185</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>186</v>
+      </c>
+      <c r="O17" t="s">
+        <v>63</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>187</v>
+      </c>
+      <c r="X17" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>190</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>191</v>
+      </c>
+      <c r="J18" t="s">
+        <v>192</v>
+      </c>
+      <c r="K18" t="s">
+        <v>193</v>
+      </c>
+      <c r="L18" t="s">
+        <v>194</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>186</v>
+      </c>
+      <c r="O18" t="s">
+        <v>106</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>195</v>
+      </c>
+      <c r="X18" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>198</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>199</v>
+      </c>
+      <c r="J19" t="s">
+        <v>200</v>
+      </c>
+      <c r="K19" t="s">
+        <v>201</v>
+      </c>
+      <c r="L19" t="s">
+        <v>202</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>160</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>203</v>
+      </c>
+      <c r="X19" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>206</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>207</v>
+      </c>
+      <c r="J20" t="s">
+        <v>208</v>
+      </c>
+      <c r="K20" t="s">
+        <v>209</v>
+      </c>
+      <c r="L20" t="s">
+        <v>210</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>186</v>
+      </c>
+      <c r="O20" t="s">
+        <v>79</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>211</v>
+      </c>
+      <c r="X20" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>214</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>215</v>
+      </c>
+      <c r="J21" t="s">
+        <v>216</v>
+      </c>
+      <c r="K21" t="s">
+        <v>217</v>
+      </c>
+      <c r="L21" t="s">
+        <v>218</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>219</v>
+      </c>
+      <c r="O21" t="s">
+        <v>106</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>2</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>221</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>222</v>
+      </c>
+      <c r="J22" t="s">
+        <v>223</v>
+      </c>
+      <c r="K22" t="s">
+        <v>224</v>
+      </c>
+      <c r="L22" t="s">
+        <v>225</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>226</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>227</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>228</v>
+      </c>
+      <c r="J23" t="s">
+        <v>229</v>
+      </c>
+      <c r="K23" t="s">
+        <v>230</v>
+      </c>
+      <c r="L23" t="s">
+        <v>231</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>232</v>
+      </c>
+      <c r="O23" t="s">
+        <v>79</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>234</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>235</v>
+      </c>
+      <c r="J24" t="s">
+        <v>236</v>
+      </c>
+      <c r="K24" t="s">
+        <v>237</v>
+      </c>
+      <c r="L24" t="s">
+        <v>238</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s">
+        <v>239</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>241</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>242</v>
+      </c>
+      <c r="J25" t="s">
+        <v>243</v>
+      </c>
+      <c r="K25" t="s">
+        <v>244</v>
+      </c>
+      <c r="L25" t="s">
+        <v>245</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>239</v>
+      </c>
+      <c r="O25" t="s">
+        <v>124</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>247</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>248</v>
+      </c>
+      <c r="J26" t="s">
+        <v>249</v>
+      </c>
+      <c r="K26" t="s">
+        <v>250</v>
+      </c>
+      <c r="L26" t="s">
+        <v>251</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>252</v>
+      </c>
+      <c r="O26" t="s">
+        <v>79</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>253</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>254</v>
+      </c>
+      <c r="J27" t="s">
+        <v>255</v>
+      </c>
+      <c r="K27" t="s">
+        <v>256</v>
+      </c>
+      <c r="L27" t="s">
+        <v>257</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>258</v>
+      </c>
+      <c r="O27" t="s">
+        <v>106</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>259</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>260</v>
+      </c>
+      <c r="J28" t="s">
+        <v>261</v>
+      </c>
+      <c r="K28" t="s">
+        <v>262</v>
+      </c>
+      <c r="L28" t="s">
+        <v>263</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>264</v>
+      </c>
+      <c r="O28" t="s">
+        <v>106</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>265</v>
+      </c>
+      <c r="X28" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>268</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>269</v>
+      </c>
+      <c r="J29" t="s">
+        <v>270</v>
+      </c>
+      <c r="K29" t="s">
+        <v>271</v>
+      </c>
+      <c r="L29" t="s">
+        <v>272</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>273</v>
+      </c>
+      <c r="O29" t="s">
+        <v>79</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="n">
+        <v>2</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>2</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>274</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>275</v>
+      </c>
+      <c r="J30" t="s">
+        <v>276</v>
+      </c>
+      <c r="K30" t="s">
+        <v>277</v>
+      </c>
+      <c r="L30" t="s">
+        <v>278</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>279</v>
+      </c>
+      <c r="O30" t="s">
+        <v>79</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>1</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>281</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>282</v>
+      </c>
+      <c r="J31" t="s">
+        <v>283</v>
+      </c>
+      <c r="K31" t="s">
+        <v>284</v>
+      </c>
+      <c r="L31" t="s">
+        <v>285</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>286</v>
+      </c>
+      <c r="O31" t="s">
+        <v>79</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>1</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>288</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>289</v>
+      </c>
+      <c r="J32" t="s">
+        <v>290</v>
+      </c>
+      <c r="K32" t="s">
+        <v>291</v>
+      </c>
+      <c r="L32" t="s">
+        <v>292</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s"/>
+      <c r="O32" t="s"/>
+      <c r="P32" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3</v>
+      </c>
+      <c r="S32" t="n">
+        <v>2</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>2</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>293</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>294</v>
+      </c>
+      <c r="J33" t="s">
+        <v>295</v>
+      </c>
+      <c r="K33" t="s">
+        <v>296</v>
+      </c>
+      <c r="L33" t="s">
+        <v>297</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>2</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>299</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>300</v>
+      </c>
+      <c r="J34" t="s">
+        <v>301</v>
+      </c>
+      <c r="K34" t="s">
+        <v>302</v>
+      </c>
+      <c r="L34" t="s">
+        <v>303</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>304</v>
+      </c>
+      <c r="O34" t="s">
+        <v>79</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>306</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>307</v>
+      </c>
+      <c r="J35" t="s">
+        <v>308</v>
+      </c>
+      <c r="K35" t="s">
+        <v>309</v>
+      </c>
+      <c r="L35" t="s">
+        <v>310</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>311</v>
+      </c>
+      <c r="O35" t="s">
+        <v>79</v>
+      </c>
+      <c r="P35" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>3</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>2</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>3</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>313</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>314</v>
+      </c>
+      <c r="J36" t="s">
+        <v>315</v>
+      </c>
+      <c r="K36" t="s">
+        <v>316</v>
+      </c>
+      <c r="L36" t="s">
+        <v>317</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>311</v>
+      </c>
+      <c r="O36" t="s">
+        <v>79</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>1</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>318</v>
+      </c>
+      <c r="X36" t="s">
+        <v>319</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>321</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>322</v>
+      </c>
+      <c r="J37" t="s">
+        <v>323</v>
+      </c>
+      <c r="K37" t="s">
+        <v>324</v>
+      </c>
+      <c r="L37" t="s">
+        <v>325</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>326</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>3</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>327</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>328</v>
+      </c>
+      <c r="J38" t="s">
+        <v>329</v>
+      </c>
+      <c r="K38" t="s">
+        <v>330</v>
+      </c>
+      <c r="L38" t="s">
+        <v>331</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>326</v>
+      </c>
+      <c r="O38" t="s">
+        <v>79</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>2</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>3</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>332</v>
+      </c>
+      <c r="X38" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>335</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>336</v>
+      </c>
+      <c r="J39" t="s">
+        <v>337</v>
+      </c>
+      <c r="K39" t="s">
+        <v>338</v>
+      </c>
+      <c r="L39" t="s">
+        <v>339</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>340</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>3</v>
+      </c>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S39" t="n">
+        <v>3</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>3</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>341</v>
+      </c>
+      <c r="X39" t="s">
+        <v>342</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>344</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>345</v>
+      </c>
+      <c r="J40" t="s">
+        <v>346</v>
+      </c>
+      <c r="K40" t="s">
+        <v>347</v>
+      </c>
+      <c r="L40" t="s">
+        <v>348</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>340</v>
+      </c>
+      <c r="O40" t="s">
+        <v>79</v>
+      </c>
+      <c r="P40" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>3</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>3</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>3</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>350</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>351</v>
+      </c>
+      <c r="J41" t="s">
+        <v>352</v>
+      </c>
+      <c r="K41" t="s">
+        <v>353</v>
+      </c>
+      <c r="L41" t="s">
+        <v>354</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>355</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>356</v>
+      </c>
+      <c r="X41" t="s">
+        <v>357</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>359</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>360</v>
+      </c>
+      <c r="J42" t="s">
+        <v>361</v>
+      </c>
+      <c r="K42" t="s">
+        <v>362</v>
+      </c>
+      <c r="L42" t="s">
+        <v>363</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s"/>
+      <c r="O42" t="s"/>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>364</v>
+      </c>
+      <c r="X42" t="s">
+        <v>365</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>367</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>368</v>
+      </c>
+      <c r="J43" t="s">
+        <v>369</v>
+      </c>
+      <c r="K43" t="s">
+        <v>370</v>
+      </c>
+      <c r="L43" t="s">
+        <v>371</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
+        <v>372</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1</v>
+      </c>
+      <c r="R43" t="n">
+        <v>2</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>1</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>374</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>375</v>
+      </c>
+      <c r="J44" t="s">
+        <v>376</v>
+      </c>
+      <c r="K44" t="s">
+        <v>377</v>
+      </c>
+      <c r="L44" t="s">
+        <v>378</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s"/>
+      <c r="O44" t="s"/>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>2</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>379</v>
+      </c>
+      <c r="X44" t="s">
+        <v>380</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>382</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>383</v>
+      </c>
+      <c r="J45" t="s">
+        <v>384</v>
+      </c>
+      <c r="K45" t="s">
+        <v>385</v>
+      </c>
+      <c r="L45" t="s">
+        <v>386</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>387</v>
+      </c>
+      <c r="O45" t="s">
+        <v>124</v>
+      </c>
+      <c r="P45" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>3</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>3</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>388</v>
+      </c>
+      <c r="X45" t="s">
+        <v>389</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>391</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>392</v>
+      </c>
+      <c r="J46" t="s">
+        <v>393</v>
+      </c>
+      <c r="K46" t="s">
+        <v>394</v>
+      </c>
+      <c r="L46" t="s">
+        <v>395</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s">
+        <v>387</v>
+      </c>
+      <c r="O46" t="s">
+        <v>79</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>1</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>396</v>
+      </c>
+      <c r="X46" t="s">
+        <v>397</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>399</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>400</v>
+      </c>
+      <c r="J47" t="s">
+        <v>401</v>
+      </c>
+      <c r="K47" t="s">
+        <v>402</v>
+      </c>
+      <c r="L47" t="s">
+        <v>403</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="s"/>
+      <c r="O47" t="s"/>
+      <c r="P47" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>3</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>3</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>404</v>
+      </c>
+      <c r="X47" t="s">
+        <v>405</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>407</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>408</v>
+      </c>
+      <c r="J48" t="s">
+        <v>401</v>
+      </c>
+      <c r="K48" t="s">
+        <v>409</v>
+      </c>
+      <c r="L48" t="s">
+        <v>410</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>411</v>
+      </c>
+      <c r="O48" t="s">
+        <v>79</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>404</v>
+      </c>
+      <c r="X48" t="s">
+        <v>405</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>413</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>414</v>
+      </c>
+      <c r="J49" t="s">
+        <v>415</v>
+      </c>
+      <c r="K49" t="s">
+        <v>416</v>
+      </c>
+      <c r="L49" t="s">
+        <v>417</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>418</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>419</v>
+      </c>
+      <c r="X49" t="s">
+        <v>420</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>422</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>423</v>
+      </c>
+      <c r="J50" t="s">
+        <v>424</v>
+      </c>
+      <c r="K50" t="s">
+        <v>425</v>
+      </c>
+      <c r="L50" t="s">
+        <v>426</v>
+      </c>
+      <c r="M50" t="n">
+        <v>2</v>
+      </c>
+      <c r="N50" t="s">
+        <v>427</v>
+      </c>
+      <c r="O50" t="s">
+        <v>79</v>
+      </c>
+      <c r="P50" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>2</v>
+      </c>
+      <c r="R50" t="n">
+        <v>3</v>
+      </c>
+      <c r="S50" t="n">
+        <v>3</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>428</v>
+      </c>
+      <c r="X50" t="s">
+        <v>429</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>431</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>432</v>
+      </c>
+      <c r="J51" t="s">
+        <v>433</v>
+      </c>
+      <c r="K51" t="s">
+        <v>434</v>
+      </c>
+      <c r="L51" t="s">
+        <v>435</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>436</v>
+      </c>
+      <c r="O51" t="s">
+        <v>79</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>437</v>
+      </c>
+      <c r="X51" t="s">
+        <v>438</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>440</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>441</v>
+      </c>
+      <c r="J52" t="s">
+        <v>442</v>
+      </c>
+      <c r="K52" t="s">
+        <v>443</v>
+      </c>
+      <c r="L52" t="s">
+        <v>444</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>445</v>
+      </c>
+      <c r="O52" t="s">
+        <v>63</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>446</v>
+      </c>
+      <c r="X52" t="s">
+        <v>447</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>449</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>450</v>
+      </c>
+      <c r="J53" t="s">
+        <v>451</v>
+      </c>
+      <c r="K53" t="s">
+        <v>452</v>
+      </c>
+      <c r="L53" t="s">
+        <v>453</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s"/>
+      <c r="O53" t="s"/>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>454</v>
+      </c>
+      <c r="X53" t="s">
+        <v>455</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>457</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>458</v>
+      </c>
+      <c r="J54" t="s">
+        <v>459</v>
+      </c>
+      <c r="K54" t="s">
+        <v>460</v>
+      </c>
+      <c r="L54" t="s">
+        <v>461</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>462</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>463</v>
+      </c>
+      <c r="X54" t="s">
+        <v>464</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>466</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>467</v>
+      </c>
+      <c r="J55" t="s">
+        <v>468</v>
+      </c>
+      <c r="K55" t="s">
+        <v>469</v>
+      </c>
+      <c r="L55" t="s">
+        <v>470</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s"/>
+      <c r="O55" t="s"/>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>471</v>
+      </c>
+      <c r="X55" t="s">
+        <v>472</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>474</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>475</v>
+      </c>
+      <c r="J56" t="s">
+        <v>476</v>
+      </c>
+      <c r="K56" t="s">
+        <v>477</v>
+      </c>
+      <c r="L56" t="s">
+        <v>478</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>479</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>3</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>480</v>
+      </c>
+      <c r="X56" t="s">
+        <v>481</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>483</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>484</v>
+      </c>
+      <c r="J57" t="s">
+        <v>476</v>
+      </c>
+      <c r="K57" t="s">
+        <v>485</v>
+      </c>
+      <c r="L57" t="s">
+        <v>486</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>487</v>
+      </c>
+      <c r="O57" t="s">
+        <v>63</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>480</v>
+      </c>
+      <c r="X57" t="s">
+        <v>481</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>489</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>490</v>
+      </c>
+      <c r="J58" t="s">
+        <v>491</v>
+      </c>
+      <c r="K58" t="s">
+        <v>492</v>
+      </c>
+      <c r="L58" t="s">
+        <v>493</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>487</v>
+      </c>
+      <c r="O58" t="s">
+        <v>63</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>494</v>
+      </c>
+      <c r="X58" t="s">
+        <v>495</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>497</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>498</v>
+      </c>
+      <c r="J59" t="s">
+        <v>499</v>
+      </c>
+      <c r="K59" t="s">
+        <v>500</v>
+      </c>
+      <c r="L59" t="s">
+        <v>501</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s"/>
+      <c r="O59" t="s"/>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>502</v>
+      </c>
+      <c r="X59" t="s">
+        <v>503</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>505</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>506</v>
+      </c>
+      <c r="J60" t="s">
+        <v>499</v>
+      </c>
+      <c r="K60" t="s">
+        <v>507</v>
+      </c>
+      <c r="L60" t="s">
+        <v>508</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s"/>
+      <c r="O60" t="s"/>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>502</v>
+      </c>
+      <c r="X60" t="s">
+        <v>503</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>510</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>511</v>
+      </c>
+      <c r="J61" t="s">
+        <v>512</v>
+      </c>
+      <c r="K61" t="s">
+        <v>513</v>
+      </c>
+      <c r="L61" t="s">
+        <v>514</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s">
+        <v>515</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>1</v>
+      </c>
+      <c r="R61" t="n">
+        <v>1</v>
+      </c>
+      <c r="S61" t="n">
+        <v>1</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>516</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>517</v>
+      </c>
+      <c r="J62" t="s">
+        <v>518</v>
+      </c>
+      <c r="K62" t="s">
+        <v>519</v>
+      </c>
+      <c r="L62" t="s">
+        <v>520</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="s"/>
+      <c r="O62" t="s"/>
+      <c r="P62" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>1</v>
+      </c>
+      <c r="R62" t="s"/>
+      <c r="S62" t="n">
+        <v>1</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>2</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>521</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>522</v>
+      </c>
+      <c r="J63" t="s">
+        <v>523</v>
+      </c>
+      <c r="K63" t="s">
+        <v>524</v>
+      </c>
+      <c r="L63" t="s">
+        <v>525</v>
+      </c>
+      <c r="M63" t="n">
+        <v>3</v>
+      </c>
+      <c r="N63" t="s"/>
+      <c r="O63" t="s"/>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="s"/>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>526</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>527</v>
+      </c>
+      <c r="J64" t="s">
+        <v>528</v>
+      </c>
+      <c r="K64" t="s">
+        <v>529</v>
+      </c>
+      <c r="L64" t="s">
+        <v>530</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s"/>
+      <c r="O64" t="s"/>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="s"/>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>530</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_227.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_227.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="836">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,78 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/09/2018</t>
+    <t>09/05/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r599344085-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>56707</t>
+  </si>
+  <si>
+    <t>225963</t>
+  </si>
+  <si>
+    <t>599344085</t>
+  </si>
+  <si>
+    <t>07/24/2018</t>
+  </si>
+  <si>
+    <t>share the room with huge roaches</t>
+  </si>
+  <si>
+    <t>First thing I saw when I entered to that  " superior suite room " was huge Texas size roache... omg.  Very clearly not enough cleaning. every corners is piled of dusts. If I didn't stay 2 nights, I even didn't want to use bath room.  Night shift auditor is very rude. no greeting, nothing. ( daytime person was nice)  i really don't know how come these good reviews are posting here. It was very bad choice of hotel for my daughter's High school graduation trip.  I really felt sorry for her.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Stafford, responded to this reviewResponded July 24, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 24, 2018</t>
+  </si>
+  <si>
+    <t>First thing I saw when I entered to that  " superior suite room " was huge Texas size roache... omg.  Very clearly not enough cleaning. every corners is piled of dusts. If I didn't stay 2 nights, I even didn't want to use bath room.  Night shift auditor is very rude. no greeting, nothing. ( daytime person was nice)  i really don't know how come these good reviews are posting here. It was very bad choice of hotel for my daughter's High school graduation trip.  I really felt sorry for her.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r544434138-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>544434138</t>
+  </si>
+  <si>
+    <t>12/01/2017</t>
+  </si>
+  <si>
+    <t>Koon U - Wonderful stay and warm feeling like at home</t>
+  </si>
+  <si>
+    <t>We traveled as couples for a vacation visit, we were at 1st screwed by the Sugarland property without no reason that cancelled our booking at the late hour at night when we arrived for check-in, for God know the reason why such happened, a nice and helpful night shift staff like an angel sent by God from the Stafford property was offering us a help and a warm welcoming to accommodating us to stay at the Stafford property at that late hour close to midnight.  We are much appreciated to that night shift staff and also a special thanks to Linda and the Hotel Manager Terriko who handled us professionally and nicely granted us the entire stay staying at the Stafford property as our desire and comfortably.   The hotel staff is very helpful and nice, the service is terrific, the hotel room and all appliances is clean and brand new, we have everything that we need, such a wonderful experience for our entire vacation staying at this hotel safe and like we are at home.  We love to stay here and definitely will come back for our next vacation in town.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Stafford, responded to this reviewResponded December 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 2, 2017</t>
+  </si>
+  <si>
+    <t>We traveled as couples for a vacation visit, we were at 1st screwed by the Sugarland property without no reason that cancelled our booking at the late hour at night when we arrived for check-in, for God know the reason why such happened, a nice and helpful night shift staff like an angel sent by God from the Stafford property was offering us a help and a warm welcoming to accommodating us to stay at the Stafford property at that late hour close to midnight.  We are much appreciated to that night shift staff and also a special thanks to Linda and the Hotel Manager Terriko who handled us professionally and nicely granted us the entire stay staying at the Stafford property as our desire and comfortably.   The hotel staff is very helpful and nice, the service is terrific, the hotel room and all appliances is clean and brand new, we have everything that we need, such a wonderful experience for our entire vacation staying at this hotel safe and like we are at home.  We love to stay here and definitely will come back for our next vacation in town.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r595894704-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
   </si>
   <si>
-    <t>56707</t>
-  </si>
-  <si>
-    <t>225963</t>
-  </si>
-  <si>
     <t>595894704</t>
   </si>
   <si>
@@ -177,13 +237,10 @@
     <t>April 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>00esa, Manager at Extended Stay America - Houston - Stafford, responded to this reviewResponded 3 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 3 weeks ago</t>
+    <t>00esa, Manager at Extended Stay America - Houston - Stafford, responded to this reviewResponded July 13, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 13, 2018</t>
   </si>
   <si>
     <t>The staff are wonderful, friendly, and helpful.  The stay has been enjoyable for myself and my children.  The environment is both safe and convenient.  Walmart, Sam's, and several restaurants are within walking distance.More</t>
@@ -210,10 +267,10 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
-    <t>00esa, Manager at Extended Stay America - Houston - Stafford, responded to this reviewResponded 4 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 4 weeks ago</t>
+    <t>00esa, Manager at Extended Stay America - Houston - Stafford, responded to this reviewResponded July 10, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 10, 2018</t>
   </si>
   <si>
     <t>Glad we found this place. Close to restaurants, stores, and entertainment. Nice, clean and safe place to stay. Comfortable beds reasonable rates, could stand to be little less, but over all affordable.More</t>
@@ -231,10 +288,64 @@
     <t>Guest</t>
   </si>
   <si>
-    <t>Awsome place close to so! Many! Things! To do! Management! A+!! Great! Staff! And manager! Was very helpful and attentive! Highly recommend staying at this  place or any of there other locations ☺,I have been to many other hotels and had horrible service provided.MoreShow less</t>
-  </si>
-  <si>
-    <t>Awsome place close to so! Many! Things! To do! Management! A+!! Great! Staff! And manager! Was very helpful and attentive! Highly recommend staying at this  place or any of there other locations ☺,I have been to many other hotels and had horrible service provided.More</t>
+    <t>Awsome place close to so! Many! Things! To do! Management! A+!! Great! Staff! And manager! Was very helpful and attentive! Highly recommend staying at this  place or any of there other locations ,I have been to many other hotels and had horrible service provided.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Stafford, responded to this reviewResponded July 7, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 7, 2018</t>
+  </si>
+  <si>
+    <t>Awsome place close to so! Many! Things! To do! Management! A+!! Great! Staff! And manager! Was very helpful and attentive! Highly recommend staying at this  place or any of there other locations ,I have been to many other hotels and had horrible service provided.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r591428828-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>591428828</t>
+  </si>
+  <si>
+    <t>06/28/2018</t>
+  </si>
+  <si>
+    <t>Rachel is truly God sent</t>
+  </si>
+  <si>
+    <t>I wish I could give Rachel 100 stars. She made a very tough time in our families lives, pleasant. She went above and beyond her call of duty. It wasn’t like staying at a hotel but at home! Adrienne, one of the housekeepers has warmed our hearts daily. It’s like your Auntie coming to see you. She greets you with a warm smile and a hearty laugh. One of my children is autistic and he has had the time of his life. The staff is kind and friendly, always engaging all of my children. If you have an issue with your room, it is corrected immediately. Rachel has built a very professional and friendly atmosphere. If you are I. The area and need a place to call home away from home, this is truly the place. I just say be patient because Rachel is making changes daily to better her property and make it even more warm. My hat goes off to the entire facilityMoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Stafford, responded to this reviewResponded June 28, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 28, 2018</t>
+  </si>
+  <si>
+    <t>I wish I could give Rachel 100 stars. She made a very tough time in our families lives, pleasant. She went above and beyond her call of duty. It wasn’t like staying at a hotel but at home! Adrienne, one of the housekeepers has warmed our hearts daily. It’s like your Auntie coming to see you. She greets you with a warm smile and a hearty laugh. One of my children is autistic and he has had the time of his life. The staff is kind and friendly, always engaging all of my children. If you have an issue with your room, it is corrected immediately. Rachel has built a very professional and friendly atmosphere. If you are I. The area and need a place to call home away from home, this is truly the place. I just say be patient because Rachel is making changes daily to better her property and make it even more warm. My hat goes off to the entire facilityMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r591170448-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>591170448</t>
+  </si>
+  <si>
+    <t>06/27/2018</t>
+  </si>
+  <si>
+    <t>Enjoy staying here. Friendly &amp; Proffesional staff members.</t>
+  </si>
+  <si>
+    <t>Rachel Gleason, GM  was  helpful in accommodating our needs. All Other Staff members Jafath , Adrian , Renea, Springer, Vivian are Good Customer Service.My family &amp; I've stayed here before. We like it here.Best Regards,Syed Alex AliMoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Stafford, responded to this reviewResponded June 27, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 27, 2018</t>
+  </si>
+  <si>
+    <t>Rachel Gleason, GM  was  helpful in accommodating our needs. All Other Staff members Jafath , Adrian , Renea, Springer, Vivian are Good Customer Service.My family &amp; I've stayed here before. We like it here.Best Regards,Syed Alex AliMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r590211707-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
@@ -318,6 +429,60 @@
     <t>I have enjoyed a great stay while having some surgical procedures. The General Manager Terriko has been super accommodating. Great location with great weekly housekeeping services. I'm very happy with the services available and cleanliness. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r558208483-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>558208483</t>
+  </si>
+  <si>
+    <t>02/03/2018</t>
+  </si>
+  <si>
+    <t>Nice Place</t>
+  </si>
+  <si>
+    <t>Our stay was for a short term that only lasted a week. The location of the business is perfect for tenants that aren't' vehicle assessable and just want to walk to get more steps for a fitbit challenge.The staff is friendly and thoughtful so whenever you need an item for your room they have it on hand and imply if you need other items to compliment.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Stafford, responded to this reviewResponded February 4, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 4, 2018</t>
+  </si>
+  <si>
+    <t>Our stay was for a short term that only lasted a week. The location of the business is perfect for tenants that aren't' vehicle assessable and just want to walk to get more steps for a fitbit challenge.The staff is friendly and thoughtful so whenever you need an item for your room they have it on hand and imply if you need other items to compliment.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r556758771-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>556758771</t>
+  </si>
+  <si>
+    <t>01/27/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 Days Stay With Family </t>
+  </si>
+  <si>
+    <t>When we got to the room and I saw the bed we were upset because they called it a "queen room" but that was clearly a twin bed... Imagine my husband, myself and baby sleeping on this it was not comfortable. We went to front desk they said the could upgrade us to a king room for $5.00 more...That did not sit well with us we remained in the tiny room... On the other hand If you're looking for convenient and cheap it's a good hotel. Was surprised at how clean it was which is what we were looking for considering we had our 4 months old. We choose this hotel because of the Kitchenette to wash and clean bottles daily. Get your own dish soap etc... If you need utensils you need to go to the front desk. Please be aware if you're not staying up to 8 days you will not receive room service cleaning, this sucked for us because we only spent 5 days. For clean towels you need to take the dirty ones to front desk before they can hand you clean ones.The stay wasn't bad. But wasn't great.Never went to breakfast. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Stafford, responded to this reviewResponded January 28, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 28, 2018</t>
+  </si>
+  <si>
+    <t>When we got to the room and I saw the bed we were upset because they called it a "queen room" but that was clearly a twin bed... Imagine my husband, myself and baby sleeping on this it was not comfortable. We went to front desk they said the could upgrade us to a king room for $5.00 more...That did not sit well with us we remained in the tiny room... On the other hand If you're looking for convenient and cheap it's a good hotel. Was surprised at how clean it was which is what we were looking for considering we had our 4 months old. We choose this hotel because of the Kitchenette to wash and clean bottles daily. Get your own dish soap etc... If you need utensils you need to go to the front desk. Please be aware if you're not staying up to 8 days you will not receive room service cleaning, this sucked for us because we only spent 5 days. For clean towels you need to take the dirty ones to front desk before they can hand you clean ones.The stay wasn't bad. But wasn't great.Never went to breakfast. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r556320221-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
   </si>
   <si>
@@ -333,12 +498,6 @@
     <t>My husband and I booked a 5-day stay but had to stay 7 days because of freezing and icy weather. The kitchen was well-equipped, but the room was quite crowded. For a stay this long, it was not very convenient. There were two office chairs for the little extended counter where we would eat, but other than that only one recliner and no sofa as we had somehow expected. The bed was comfortable and the place was reasonably clean. There was very little room to move around, and in order to watch TV, if there were two people present, one would have to sit on the bed or in one of the office chairs.MoreShow less</t>
   </si>
   <si>
-    <t>January 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>00esa, Manager at Extended Stay America - Houston - Stafford, responded to this reviewResponded January 26, 2018</t>
   </si>
   <si>
@@ -402,24 +561,66 @@
     <t>The room itself was fine. Could use an actual light in the shower. There were some bugs crawling at the bottom of the tub from what I assume is little use of a king suite. Easily fixed by running the water. Worst part was not feeling super safe. Wash comfortable leaving anything in my car, and people were banging on the walls and floor above us and yelling late at night and early in the morning. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r548399391-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>548399391</t>
+  </si>
+  <si>
+    <t>12/21/2017</t>
+  </si>
+  <si>
+    <t>Somewhat satisfied</t>
+  </si>
+  <si>
+    <t>We are a loyal customer and after staying there for so long. We were being charged a lot more than we usually were charge, just because of the storms in Houston. Felt that it was just taking advantage of a disaster. And we were there to help the people of Houston and this is what happened.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Stafford, responded to this reviewResponded December 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 22, 2017</t>
+  </si>
+  <si>
+    <t>We are a loyal customer and after staying there for so long. We were being charged a lot more than we usually were charge, just because of the storms in Houston. Felt that it was just taking advantage of a disaster. And we were there to help the people of Houston and this is what happened.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r544350765-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>544350765</t>
+  </si>
+  <si>
+    <t>11/30/2017</t>
+  </si>
+  <si>
+    <t>Extended Stay Stafford , Texas</t>
+  </si>
+  <si>
+    <t>We had called the hotel 1 week prior to the reservation to request a first floor accommodation.  I have had a stroke and have right sided weakness.  When we arrived there were no first floor of handicapped rooms available.  We arrived at 3:45 PM and the Manager was not present.  The woman at the desk then asked for $100 in cash upon registration and told me that this was their policy.  She told me that this is usually done because of people smoking in the room.  I explained that we do not smoke as I had a stroke and my wife has asthma.  Also, I did not have the $100 cash available.  Finally, she accepted the $100 on my credit card.  Upon entering the room, I noticed that the refrigerator was bashed in a number of places and the phone did not work.  Also, during the stay, the toilet was clogged and backed up.  We had to go to the office and get a plunger ourselves.  Overall, I would rate these accommodations as poor.  The staff at this hotel was basically non-existent and lacked other amenities which would make the stay more enjoyable, such as a DVD player.  I would not recommend this hotel to others.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Stafford, responded to this reviewResponded December 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 1, 2017</t>
+  </si>
+  <si>
+    <t>We had called the hotel 1 week prior to the reservation to request a first floor accommodation.  I have had a stroke and have right sided weakness.  When we arrived there were no first floor of handicapped rooms available.  We arrived at 3:45 PM and the Manager was not present.  The woman at the desk then asked for $100 in cash upon registration and told me that this was their policy.  She told me that this is usually done because of people smoking in the room.  I explained that we do not smoke as I had a stroke and my wife has asthma.  Also, I did not have the $100 cash available.  Finally, she accepted the $100 on my credit card.  Upon entering the room, I noticed that the refrigerator was bashed in a number of places and the phone did not work.  Also, during the stay, the toilet was clogged and backed up.  We had to go to the office and get a plunger ourselves.  Overall, I would rate these accommodations as poor.  The staff at this hotel was basically non-existent and lacked other amenities which would make the stay more enjoyable, such as a DVD player.  I would not recommend this hotel to others.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r544214561-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
   </si>
   <si>
     <t>544214561</t>
   </si>
   <si>
-    <t>11/30/2017</t>
-  </si>
-  <si>
     <t>Family stay</t>
   </si>
   <si>
     <t>We feel every day  like we are at home thanks to the great staff at the hotel. Everyone is very warm and welcoming to us. The service is terrific and we have everything that we need.  We have a kitchen which allows us to cook together as a family. MoreShow less</t>
   </si>
   <si>
-    <t>November 2017</t>
-  </si>
-  <si>
     <t>00esa, Manager at Extended Stay America - Houston - Stafford, responded to this reviewResponded November 30, 2017</t>
   </si>
   <si>
@@ -483,6 +684,57 @@
     <t>Awesome stay made this my home away from home will gladly return.  Bathrooms were clean everyone was very helpful to make sure I was comfortable it's was in a great location. Major restaurant and grocery store within walking distance. Your stay here is a must.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r532509396-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>532509396</t>
+  </si>
+  <si>
+    <t>08/09/2017</t>
+  </si>
+  <si>
+    <t>BEST QUALITY AND SERVICE AROUND</t>
+  </si>
+  <si>
+    <t>I have stayed in many hotels across the US and other countries during my career. I believe I am a good judge of quality of most responsibilities undertaken by any hotel. I stayed at this ESA location in Stafford, Tx, recently and have been very impressed with the hotel. It is run very professionally and the staff work extremely hard to ensure that guests feel welcome. Particularly impressive is the Manager, Terriko. She runs the team extremely well and is very helpful in ensuring that the guest experience is great. The staff that any Manager recruits are also key in success and Terriko has hired well with several of the staff. The ones that immediately come to mind are Linda, Jafet, Tina and Lynette. I meet these most regularly, so this is not an indication that other staff are less able. The hotel is very clean and the housekeeping staff do a great job. It has been recently refurbished and feels like new. I recommend this hotel to any one that is planning on coming to Stafford on business or for any other reason.  Keep up the great work. Thank you.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Stafford, responded to this reviewResponded October 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 13, 2017</t>
+  </si>
+  <si>
+    <t>I have stayed in many hotels across the US and other countries during my career. I believe I am a good judge of quality of most responsibilities undertaken by any hotel. I stayed at this ESA location in Stafford, Tx, recently and have been very impressed with the hotel. It is run very professionally and the staff work extremely hard to ensure that guests feel welcome. Particularly impressive is the Manager, Terriko. She runs the team extremely well and is very helpful in ensuring that the guest experience is great. The staff that any Manager recruits are also key in success and Terriko has hired well with several of the staff. The ones that immediately come to mind are Linda, Jafet, Tina and Lynette. I meet these most regularly, so this is not an indication that other staff are less able. The hotel is very clean and the housekeeping staff do a great job. It has been recently refurbished and feels like new. I recommend this hotel to any one that is planning on coming to Stafford on business or for any other reason.  Keep up the great work. Thank you.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r506043549-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>506043549</t>
+  </si>
+  <si>
+    <t>07/26/2017</t>
+  </si>
+  <si>
+    <t>Good place for short term stay when duration is unknown</t>
+  </si>
+  <si>
+    <t>My short term plan to stay for a few days, extended into a 6-7 weeks due to the nature of my employment.  ESA flexible lease and monthly and weekly rates made it easy for me to extend my stay there.   Also ESA staff helped me out big time when I had to check out of the hotel, while I was away due to an unplanned event out of town.  They vacated room and stored my things, to be picked up later.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Stafford, responded to this reviewResponded July 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2017</t>
+  </si>
+  <si>
+    <t>My short term plan to stay for a few days, extended into a 6-7 weeks due to the nature of my employment.  ESA flexible lease and monthly and weekly rates made it easy for me to extend my stay there.   Also ESA staff helped me out big time when I had to check out of the hotel, while I was away due to an unplanned event out of town.  They vacated room and stored my things, to be picked up later.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r505192108-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
   </si>
   <si>
@@ -498,9 +750,6 @@
     <t>My daughter and I were relocating to another state and needed to stay here in Stafford for a few nights. This extended stay was easy to book and very affordable. For this price you wouldn't expect such a nice accommodation. They provide free wifi and there are great channels. I would stay at this extended anytime! MoreShow less</t>
   </si>
   <si>
-    <t>July 2017</t>
-  </si>
-  <si>
     <t>00esa, General Manager at Extended Stay America - Houston - Stafford, responded to this reviewResponded July 25, 2017</t>
   </si>
   <si>
@@ -561,6 +810,60 @@
     <t>Cockroaches in room, constantly leaking at shower, rooms too small, bad odor, like cigarettes, pool is dirty, there was always a pair of sandals floating and a bath suitcase in the bottom. Pros: nice neighborhood, quiet. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r500302279-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>500302279</t>
+  </si>
+  <si>
+    <t>07/10/2017</t>
+  </si>
+  <si>
+    <t>Juju bees</t>
+  </si>
+  <si>
+    <t>This is the best clean cheapest hotel in the area. But if u need anything stay away from the tall skinny black girl and the Hispanic guy  at the front desk I call them the stupids but the rest of the staff is great .MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Stafford, responded to this reviewResponded July 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2017</t>
+  </si>
+  <si>
+    <t>This is the best clean cheapest hotel in the area. But if u need anything stay away from the tall skinny black girl and the Hispanic guy  at the front desk I call them the stupids but the rest of the staff is great .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r496524818-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>496524818</t>
+  </si>
+  <si>
+    <t>06/27/2017</t>
+  </si>
+  <si>
+    <t>Excellent Stay</t>
+  </si>
+  <si>
+    <t>Overall stay was excellent. Great service, great room, and everything was clean. Terry Rachel even called me from the front desk to make sure everything was okay. I was able to relax and sleep very peacefully.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Stafford, responded to this reviewResponded June 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 28, 2017</t>
+  </si>
+  <si>
+    <t>Overall stay was excellent. Great service, great room, and everything was clean. Terry Rachel even called me from the front desk to make sure everything was okay. I was able to relax and sleep very peacefully.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r495537346-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
   </si>
   <si>
@@ -576,9 +879,6 @@
     <t>This is a decent Extended Stay America motel in most respects. My problem was that it is two stories with no elevator and no available ground floor rooms. I have a bad knee and the stair climbing and descent was arduous to say the least. They do have a very nice fitness center with everything operative which is unusual for Extended StayMoreShow less</t>
   </si>
   <si>
-    <t>June 2017</t>
-  </si>
-  <si>
     <t>00esa, General Manager at Extended Stay America - Houston - Stafford, responded to this reviewResponded June 24, 2017</t>
   </si>
   <si>
@@ -636,25 +936,64 @@
     <t>Just like home. We are in transition and the staff makes it very accommodating. The kids like the pool. The room is nice and big and it feels like we are really living in an actual apartment complex.  The neighbors all seem to be very comfortablethere as well.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r491843146-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>491843146</t>
+  </si>
+  <si>
+    <t>06/09/2017</t>
+  </si>
+  <si>
+    <t>Needs Improvement</t>
+  </si>
+  <si>
+    <t>The only good thing about my stay was the hostess at the front desk.  I had to come because the AC went out at my home.  I just wanted to be able to relax and rest. Instead it was more of an. inconvenience because in the info about the room there is a kitchen, however, no kitchen accessories are available.  I ended up buying paper/plastic products.  The accessories provided you have to go and pick them up yourself, and then they only provided enough for 2 ppl. when my reservation was for 4.  The AC leaked during the entire stay and the shower did not work and I had to clean out the drain in the tub.  Never saw housecleaning and I NEVER used the do not disturb sigh,  Grab and go Breakfast did not exist.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Stafford, responded to this reviewResponded June 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 10, 2017</t>
+  </si>
+  <si>
+    <t>The only good thing about my stay was the hostess at the front desk.  I had to come because the AC went out at my home.  I just wanted to be able to relax and rest. Instead it was more of an. inconvenience because in the info about the room there is a kitchen, however, no kitchen accessories are available.  I ended up buying paper/plastic products.  The accessories provided you have to go and pick them up yourself, and then they only provided enough for 2 ppl. when my reservation was for 4.  The AC leaked during the entire stay and the shower did not work and I had to clean out the drain in the tub.  Never saw housecleaning and I NEVER used the do not disturb sigh,  Grab and go Breakfast did not exist.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r490854230-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>490854230</t>
+  </si>
+  <si>
+    <t>06/05/2017</t>
+  </si>
+  <si>
+    <t>Great Place to Stay</t>
+  </si>
+  <si>
+    <t>Clean and comfortable.  Just perfect for my trip to a Convention.  Full size fridge, microwave and even a two-burner stove top.  Dishes and utensils available if you are staying a few days.I just happened to be to busy to take advantage and cook myself a hot breakfast, however, coffee and muffins to go...  Quiet, safe location, close to shopping and restaurants, easy to find but not visible from the freeway (which I liked).  Felt very "at home" and happy with my two night stay.   Highly recommend, will return...MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Stafford, responded to this reviewResponded June 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 6, 2017</t>
+  </si>
+  <si>
+    <t>Clean and comfortable.  Just perfect for my trip to a Convention.  Full size fridge, microwave and even a two-burner stove top.  Dishes and utensils available if you are staying a few days.I just happened to be to busy to take advantage and cook myself a hot breakfast, however, coffee and muffins to go...  Quiet, safe location, close to shopping and restaurants, easy to find but not visible from the freeway (which I liked).  Felt very "at home" and happy with my two night stay.   Highly recommend, will return...More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r490854237-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
   </si>
   <si>
     <t>490854237</t>
   </si>
   <si>
-    <t>06/05/2017</t>
-  </si>
-  <si>
     <t>Excellent Hotel Experience at Stay America Stafford</t>
   </si>
   <si>
     <t>I have stayed in numerous Hotels, and many have been upscale and some casual and one thing that I value the most is customer service. I appreciate the friendly greeting from not only the General Manager but also from the entire staff, and if you have any concerns anyone from her staff can help you and it is immediately taken care of! I feel right at home at Stay America in Stafford, and so will you!MoreShow less</t>
-  </si>
-  <si>
-    <t>00esa, General Manager at Extended Stay America - Houston - Stafford, responded to this reviewResponded June 6, 2017</t>
-  </si>
-  <si>
-    <t>Responded June 6, 2017</t>
   </si>
   <si>
     <t>I have stayed in numerous Hotels, and many have been upscale and some casual and one thing that I value the most is customer service. I appreciate the friendly greeting from not only the General Manager but also from the entire staff, and if you have any concerns anyone from her staff can help you and it is immediately taken care of! I feel right at home at Stay America in Stafford, and so will you!More</t>
@@ -703,6 +1042,51 @@
     <t>October 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r413205331-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>413205331</t>
+  </si>
+  <si>
+    <t>08/31/2016</t>
+  </si>
+  <si>
+    <t>Stayed for 3 months</t>
+  </si>
+  <si>
+    <t>I was here for training. It was decent. The pool was always pretty clean, the grounds were picked up by the time I came home from work. All appliances worked. My mail was even able to be delivered the front desk :) Internet was slow at night. The laundry was pretty good, the dryers are amazing(45 minutes and everything is very dry!). The walls are very sound proof (which was really nice since my neighbor has told me on many occasions he plays his guitar pretty loud at night. My only complaint is that sometimes(75%) the side door to the lobby is locked in the morning, either the lock or the door lock which just makes getting your coffee in the morning a guessing game(I am not a morning person). Gym is pretty good, the tv has all the channels. I just wish that the night staff was able to make it colder. All in all it's a decent hotel for the monthly price and location.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - Stafford, responded to this reviewResponded September 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 16, 2016</t>
+  </si>
+  <si>
+    <t>I was here for training. It was decent. The pool was always pretty clean, the grounds were picked up by the time I came home from work. All appliances worked. My mail was even able to be delivered the front desk :) Internet was slow at night. The laundry was pretty good, the dryers are amazing(45 minutes and everything is very dry!). The walls are very sound proof (which was really nice since my neighbor has told me on many occasions he plays his guitar pretty loud at night. My only complaint is that sometimes(75%) the side door to the lobby is locked in the morning, either the lock or the door lock which just makes getting your coffee in the morning a guessing game(I am not a morning person). Gym is pretty good, the tv has all the channels. I just wish that the night staff was able to make it colder. All in all it's a decent hotel for the monthly price and location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r409978938-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>409978938</t>
+  </si>
+  <si>
+    <t>08/24/2016</t>
+  </si>
+  <si>
+    <t>Stayed for 7 months</t>
+  </si>
+  <si>
+    <t>Its not a five star resort but if you need place to stay its good... Pool, WiFi... I stayed for 7 months basically whole time I was in school didn't complain... If you want a resort you need go spend that kind money... Fair price in my opinion, offer discount rates for certain companies... Very compatible with traveling business worker who just needs place to sleep</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r396932573-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
   </si>
   <si>
@@ -763,6 +1147,48 @@
     <t>I am glad I did not get to book for three nights. I called the hotel for reservation and was told only one room was available  so I booked. I wish I had hung up and checked the travel sites.   This property has been so neglected.  The carpet is shredding. There was nothing to set suitcases on. The light bulb in the only lamp was broken and their was no maintenance available.  Our room was dark and dingy. This is suppose to have a coffee maker and utensils  since it is extended stay. Apparently you have to request those ir l tems. There is no dish soap..no soap for the dishwasher and no housekeeping. None of this was disclosed at booking b phone.  If you want housekeeping you apparently have to pay extra. Free Internet has worked so far .  I see where some people got room rates of 50.00...went were charged 88.00.  I wouldn't mind the difference if the place was well kept and clean. I have learned a valuable lesson. Trust no one.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r385600742-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>385600742</t>
+  </si>
+  <si>
+    <t>06/24/2016</t>
+  </si>
+  <si>
+    <t>It is just ok</t>
+  </si>
+  <si>
+    <t>My family and I stayed here for a couple of weeks. During our stay NEVER saw housekeeping until the day we checked out (  she stood outside the door as we gathered our belongings to leave) as if we were being asked to leave. It was super uncomfortable. But on to the room. It was ok. Basic accommodation. My room had two burners, microwave and sink. The room itself is in need of sprucing up the carpet feels sticky on bare feet. The tub has missing chips out of it. The curtins have holes in them. But Internet was fast. Cable channel selection good. The kicker for me is they have church services in the lobby of hotel. That is so loud on Sunday morning forget sleeping in. When I inquired on nice level at 9 Sunday morning. I was told they would be done by noon??? What the what. Never been to a hotel that has an entire congregation in the lobby for Sunday worship. Pool during my stay it was green and closed 13  of my 14 day stay. MoreShow less</t>
+  </si>
+  <si>
+    <t>My family and I stayed here for a couple of weeks. During our stay NEVER saw housekeeping until the day we checked out (  she stood outside the door as we gathered our belongings to leave) as if we were being asked to leave. It was super uncomfortable. But on to the room. It was ok. Basic accommodation. My room had two burners, microwave and sink. The room itself is in need of sprucing up the carpet feels sticky on bare feet. The tub has missing chips out of it. The curtins have holes in them. But Internet was fast. Cable channel selection good. The kicker for me is they have church services in the lobby of hotel. That is so loud on Sunday morning forget sleeping in. When I inquired on nice level at 9 Sunday morning. I was told they would be done by noon??? What the what. Never been to a hotel that has an entire congregation in the lobby for Sunday worship. Pool during my stay it was green and closed 13  of my 14 day stay. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r383250491-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>383250491</t>
+  </si>
+  <si>
+    <t>06/16/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unfair reviews </t>
+  </si>
+  <si>
+    <t>I have been staying at this place for 10 weeks now. Reading some of these comments have me scratching my head. Though this place is no "Ritz Carlton" it is however a very decent hotel. Reasonably priced and nestled in a great location. Staff are very professional and eager to assist and address any needs or concerns. Reading the comments about the lack of housecleaning is a catch 22.. when making reservations you are given the choice to pay a lower rate if you choose to have housekeeping come in once a week.  You also have the choice to receive housekeeping everyday for an additional  $5 a day. The customer is given the choice when making the reservation. It is "no surprise" The hotel is undergoing remodeling at the moment which goes to show  (imo) that they care about their guests and their comfort.  The staff have been extremely accommodating during these upgrades and have addressed all of my concerns immediately.  I would definitely recommend this place to anyone needing extended stay accommodations. Fairly priced and welcoming. The staff have gone above and beyond to accommodate whatever needs I have. MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - Stafford, responded to this reviewResponded June 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 17, 2016</t>
+  </si>
+  <si>
+    <t>I have been staying at this place for 10 weeks now. Reading some of these comments have me scratching my head. Though this place is no "Ritz Carlton" it is however a very decent hotel. Reasonably priced and nestled in a great location. Staff are very professional and eager to assist and address any needs or concerns. Reading the comments about the lack of housecleaning is a catch 22.. when making reservations you are given the choice to pay a lower rate if you choose to have housekeeping come in once a week.  You also have the choice to receive housekeeping everyday for an additional  $5 a day. The customer is given the choice when making the reservation. It is "no surprise" The hotel is undergoing remodeling at the moment which goes to show  (imo) that they care about their guests and their comfort.  The staff have been extremely accommodating during these upgrades and have addressed all of my concerns immediately.  I would definitely recommend this place to anyone needing extended stay accommodations. Fairly priced and welcoming. The staff have gone above and beyond to accommodate whatever needs I have. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r381642032-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
   </si>
   <si>
@@ -778,9 +1204,6 @@
     <t>The rooms are very small, the customer service is poor, and the room which is a kitchenette doesn't come with utensils. When I arrived I was told there were no rooms available, even though I had a reservation. The front desk clerk was at the end of his shift and said there is nothing he can do and left the building. They offer free slow wifi. I had to use my phone 4G and it was much faster. When I arrive there was a roach having babies that I had to smash. Stay Away!</t>
   </si>
   <si>
-    <t>June 2016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r360162597-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
   </si>
   <si>
@@ -826,6 +1249,39 @@
     <t>I stayed in that dirty joint for a month. What a ghastly experience. Garbage a pled high for days   No hot water for a bath for over a week  cigarette butts all over the passagesIndifferent and shabby staff  Disgusting flop houseMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r305541069-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>305541069</t>
+  </si>
+  <si>
+    <t>08/31/2015</t>
+  </si>
+  <si>
+    <t>Below expectation</t>
+  </si>
+  <si>
+    <t>Nice place for family on long vacation as you get to prepare your meals etc. but the place is very very unkept lobby dirty pool is usually a no go area. No house keeping, only 2 of the front desk staff are friendly and helpful, the rest are awful esp the guys. Definitely fell below my expectations and certainly not going back. Am certain I can get better services with the amount paid if not cheaper</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r301885194-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>301885194</t>
+  </si>
+  <si>
+    <t>08/21/2015</t>
+  </si>
+  <si>
+    <t>This is a TERRIBLE hotel!</t>
+  </si>
+  <si>
+    <t>I totally agree with the other reviews here - this is a disgustingly dirty hotel.  I booked a room for my senior mother in Aug 2015, and the room they gave her had not been cleaned - in who knows how long?!, trash was overflowing in the floor, left out food all over...was completely trashed!  And there was a homeless person asleep on the grass outside, near her room - needless to say, I did not allow her to stay here!! Beware of 'deals' posted on line or at booking services, they won't refund your money, for ANY REASON, no matter how valid the reasons are for not staying!!!!!</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r281923434-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
   </si>
   <si>
@@ -884,6 +1340,42 @@
   </si>
   <si>
     <t>I stayed for 1 night, and can honestly say it was the dirtiest hotel I've ever stayed at. Check-In took almost 30 minutes for our group of 7, and 6 of us had to return to the front desk because our cards did not work.  Very inconvenient.  We would have left for a different hotel but we arrived late at night, and didn't have time.  Upon entering my room, I noticed it was filthy.  Patches on the walls and ceilings, stains everywhere, and i'm afraid of what else the dark carpet was hiding.  I made sure none of my things touched the floor.  The black chairs in the kitchen area had white stains all over, and the beds both looked dirty.  I pulled back the sheets on one bed and found a ton of what looked like pubic hair... needless to say i didn't sleep in that bed.  There was also hair all over the bathroom.  Overall, this place deserves zero stars, and should probably be condemned at this point.  Stay here at your own risk...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r240856240-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>240856240</t>
+  </si>
+  <si>
+    <t>11/21/2014</t>
+  </si>
+  <si>
+    <t>Disappointed!</t>
+  </si>
+  <si>
+    <t>The room was very dirty. There was lots of hair on the sheets, bathroom was dirty, smoke detector hanging out of wall, reeked of smoke even tho it was a non smoking room, dust and dirt every where. We usually stay often but will not come again. Manager on duty was helpful which helped.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r232532881-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>232532881</t>
+  </si>
+  <si>
+    <t>10/04/2014</t>
+  </si>
+  <si>
+    <t>Great Hotel Structure but Pure Customer Service!</t>
+  </si>
+  <si>
+    <t>I booked 5 rooms for my guests and I earlier spoke with someone on the desk about my intend to upgrade all these rooms to double beds. On my way I Spoke with the manager over the phone and she said no she wants $20.00 for upgrade as against the normal $10.00. We argued over it and she later agreed to previous amount of $10/night and promised me 4 rooms with two beds and 1 room with king size all none smoking. I got there to check in, I was told she only reserved 2 rooms with upgrade and the agent at the desk name Mario was even worst than the manager. He want the payment for two upgrade room by room. I gave him the payment for the first upgrade and when I got to the second room upgrade, I ran out of low bills, so I gave him $100.00 bill which he looked at for more than 1 min and later offer me a changed of hundred in rolls of quarters which I off course disagreed and he want me to forget the booking. Take your business elsewhere! I ended up used my credit card for this upgrade against my will. This hotel failed to educate people that when you book through hotwire, you will not get any room service at all. No cleaning or exchange of towels nor soaps on daily basis. For this, I am very...I booked 5 rooms for my guests and I earlier spoke with someone on the desk about my intend to upgrade all these rooms to double beds. On my way I Spoke with the manager over the phone and she said no she wants $20.00 for upgrade as against the normal $10.00. We argued over it and she later agreed to previous amount of $10/night and promised me 4 rooms with two beds and 1 room with king size all none smoking. I got there to check in, I was told she only reserved 2 rooms with upgrade and the agent at the desk name Mario was even worst than the manager. He want the payment for two upgrade room by room. I gave him the payment for the first upgrade and when I got to the second room upgrade, I ran out of low bills, so I gave him $100.00 bill which he looked at for more than 1 min and later offer me a changed of hundred in rolls of quarters which I off course disagreed and he want me to forget the booking. Take your business elsewhere! I ended up used my credit card for this upgrade against my will. This hotel failed to educate people that when you book through hotwire, you will not get any room service at all. No cleaning or exchange of towels nor soaps on daily basis. For this, I am very dissatisfied!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>I booked 5 rooms for my guests and I earlier spoke with someone on the desk about my intend to upgrade all these rooms to double beds. On my way I Spoke with the manager over the phone and she said no she wants $20.00 for upgrade as against the normal $10.00. We argued over it and she later agreed to previous amount of $10/night and promised me 4 rooms with two beds and 1 room with king size all none smoking. I got there to check in, I was told she only reserved 2 rooms with upgrade and the agent at the desk name Mario was even worst than the manager. He want the payment for two upgrade room by room. I gave him the payment for the first upgrade and when I got to the second room upgrade, I ran out of low bills, so I gave him $100.00 bill which he looked at for more than 1 min and later offer me a changed of hundred in rolls of quarters which I off course disagreed and he want me to forget the booking. Take your business elsewhere! I ended up used my credit card for this upgrade against my will. This hotel failed to educate people that when you book through hotwire, you will not get any room service at all. No cleaning or exchange of towels nor soaps on daily basis. For this, I am very...I booked 5 rooms for my guests and I earlier spoke with someone on the desk about my intend to upgrade all these rooms to double beds. On my way I Spoke with the manager over the phone and she said no she wants $20.00 for upgrade as against the normal $10.00. We argued over it and she later agreed to previous amount of $10/night and promised me 4 rooms with two beds and 1 room with king size all none smoking. I got there to check in, I was told she only reserved 2 rooms with upgrade and the agent at the desk name Mario was even worst than the manager. He want the payment for two upgrade room by room. I gave him the payment for the first upgrade and when I got to the second room upgrade, I ran out of low bills, so I gave him $100.00 bill which he looked at for more than 1 min and later offer me a changed of hundred in rolls of quarters which I off course disagreed and he want me to forget the booking. Take your business elsewhere! I ended up used my credit card for this upgrade against my will. This hotel failed to educate people that when you book through hotwire, you will not get any room service at all. No cleaning or exchange of towels nor soaps on daily basis. For this, I am very dissatisfied!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r232066527-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
@@ -942,6 +1434,42 @@
 The entire facility is in desperate need of an overhaul, that said, almost all of our complaints would be fixed with a renovation.  The room was very nice and spacious, very quiet, we never heard neighbors, and despite being motel style felt very safe.  The surrounding area didn't feel unsafe, we just prefer not to open to the outside. Full kitchen with dishwasher and two burner stove top.  The dishwasher was connected to a strange light switch on the wall, so initially we thought it didn't work.  The kitchen light was temperamental and required flipping the switch multiple times in order for it to turn on.  We have never experienced an air unit like this one, the options were high fan, low fan, off, with no thermostat to set - so a fan was blowing all the time and the air unit would kick on and off "as needed" but I have no idea what determined that.  The room was always very comfortable and we stopped hearing the fan after a while, it was just constant white noise in the room.  The decor was dated, but had nice amenities including onsite laundry, which we used, and a few workout machine we did not, and a pool.  There were no bed bugs as mentioned in previous reviews and, with a discount we would stay here again.  For an extended...Full Disclosure: our room was DEEPLY discounted through the American Cancer Society.The entire facility is in desperate need of an overhaul, that said, almost all of our complaints would be fixed with a renovation.  The room was very nice and spacious, very quiet, we never heard neighbors, and despite being motel style felt very safe.  The surrounding area didn't feel unsafe, we just prefer not to open to the outside. Full kitchen with dishwasher and two burner stove top.  The dishwasher was connected to a strange light switch on the wall, so initially we thought it didn't work.  The kitchen light was temperamental and required flipping the switch multiple times in order for it to turn on.  We have never experienced an air unit like this one, the options were high fan, low fan, off, with no thermostat to set - so a fan was blowing all the time and the air unit would kick on and off "as needed" but I have no idea what determined that.  The room was always very comfortable and we stopped hearing the fan after a while, it was just constant white noise in the room.  The decor was dated, but had nice amenities including onsite laundry, which we used, and a few workout machine we did not, and a pool.  There were no bed bugs as mentioned in previous reviews and, with a discount we would stay here again.  For an extended stay we had a safe, comfortable place to sleep and cook our own meals, which helped save money. With a nice renovation we would even consider staying at full price.  Staff was very nice and we only ran into one issue upon checkout.  We checked out before dawn, the front door was locked and I had to wait for the girl to open it.  We checked out two days earlier than we had planned, but had called the day before and were told it wouldn't be an issue.  The girl running the desk overnight was not able to check us out because, in her own words, "they didn't teach me how to do this." She said the morning staff would have to refund the remaining balance and complete the check out process when they got in around 7.  She left a note and we will see.  I did take the managers card to call in case this doesn't happen.  This is a staffing (and professionalism) issue that probably should be addressed, but would not come in to play if we were deciding to stay here again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r207553394-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>207553394</t>
+  </si>
+  <si>
+    <t>05/28/2014</t>
+  </si>
+  <si>
+    <t>Short trip to Houston</t>
+  </si>
+  <si>
+    <t>We reserved this hotel via Hotwire for a night's stay in Houston while attending a party.  It's a nice, clean place in a decent, quiet location; and it was very close to where we needed to be.  The price was good ($50/night) and you get a full kitchen, free wireless, and free light breakfast.  The only problem I had with it was it didn't provide shampoo, and there was no ice; we had to go to a Walgreen that's just around the corner to get those supplies.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r198115467-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>198115467</t>
+  </si>
+  <si>
+    <t>03/20/2014</t>
+  </si>
+  <si>
+    <t>AVOID IT LIKE THE PLAGUE!</t>
+  </si>
+  <si>
+    <t>I was trying to save a few bucks.  I've tried 2-3 star places before but haven't encountered a disappointment like this since the 80's.  In fact, I think that was the last time this establishment had any maintenance or repairs done.  The water was hot and pressure was good.  That's the only positives I can state.  The décor is garage-sale 70's.  The upkeep is non existent with cracked tiles and moldy showers.  There was ZERO maid service.  Air conditioning sounded like a diesel truck was idling in my room.  Spend the extra $10 and get something without the avocado and gold color scheme.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r196761234-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
   </si>
   <si>
@@ -1005,6 +1533,48 @@
     <t>December 2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r187844660-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>187844660</t>
+  </si>
+  <si>
+    <t>12/16/2013</t>
+  </si>
+  <si>
+    <t>Worst place ever!!</t>
+  </si>
+  <si>
+    <t>Filthy disgusting rooms. Go anywhere but here. Furniture is old and worn. Carpeting has never been clean, bugs everywhere. It's so loud at all times you can never get a good night sleep and employees are very rude!MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Stafford, responded to this reviewResponded December 20, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 20, 2013</t>
+  </si>
+  <si>
+    <t>Filthy disgusting rooms. Go anywhere but here. Furniture is old and worn. Carpeting has never been clean, bugs everywhere. It's so loud at all times you can never get a good night sleep and employees are very rude!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r187750653-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>187750653</t>
+  </si>
+  <si>
+    <t>12/15/2013</t>
+  </si>
+  <si>
+    <t>Run!!</t>
+  </si>
+  <si>
+    <t>Where to begin. Staff is amazing but this bedbug issue is out of their hands! This place needs to be condemned its absolutely disgusting. We've been moved three different rooms, all with bedbugs, were being eaten alive. Our first room flooded which ruined my clothing. They allow prostitutes to live here... One of them was my neighbor. There's drug dealing going on. Don't be surprised if your car gets stolen because two of them have already! The staff comes into your room to "clean" and instead go through your fridge and eat your food. Unbelievable! I have many more things to say but it would take me a year.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Where to begin. Staff is amazing but this bedbug issue is out of their hands! This place needs to be condemned its absolutely disgusting. We've been moved three different rooms, all with bedbugs, were being eaten alive. Our first room flooded which ruined my clothing. They allow prostitutes to live here... One of them was my neighbor. There's drug dealing going on. Don't be surprised if your car gets stolen because two of them have already! The staff comes into your room to "clean" and instead go through your fridge and eat your food. Unbelievable! I have many more things to say but it would take me a year.  More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r187265673-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
   </si>
   <si>
@@ -1047,12 +1617,6 @@
     <t>November 2013</t>
   </si>
   <si>
-    <t>Manager_11525, General Manager at Extended Stay America - Houston - Stafford, responded to this reviewResponded December 20, 2013</t>
-  </si>
-  <si>
-    <t>Responded December 20, 2013</t>
-  </si>
-  <si>
     <t>I made an online reservation for 8 nights and was charged for 9.  It took two days and several phone messages before the manager finally contacted me.  Apparently when my card was swiped upon check-in for the TOTAL AMOUNT, the excuse was made that I wasn't charged for sales tax.  Why would you not include sales tax in the confirmation, or mention it at check-in during payment or during check-out?  Anyway, for $79 a night, there are better places in the Houston area to stay that are less noisy, with more comfortable beds, and a better TV lineup.  The "deluxe" pullout sleeper had springs poking through the mattress and was unfit to sleep on.  My guest had on choice but to sleep on the sofa itself instead.  After 8 nights, I never did get a TV lineup despite asking for one at the front desk several times.  Bottom line, there are better values for your dollar in Houston.  The front desk ladies were very nice and tried to help as they could, but billing policies made something very simple very complicated and frustrating.More</t>
   </si>
   <si>
@@ -1074,6 +1638,57 @@
     <t>The hotel was ok, not great, but not terrible. But it really has some good potential. The staff for the most part were friendly enough, but I didn't get the room type I had reserved and when mentioned the response was "I'll look into it" and a week later, nothing.The room I did get was what was expected, somewhat worn but clean and functional. The kitchen was functional and did its job. AC was great and worked perfectly.The hotel internet was HORRIBLE!!! Even paying for the faster service didn't resolve the problems and it wasn't nearly the 2.5 times faster than was advertised it would be. The pool was dirty and I don't think the leaves were cleaned out of it once during my stay.It's a tough decision to come back or try another hotel in the areaMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r183751828-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>183751828</t>
+  </si>
+  <si>
+    <t>11/06/2013</t>
+  </si>
+  <si>
+    <t>Very unpleasant experience</t>
+  </si>
+  <si>
+    <t>Dirty dirty room, not what you'd expect for a hotel.  Extremely poorly maintained utilities.  Filthy and stained torn chairs. Dirty curtains, filthy kitchenette, non smoking room with very strong odor of  cigarettes!!! Some staff members looked terribly unkempt. No proper blankets, towels not clean. Definitely not a place that I'll bebre recommending to anyoneMoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Stafford, responded to this reviewResponded November 8, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 8, 2013</t>
+  </si>
+  <si>
+    <t>Dirty dirty room, not what you'd expect for a hotel.  Extremely poorly maintained utilities.  Filthy and stained torn chairs. Dirty curtains, filthy kitchenette, non smoking room with very strong odor of  cigarettes!!! Some staff members looked terribly unkempt. No proper blankets, towels not clean. Definitely not a place that I'll bebre recommending to anyoneMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r182888946-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>182888946</t>
+  </si>
+  <si>
+    <t>10/29/2013</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>very clean and peaceful l love it this my second term of staying and l looking forward to stay there again because it convince to every place l want to go, also l love it because they have kitchenette for cook my foodMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Stafford, responded to this reviewResponded November 1, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 1, 2013</t>
+  </si>
+  <si>
+    <t>very clean and peaceful l love it this my second term of staying and l looking forward to stay there again because it convince to every place l want to go, also l love it because they have kitchenette for cook my foodMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r178255545-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
   </si>
   <si>
@@ -1144,6 +1759,39 @@
   </si>
   <si>
     <t>The staff is rude, they hotel is in disrepair, the rooms are filthy, and bugs will crawl on you! This is simply the worst run hotel that I have ever stayed at in America! The manager overcharged me for my stay and made no accomidation for the quality of the room of presence of large numbers of bugs. The other guests are very noisy. Very large dogs (Great Dane size) are allowed to stay. Their owner could not control the one present and it leaped on me and my family when he wanted. Stray dogs are common, and a guest's pitbull was not required to be on a leash. Dog fecies is never picked up, and the outside has a certain smell. Stay here at your own risk!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r168580119-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>168580119</t>
+  </si>
+  <si>
+    <t>07/22/2013</t>
+  </si>
+  <si>
+    <t>Bed Bugs Investation!!!!!</t>
+  </si>
+  <si>
+    <t>Do NOT stay at this facility. My husband and I were eaten alive by bed bugs while staying at this property. We were both covered with so many bites we could not count them on our leg, arms, angles, shoulders, and even my face! The manager confirmed the bed bugs in the room we occupied but would only refund us 2 nights of lodging out of 14 days! This place is not sanitary and should be closed down by the Health Department until the bed bug infestation has been resolved.BEWARE: the beg bugs biting progression is slow. You will notice a few bites at first then the bed bugs back to previous bites and rebite you. After a few nights of rebiting in the same spots they continue to progress up your arms, legs, etc. It may take a number of days before the bites become noticeable and a nuisance (they itch and burn like ant bites). Next thing you know you look like you a spotted monster, itchng and scratching like crazed breast.MoreShow less</t>
+  </si>
+  <si>
+    <t>Do NOT stay at this facility. My husband and I were eaten alive by bed bugs while staying at this property. We were both covered with so many bites we could not count them on our leg, arms, angles, shoulders, and even my face! The manager confirmed the bed bugs in the room we occupied but would only refund us 2 nights of lodging out of 14 days! This place is not sanitary and should be closed down by the Health Department until the bed bug infestation has been resolved.BEWARE: the beg bugs biting progression is slow. You will notice a few bites at first then the bed bugs back to previous bites and rebite you. After a few nights of rebiting in the same spots they continue to progress up your arms, legs, etc. It may take a number of days before the bites become noticeable and a nuisance (they itch and burn like ant bites). Next thing you know you look like you a spotted monster, itchng and scratching like crazed breast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r167344323-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>167344323</t>
+  </si>
+  <si>
+    <t>07/12/2013</t>
+  </si>
+  <si>
+    <t>"Doesn't Honor Guest request"</t>
+  </si>
+  <si>
+    <t>I booked 8 days here, thru a travel website, they unable honor or provide a Non-smoking room for their guess saying that's What your travel reserved for you. I talk to lady name Debra, she wasn't very friendly, very bad customer service unable to accommodate guest request.  I called the travel website they said it was not true,She also said I -will see what I can do, it make feel not welcome in this place, this people don't care about their guess. I see how all other guess comments are true now. They give you the running-around. Bad service.  They got paid with-out me staying there.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r164367396-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
@@ -1225,6 +1873,65 @@
 Would you believe that guest barbecue in the middle of the lawn in this hotel? They are loud, get drunk and fist fight in front of other guest....Goodness! Where do I start??? I asked for a Non-smoking room, they gave me a smoking one! I spent only a few minutes in the room and my nose was stuffed!!! The manager 'Terriko' must be fired!! She is rude, she lies and she is totally incompetent! She hates her job and should not be in the 'hospitality' business! When I asked for a new room, I was told they were overbooked and now have no more rooms to spare! I was then transferred to another extended stay hotel where I was told this is quite common! The Stafford branch keeps over booking and then have to transfer guest only after they arrives! When I came in, I was charged, you have no idea how much I had to go through before my money was returned! American express was about to call the police on 'Terriko' because she had told so many lies about the procedure that it was unbelievable! Apparently, many people had gone through the same experience with this lady!!! Don't they review their staffs? Will nothing be done about this? How can extended stay America allow this to continue?? I guess it will take a court procedure before the nonsense that goes on in that hotel will be stopped!!!Would you believe that guest barbecue in the middle of the lawn in this hotel? They are loud, get drunk and fist fight in front of other guest. Guess what? One of their very own staffs told me this story and encouraged me to leave that place!!!You would think that a place that is so well situated, close to various malls would be well cared for, no!! To stay in this place will be at your own risk!! Worst experience ever!!!!!!!!!!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r159310878-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>159310878</t>
+  </si>
+  <si>
+    <t>04/30/2013</t>
+  </si>
+  <si>
+    <t>Great hotel for long term stay!</t>
+  </si>
+  <si>
+    <t>Overall the hotel is great.  The service and cleanliness aren't always 5 star, but neither is the price, so people should keep that in mind, before bashing the place.  My husband has been living here for 6 months while attending school near by.  He will remain here for his final 3 month, as we have no complaints! We have had a couple MINOR payment issues while staying here, but all it takes is a simple phone call, or trip to the front desk, and to the hotel's manager, Terricka (not sure on spelling), has always taken care of everything!  Some of the long term guests, such as my husband, don't always want the cleaning people in and out all the time since they have ALL their belongings in the room.  The cleaning people respect that.  However, if at any time, even If it is not their scheduled day of the week, we have never had a problem getting his room cleaned when we have asked...I would advise anyone who has or will be staying at this Extended Stay to talk directly to the manager, Terricka (sp?). I haven't ALWAYS had the best luck over the phone with some of the other employees, but as soon as she gets on the phone, I am always able to quickly get whatever I need taken care of!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Stafford, responded to this reviewResponded May 3, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 3, 2013</t>
+  </si>
+  <si>
+    <t>Overall the hotel is great.  The service and cleanliness aren't always 5 star, but neither is the price, so people should keep that in mind, before bashing the place.  My husband has been living here for 6 months while attending school near by.  He will remain here for his final 3 month, as we have no complaints! We have had a couple MINOR payment issues while staying here, but all it takes is a simple phone call, or trip to the front desk, and to the hotel's manager, Terricka (not sure on spelling), has always taken care of everything!  Some of the long term guests, such as my husband, don't always want the cleaning people in and out all the time since they have ALL their belongings in the room.  The cleaning people respect that.  However, if at any time, even If it is not their scheduled day of the week, we have never had a problem getting his room cleaned when we have asked...I would advise anyone who has or will be staying at this Extended Stay to talk directly to the manager, Terricka (sp?). I haven't ALWAYS had the best luck over the phone with some of the other employees, but as soon as she gets on the phone, I am always able to quickly get whatever I need taken care of!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r159177532-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>159177532</t>
+  </si>
+  <si>
+    <t>04/29/2013</t>
+  </si>
+  <si>
+    <t>Poor at Best!</t>
+  </si>
+  <si>
+    <t>We reached here by cab after landing at Houston Airport (IAH) after a straight 16 hour flight. Tired as hell, we were expecting to get some rest in this hotel, but boy were we in for a ride!
+There was no one to even hold the door, the guy at reception saw us struggling to get our large sized bags through the door, but didn't care to even hold the door for us. The cab driver saw this and he jumped out of the cab to help us. There were no trolleys on which one could keep the luggage and carry it to the room. But this was just tip of the iceberg. Even after seeing all this he gave us a room on the other section of the building and that too on the 2nd floor. 
+I was OK until this point, as my most of my luggage did have wheels. but then the shocker, there were no elevators / escalators to reach on the rooms. So we had to carry the entire luggage (about 100kgs) on the 2nd floor, with no one caring to even help us thru it.
+This was just the beginning, there were no soaps, some of the towels were dirty and we did not have a remote control for the TV for about 3 days, even after requesting it on day one!
+I have already raised this with my employer, who had booked this...We reached here by cab after landing at Houston Airport (IAH) after a straight 16 hour flight. Tired as hell, we were expecting to get some rest in this hotel, but boy were we in for a ride!There was no one to even hold the door, the guy at reception saw us struggling to get our large sized bags through the door, but didn't care to even hold the door for us. The cab driver saw this and he jumped out of the cab to help us. There were no trolleys on which one could keep the luggage and carry it to the room. But this was just tip of the iceberg. Even after seeing all this he gave us a room on the other section of the building and that too on the 2nd floor. I was OK until this point, as my most of my luggage did have wheels. but then the shocker, there were no elevators / escalators to reach on the rooms. So we had to carry the entire luggage (about 100kgs) on the 2nd floor, with no one caring to even help us thru it.This was just the beginning, there were no soaps, some of the towels were dirty and we did not have a remote control for the TV for about 3 days, even after requesting it on day one!I have already raised this with my employer, who had booked this hotel and they'd be looking to get this hotel blacklisted for our other employees.One could get a much better hotel for the amount they charge and the service would be much more friendlier.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Stafford, responded to this reviewResponded May 1, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 1, 2013</t>
+  </si>
+  <si>
+    <t>We reached here by cab after landing at Houston Airport (IAH) after a straight 16 hour flight. Tired as hell, we were expecting to get some rest in this hotel, but boy were we in for a ride!
+There was no one to even hold the door, the guy at reception saw us struggling to get our large sized bags through the door, but didn't care to even hold the door for us. The cab driver saw this and he jumped out of the cab to help us. There were no trolleys on which one could keep the luggage and carry it to the room. But this was just tip of the iceberg. Even after seeing all this he gave us a room on the other section of the building and that too on the 2nd floor. 
+I was OK until this point, as my most of my luggage did have wheels. but then the shocker, there were no elevators / escalators to reach on the rooms. So we had to carry the entire luggage (about 100kgs) on the 2nd floor, with no one caring to even help us thru it.
+This was just the beginning, there were no soaps, some of the towels were dirty and we did not have a remote control for the TV for about 3 days, even after requesting it on day one!
+I have already raised this with my employer, who had booked this...We reached here by cab after landing at Houston Airport (IAH) after a straight 16 hour flight. Tired as hell, we were expecting to get some rest in this hotel, but boy were we in for a ride!There was no one to even hold the door, the guy at reception saw us struggling to get our large sized bags through the door, but didn't care to even hold the door for us. The cab driver saw this and he jumped out of the cab to help us. There were no trolleys on which one could keep the luggage and carry it to the room. But this was just tip of the iceberg. Even after seeing all this he gave us a room on the other section of the building and that too on the 2nd floor. I was OK until this point, as my most of my luggage did have wheels. but then the shocker, there were no elevators / escalators to reach on the rooms. So we had to carry the entire luggage (about 100kgs) on the 2nd floor, with no one caring to even help us thru it.This was just the beginning, there were no soaps, some of the towels were dirty and we did not have a remote control for the TV for about 3 days, even after requesting it on day one!I have already raised this with my employer, who had booked this hotel and they'd be looking to get this hotel blacklisted for our other employees.One could get a much better hotel for the amount they charge and the service would be much more friendlier.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r158792004-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
   </si>
   <si>
@@ -1263,9 +1970,6 @@
 The on site Manager Terriko  is one of the best managers I have seen in my travels , ( and we do alot of traveling ) from the 1st time I talked to her on he phone when booking are rooms I knew I called the right Extended Stay Hotel ,  When I was booking the rooms , they didn't have want we needed a the time , but she made it work for us and the other guys traveling with us.  When we needed  to move to another room , she even offered to help me mover all of  my stuff even with  how busy she is ,Terriko  never stops doing things around here helping the staff and the guest that stays here , I know that is her job but she goes over and above what is called for  .The people at the front desk , Charmaine , Jafet  are awesome also,an Ismael  the maintenance guy very nice , All of the staff I have meet are  so so helpful and kind and are always smiling and when your away from home that is a super plus . This Exteneded stay is A++ in my book . The staff here makes you...This is our third Extended Stay hotel , My Husband is traviling for work and we have been all over the country traveling. I have to say the staff I have meet here are awesome !  The on site Manager Terriko  is one of the best managers I have seen in my travels , ( and we do alot of traveling ) from the 1st time I talked to her on he phone when booking are rooms I knew I called the right Extended Stay Hotel ,  When I was booking the rooms , they didn't have want we needed a the time , but she made it work for us and the other guys traveling with us.  When we needed  to move to another room , she even offered to help me mover all of  my stuff even with  how busy she is ,Terriko  never stops doing things around here helping the staff and the guest that stays here , I know that is her job but she goes over and above what is called for  .The people at the front desk , Charmaine , Jafet  are awesome also,an Ismael  the maintenance guy very nice , All of the staff I have meet are  so so helpful and kind and are always smiling and when your away from home that is a super plus . This Exteneded stay is A++ in my book . The staff here makes you feel like they have known you forever. The location is great ! There is of  lots place to eat in the vicinity . If ever you stay here H.E.B store is awesome and if you need to get your nails or feet  done man or women checkout  Sweetwater Nail &amp; spa !  The place needs a little up dating but with a staff like this, that can be over looked any day!!  Terriko I have to say she knows how to run a hotel and to make peope feel comfortable and happy with there stay !   All the guest here have been super nice !!  This place is like a home way from home .  I have never left one of these before but I just wanted tell everyone how awesome the people are here ! Valinda LiggettMoreShow less</t>
   </si>
   <si>
-    <t>April 2013</t>
-  </si>
-  <si>
     <t>This is our third Extended Stay hotel , My Husband is traviling for work and we have been all over the country traveling. 
 I have to say the staff I have meet here are awesome !  
 The on site Manager Terriko  is one of the best managers I have seen in my travels , ( and we do alot of traveling ) from the 1st time I talked to her on he phone when booking are rooms I knew I called the right Extended Stay Hotel ,  When I was booking the rooms , they didn't have want we needed a the time , but she made it work for us and the other guys traveling with us.  When we needed  to move to another room , she even offered to help me mover all of  my stuff even with  how busy she is ,Terriko  never stops doing things around here helping the staff and the guest that stays here , I know that is her job but she goes over and above what is called for  .The people at the front desk , Charmaine , Jafet  are awesome also,an Ismael  the maintenance guy very nice , All of the staff I have meet are  so so helpful and kind and are always smiling and when your away from home that is a super plus . This Exteneded stay is A++ in my book . The staff here makes you...This is our third Extended Stay hotel , My Husband is traviling for work and we have been all over the country traveling. I have to say the staff I have meet here are awesome !  The on site Manager Terriko  is one of the best managers I have seen in my travels , ( and we do alot of traveling ) from the 1st time I talked to her on he phone when booking are rooms I knew I called the right Extended Stay Hotel ,  When I was booking the rooms , they didn't have want we needed a the time , but she made it work for us and the other guys traveling with us.  When we needed  to move to another room , she even offered to help me mover all of  my stuff even with  how busy she is ,Terriko  never stops doing things around here helping the staff and the guest that stays here , I know that is her job but she goes over and above what is called for  .The people at the front desk , Charmaine , Jafet  are awesome also,an Ismael  the maintenance guy very nice , All of the staff I have meet are  so so helpful and kind and are always smiling and when your away from home that is a super plus . This Exteneded stay is A++ in my book . The staff here makes you feel like they have known you forever. The location is great ! There is of  lots place to eat in the vicinity . If ever you stay here H.E.B store is awesome and if you need to get your nails or feet  done man or women checkout  Sweetwater Nail &amp; spa !  The place needs a little up dating but with a staff like this, that can be over looked any day!!  Terriko I have to say she knows how to run a hotel and to make peope feel comfortable and happy with there stay !   All the guest here have been super nice !!  This place is like a home way from home .  I have never left one of these before but I just wanted tell everyone how awesome the people are here ! Valinda LiggettMore</t>
@@ -1298,6 +2002,57 @@
     <t>My family and I have been displaced due to a fire at our home.  We have been staying in hotels since 1/23/13.  We moved into the Extended Stay America (Stafford) on 3/1/13.  It is truly a home away from home.  Terrico, the onsite manager, was very helpful and instrumental in us acquiring rooms to stay at this location.  She is/has worked with my insurance company on pricing (we have to use two suites because of the size and makeup of my family) and walking my adjuster through the paperwork needed for our stay.  In doing this, Terrico has made our situation a little more bearable and not seem so overwhelming.  If ever I ask her about needing something, she responds immediately.  The housekeeping staff (Mr. Rene and the rest of the crew) is also very helpful and they do a nice job of cleaning our two suites.  The location is so convenient as well.  There are plenty of restaurants as well as grocery stores (Wal-mart, Sam's) in the vicinity.  I would recommend staying at Extended Stay America-Stafford. -- Ms. GriffinMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r158238012-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>158238012</t>
+  </si>
+  <si>
+    <t>04/19/2013</t>
+  </si>
+  <si>
+    <t>All Day... Everyday Extended Stay America Stafford Tx 77477</t>
+  </si>
+  <si>
+    <t>This is my second Extended Stay America reveiw within the city of Metro Houston! I must say nobody or nothing is perfect but does nearnest count? I'm enjoying my stay so much it feels like home! The staff is a glower! The Peacefulness is stellar! I know all the staff by name because they make you want to ask who is this doing such a fine job? Boom... what is your name? I get it Staff-Stafford, they put the staff in Stafford,Lol...! There are other hotels in the vicinity however, I feel I'm at the best one! Mrs,Terriko! You go girl...! When niceness and neatness counts you can depend on these guys truly... I'm not trying to put them on the spot, but try'em, come see for yourself. All their uniforms are always neat,  clean, and tucked in, they're smiling, they listen, they respond, they scurry when it's time to make things right. I could go on but why bother the points been made! Corporate listen to these guys they know how to keep a customerEric Moreland NDTMoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Stafford, responded to this reviewResponded April 24, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 24, 2013</t>
+  </si>
+  <si>
+    <t>This is my second Extended Stay America reveiw within the city of Metro Houston! I must say nobody or nothing is perfect but does nearnest count? I'm enjoying my stay so much it feels like home! The staff is a glower! The Peacefulness is stellar! I know all the staff by name because they make you want to ask who is this doing such a fine job? Boom... what is your name? I get it Staff-Stafford, they put the staff in Stafford,Lol...! There are other hotels in the vicinity however, I feel I'm at the best one! Mrs,Terriko! You go girl...! When niceness and neatness counts you can depend on these guys truly... I'm not trying to put them on the spot, but try'em, come see for yourself. All their uniforms are always neat,  clean, and tucked in, they're smiling, they listen, they respond, they scurry when it's time to make things right. I could go on but why bother the points been made! Corporate listen to these guys they know how to keep a customerEric Moreland NDTMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r151611284-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>151611284</t>
+  </si>
+  <si>
+    <t>02/07/2013</t>
+  </si>
+  <si>
+    <t>Best Service</t>
+  </si>
+  <si>
+    <t>After traveling to 4 countries in 15 day; I decided to stay at Stay America Hotel upon my return to the US.  My staff booked me for 6 day thinking I would be leaving to travel to another city.  After my plans change I was told that I could not extend my stay because they didn’t have any rooms left.  But the manager Ms. Terriko Rachell went out of her way to make sure I was taken care of.  Not only did she extend my stay for 11 days she made sure I kept my room.  I call my staff and told them that our hotels has to be run like this lady runs this one.  I am very impress. Joe..MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Stafford, responded to this reviewResponded February 8, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 8, 2013</t>
+  </si>
+  <si>
+    <t>After traveling to 4 countries in 15 day; I decided to stay at Stay America Hotel upon my return to the US.  My staff booked me for 6 day thinking I would be leaving to travel to another city.  After my plans change I was told that I could not extend my stay because they didn’t have any rooms left.  But the manager Ms. Terriko Rachell went out of her way to make sure I was taken care of.  Not only did she extend my stay for 11 days she made sure I kept my room.  I call my staff and told them that our hotels has to be run like this lady runs this one.  I am very impress. Joe..More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r150509123-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
   </si>
   <si>
@@ -1379,6 +2134,54 @@
     <t>i will recommend familly and freind, freindly, smell clean, it is a perfect place to stay.the location is perfect for  shopping, restaurant, movies and close to the hwy.If you have a sam's club you will save save money it is just next door. you will not worried about wifi. The management 110 excellent.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r148792822-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>148792822</t>
+  </si>
+  <si>
+    <t>01/04/2013</t>
+  </si>
+  <si>
+    <t>Worth EVERY Penny!</t>
+  </si>
+  <si>
+    <t>My wife and I need a place to crash just before we closed on our home right after we got married. The grounds are always clean. Little to no disturbances. Friendly front office staff and most of all, the manager Terrico was absoultely amazing! She responded immediately to our 1 and only issue quickly and efficiently. I am thoroughly satisfied with my visit and recommend anyone that is planning an extended visit to/in Houston to choose the Stafford Extended Stay! Tell Terrico Rick sent you. :-)MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>My wife and I need a place to crash just before we closed on our home right after we got married. The grounds are always clean. Little to no disturbances. Friendly front office staff and most of all, the manager Terrico was absoultely amazing! She responded immediately to our 1 and only issue quickly and efficiently. I am thoroughly satisfied with my visit and recommend anyone that is planning an extended visit to/in Houston to choose the Stafford Extended Stay! Tell Terrico Rick sent you. :-)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r147809686-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>147809686</t>
+  </si>
+  <si>
+    <t>12/20/2012</t>
+  </si>
+  <si>
+    <t>Ocean corporation student</t>
+  </si>
+  <si>
+    <t>Service is great. I ended up having some electrical issues with my card lock door but they were quick to fix it/replace it. Since im a student I got a very good deal that was more affordable than most apartments. Plus I had the Sams Club right nxt door as well as Walmart across the street under the free way. The employees made the hotel far better than i expected. I love the location and the staff is awesome. The rooms r very efficiently made still keeping that feeling of home. but also the feel of vacation.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Stafford, responded to this reviewResponded December 21, 2012</t>
+  </si>
+  <si>
+    <t>Responded December 21, 2012</t>
+  </si>
+  <si>
+    <t>Service is great. I ended up having some electrical issues with my card lock door but they were quick to fix it/replace it. Since im a student I got a very good deal that was more affordable than most apartments. Plus I had the Sams Club right nxt door as well as Walmart across the street under the free way. The employees made the hotel far better than i expected. I love the location and the staff is awesome. The rooms r very efficiently made still keeping that feeling of home. but also the feel of vacation.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r147379194-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
   </si>
   <si>
@@ -1454,6 +2257,57 @@
     <t>I've lived at Extended Stay America for awhile and have had no problems.Our room was very clean and well put together when we moved here.And Terriko(the manager) is extremely helpful and has made our stay here has pleasant as possible.Another staff member,David,is great as well.Both him and Terriko are very friendly.We've really enjoyed our stay here. :) More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r143776055-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>143776055</t>
+  </si>
+  <si>
+    <t>10/26/2012</t>
+  </si>
+  <si>
+    <t>Service with a Smile</t>
+  </si>
+  <si>
+    <t>I found the staff at this location to be Top Notch. The level of professionalism and the accommodating nature is one to be modeled after. The rooms are very well equipped and the amenities are excellent. Between the complimentary breakfast, the fitness center and the laundry facilities all the bases have been covered. The nicely landscaped pool is just the icing on the cake! MoreShow less</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Stafford, responded to this reviewResponded October 28, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 28, 2012</t>
+  </si>
+  <si>
+    <t>I found the staff at this location to be Top Notch. The level of professionalism and the accommodating nature is one to be modeled after. The rooms are very well equipped and the amenities are excellent. Between the complimentary breakfast, the fitness center and the laundry facilities all the bases have been covered. The nicely landscaped pool is just the icing on the cake! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r141684511-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>141684511</t>
+  </si>
+  <si>
+    <t>09/30/2012</t>
+  </si>
+  <si>
+    <t>Great Rooms..Incredible staff..Clean Arean.Good Acc.</t>
+  </si>
+  <si>
+    <t>Overall my stay was great. Terriko Rachell and the rest of the staff were very professional and made me feel very welcomed to be a guest at the hotel. There were minor issues in the room but when brought to the attention of the staff they were very apologetic and quick in resolving the issues. I will definitely be visiting the hotel when around the area. I hope the ENTIRE staff is acknowledged for their great job. Thank you all :)MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Stafford, responded to this reviewResponded October 1, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 1, 2012</t>
+  </si>
+  <si>
+    <t>Overall my stay was great. Terriko Rachell and the rest of the staff were very professional and made me feel very welcomed to be a guest at the hotel. There were minor issues in the room but when brought to the attention of the staff they were very apologetic and quick in resolving the issues. I will definitely be visiting the hotel when around the area. I hope the ENTIRE staff is acknowledged for their great job. Thank you all :)More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r141268890-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
   </si>
   <si>
@@ -1469,9 +2323,6 @@
     <t>I have stayed at this hotel for a while and have found the people to be mostly pleasant and helpful.  The outside is kept clean and the trash emptied.  Rooms are okay in general, and the pool is nice.  All in all a good experience.  Good access to restaurants and shopping.MoreShow less</t>
   </si>
   <si>
-    <t>August 2012</t>
-  </si>
-  <si>
     <t>Manager_11525, General Manager at Extended Stay America - Houston - Stafford, responded to this reviewResponded September 27, 2012</t>
   </si>
   <si>
@@ -1493,9 +2344,6 @@
     <t>I've been at the hotel for approximately 25 days. It's conveniently located close to several restaurants, shopping centers, convenience stores/gas and leisure places. They have flat screen TV, refridgerators, stove, dishwasher and plates/pots/pans/silverware. All the features of home are available. The employees are nice/courteous and the grounds are very clean. I have absolutely no complaints. And laundry facility is new, water is hot and dryers are outstanding.MoreShow less</t>
   </si>
   <si>
-    <t>September 2012</t>
-  </si>
-  <si>
     <t>I've been at the hotel for approximately 25 days. It's conveniently located close to several restaurants, shopping centers, convenience stores/gas and leisure places. They have flat screen TV, refridgerators, stove, dishwasher and plates/pots/pans/silverware. All the features of home are available. The employees are nice/courteous and the grounds are very clean. I have absolutely no complaints. And laundry facility is new, water is hot and dryers are outstanding.More</t>
   </si>
   <si>
@@ -1523,27 +2371,66 @@
     <t>The staff as a whole represents your company very well. The housekeeping staff has been very thorough. The grounds stay cleaned up, trash cans are always emptied in a timely manner. Terrika, Mariska, David and Jordan have gone out of thier way to make sure my stay has been carefree and enjoyable!!! TWO THUMBS UP. I will gladly recommend this hotel to my family and friends!!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r138422077-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>138422077</t>
+  </si>
+  <si>
+    <t>08/26/2012</t>
+  </si>
+  <si>
+    <t>This hotel need reconstructions and maintenance</t>
+  </si>
+  <si>
+    <t>This hotel is not clean the room furniture is very old  it terrible to sleep in it and the rooms doors is located directly to the outside and this hotel have two separate building and I am stay in it just 12 hours and fleet the only one thing is positive is the pool . MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Stafford, responded to this reviewResponded August 29, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 29, 2012</t>
+  </si>
+  <si>
+    <t>This hotel is not clean the room furniture is very old  it terrible to sleep in it and the rooms doors is located directly to the outside and this hotel have two separate building and I am stay in it just 12 hours and fleet the only one thing is positive is the pool . More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r134569079-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>134569079</t>
+  </si>
+  <si>
+    <t>07/16/2012</t>
+  </si>
+  <si>
+    <t>hotel property</t>
+  </si>
+  <si>
+    <t>nice and well kept and quiet great pool area food place really close to the area mall down the street sams and walmart walking distanceMoreShow less</t>
+  </si>
+  <si>
+    <t>ChristopherTM, Manager at Extended Stay America - Houston - Stafford, responded to this reviewResponded July 19, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 19, 2012</t>
+  </si>
+  <si>
+    <t>nice and well kept and quiet great pool area food place really close to the area mall down the street sams and walmart walking distanceMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r134563129-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
   </si>
   <si>
     <t>134563129</t>
   </si>
   <si>
-    <t>07/16/2012</t>
-  </si>
-  <si>
     <t>Perfection</t>
   </si>
   <si>
     <t>front desk person Jordan was veryhelpful and was extremely proffesional. Housekeeping was very friendly and enjoyed my stay. I would recommend this hotel to anyone. And to top it all off their prices are right!MoreShow less</t>
   </si>
   <si>
-    <t>ChristopherTM, Manager at Extended Stay America - Houston - Stafford, responded to this reviewResponded July 19, 2012</t>
-  </si>
-  <si>
-    <t>Responded July 19, 2012</t>
-  </si>
-  <si>
     <t>front desk person Jordan was veryhelpful and was extremely proffesional. Housekeeping was very friendly and enjoyed my stay. I would recommend this hotel to anyone. And to top it all off their prices are right!More</t>
   </si>
   <si>
@@ -1578,6 +2465,42 @@
   </si>
   <si>
     <t>March 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r124356799-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>124356799</t>
+  </si>
+  <si>
+    <t>02/09/2012</t>
+  </si>
+  <si>
+    <t>I would definitely suggest this place if you have kids and want to feel safe.</t>
+  </si>
+  <si>
+    <t>Very quiet and there is no inwanted traffic here. The place is updated and very well taken care of. Staff is very polite and helpful. Price is good and worth every penny. A for grade</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r22793830-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
+  </si>
+  <si>
+    <t>22793830</t>
+  </si>
+  <si>
+    <t>12/17/2008</t>
+  </si>
+  <si>
+    <t>cheap but you get what you pay for</t>
+  </si>
+  <si>
+    <t>booked a non smoking room which when we arrived was not available. then they "founf" one but it literally stunk of smoke.'Reserved a king size bed again not avilable.there is no room service unless you ask for it and pay an additional $3. (not bad).Double window broken. Not very clean.As to the front desk there is no service to speak of. I understand that there is some manager somewhere but never to be seen. He or she calls in periodically. What a way to run a business.I requested to move to a non smoking room so the kids in the front promised to leave a note for someone but of course we didn't hear from anyone.In the room there is a phone with no directoins of how to reach the front desk.All in all a poor hotel, though spacious.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2008</t>
+  </si>
+  <si>
+    <t>booked a non smoking room which when we arrived was not available. then they "founf" one but it literally stunk of smoke.'Reserved a king size bed again not avilable.there is no room service unless you ask for it and pay an additional $3. (not bad).Double window broken. Not very clean.As to the front desk there is no service to speak of. I understand that there is some manager somewhere but never to be seen. He or she calls in periodically. What a way to run a business.I requested to move to a non smoking room so the kids in the front promised to leave a note for someone but of course we didn't hear from anyone.In the room there is a phone with no directoins of how to reach the front desk.All in all a poor hotel, though spacious.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56707-d225963-r4159347-Extended_Stay_America_Houston_Stafford-Stafford_Texas.html</t>
@@ -2157,7 +3080,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -2165,17 +3088,17 @@
       <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="P2" t="s"/>
-      <c r="Q2" t="n">
-        <v>5</v>
-      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -2233,11 +3156,17 @@
         <v>63</v>
       </c>
       <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
@@ -2288,28 +3217,34 @@
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="O4" t="s">
         <v>53</v>
       </c>
       <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
       <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="X4" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="Y4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
@@ -2325,7 +3260,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -2334,47 +3269,43 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="O5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
-      <c r="R5" t="n">
-        <v>5</v>
-      </c>
+      <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>3</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="X5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="Y5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
@@ -2390,7 +3321,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -2399,53 +3330,43 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K6" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="O6" t="s">
         <v>53</v>
       </c>
-      <c r="P6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1</v>
-      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>1</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="X6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Y6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7">
@@ -2461,7 +3382,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -2470,25 +3391,25 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="O7" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2500,13 +3421,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="X7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Y7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8">
@@ -2522,7 +3443,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -2531,42 +3452,32 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>105</v>
+        <v>52</v>
       </c>
       <c r="O8" t="s">
-        <v>106</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2</v>
-      </c>
-      <c r="R8" t="n">
-        <v>4</v>
-      </c>
-      <c r="S8" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>3</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
@@ -2620,35 +3531,29 @@
         <v>115</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>3</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
       <c r="R9" t="n">
         <v>5</v>
       </c>
-      <c r="S9" t="n">
-        <v>4</v>
-      </c>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="X9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Y9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10">
@@ -2664,7 +3569,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -2673,53 +3578,53 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="O10" t="s">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="P10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="X10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Y10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11">
@@ -2735,7 +3640,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -2744,42 +3649,32 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
-      </c>
-      <c r="P11" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>5</v>
-      </c>
-      <c r="R11" t="n">
-        <v>5</v>
-      </c>
-      <c r="S11" t="n">
-        <v>5</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>5</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
@@ -2827,7 +3722,7 @@
         <v>141</v>
       </c>
       <c r="M12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N12" t="s">
         <v>142</v>
@@ -2836,16 +3731,16 @@
         <v>53</v>
       </c>
       <c r="P12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R12" t="n">
         <v>5</v>
       </c>
       <c r="S12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
@@ -2898,30 +3793,20 @@
         <v>150</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N13" t="s">
         <v>151</v>
       </c>
       <c r="O13" t="s">
-        <v>79</v>
-      </c>
-      <c r="P13" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>5</v>
-      </c>
-      <c r="R13" t="n">
-        <v>5</v>
-      </c>
-      <c r="S13" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>5</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
@@ -2969,41 +3854,41 @@
         <v>159</v>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="P14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
+        <v>160</v>
+      </c>
+      <c r="X14" t="s">
         <v>161</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>162</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="15">
@@ -3019,37 +3904,37 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
+        <v>163</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
         <v>164</v>
       </c>
-      <c r="G15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>165</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>166</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>167</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
         <v>168</v>
       </c>
-      <c r="M15" t="n">
-        <v>4</v>
-      </c>
-      <c r="N15" t="s">
-        <v>169</v>
-      </c>
       <c r="O15" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="P15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q15" t="n">
         <v>3</v>
@@ -3062,19 +3947,19 @@
       </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
+        <v>169</v>
+      </c>
+      <c r="X15" t="s">
         <v>170</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>171</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="16">
@@ -3090,46 +3975,46 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
+        <v>172</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
         <v>173</v>
       </c>
-      <c r="G16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>174</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>175</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>176</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>168</v>
+      </c>
+      <c r="O16" t="s">
         <v>177</v>
       </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="s">
-        <v>160</v>
-      </c>
-      <c r="O16" t="s">
-        <v>53</v>
-      </c>
       <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="n">
         <v>2</v>
       </c>
-      <c r="Q16" t="n">
-        <v>1</v>
-      </c>
-      <c r="R16" t="n">
-        <v>3</v>
-      </c>
       <c r="S16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
@@ -3185,38 +4070,28 @@
         <v>3</v>
       </c>
       <c r="N17" t="s">
+        <v>62</v>
+      </c>
+      <c r="O17" t="s">
+        <v>116</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
         <v>186</v>
       </c>
-      <c r="O17" t="s">
-        <v>63</v>
-      </c>
-      <c r="P17" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>4</v>
-      </c>
-      <c r="R17" t="n">
-        <v>4</v>
-      </c>
-      <c r="S17" t="n">
-        <v>4</v>
-      </c>
-      <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>4</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="s">
+      <c r="X17" t="s">
         <v>187</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>188</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="18">
@@ -3232,62 +4107,62 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
+        <v>189</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
         <v>190</v>
       </c>
-      <c r="G18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>191</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>192</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>193</v>
       </c>
-      <c r="L18" t="s">
-        <v>194</v>
-      </c>
       <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>62</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="n">
         <v>3</v>
       </c>
-      <c r="N18" t="s">
-        <v>186</v>
-      </c>
-      <c r="O18" t="s">
-        <v>106</v>
-      </c>
-      <c r="P18" t="n">
-        <v>4</v>
-      </c>
       <c r="Q18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R18" t="n">
         <v>4</v>
       </c>
       <c r="S18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
+        <v>194</v>
+      </c>
+      <c r="X18" t="s">
         <v>195</v>
       </c>
-      <c r="X18" t="s">
+      <c r="Y18" t="s">
         <v>196</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="19">
@@ -3303,31 +4178,31 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
+        <v>197</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
         <v>198</v>
       </c>
-      <c r="G19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
+        <v>191</v>
+      </c>
+      <c r="K19" t="s">
         <v>199</v>
       </c>
-      <c r="J19" t="s">
+      <c r="L19" t="s">
         <v>200</v>
       </c>
-      <c r="K19" t="s">
-        <v>201</v>
-      </c>
-      <c r="L19" t="s">
-        <v>202</v>
-      </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>160</v>
+        <v>62</v>
       </c>
       <c r="O19" t="s">
         <v>53</v>
@@ -3352,13 +4227,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
+        <v>201</v>
+      </c>
+      <c r="X19" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y19" t="s">
         <v>203</v>
-      </c>
-      <c r="X19" t="s">
-        <v>204</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="20">
@@ -3374,34 +4249,34 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
+        <v>204</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>205</v>
+      </c>
+      <c r="J20" t="s">
         <v>206</v>
       </c>
-      <c r="G20" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="K20" t="s">
         <v>207</v>
       </c>
-      <c r="J20" t="s">
+      <c r="L20" t="s">
         <v>208</v>
       </c>
-      <c r="K20" t="s">
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
         <v>209</v>
       </c>
-      <c r="L20" t="s">
-        <v>210</v>
-      </c>
-      <c r="M20" t="n">
-        <v>5</v>
-      </c>
-      <c r="N20" t="s">
-        <v>186</v>
-      </c>
       <c r="O20" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -3423,13 +4298,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
+        <v>210</v>
+      </c>
+      <c r="X20" t="s">
         <v>211</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Y20" t="s">
         <v>212</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="21">
@@ -3445,52 +4320,62 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
+        <v>213</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
         <v>214</v>
       </c>
-      <c r="G21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" t="s">
-        <v>47</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>215</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>216</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>217</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
         <v>218</v>
       </c>
-      <c r="M21" t="n">
-        <v>2</v>
-      </c>
-      <c r="N21" t="s">
-        <v>219</v>
-      </c>
       <c r="O21" t="s">
-        <v>106</v>
-      </c>
-      <c r="P21" t="s"/>
-      <c r="Q21" t="s"/>
+        <v>116</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
       <c r="R21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S21" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
+      <c r="W21" t="s">
+        <v>219</v>
+      </c>
+      <c r="X21" t="s">
+        <v>220</v>
+      </c>
       <c r="Y21" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22">
@@ -3506,7 +4391,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -3515,45 +4400,53 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J22" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K22" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L22" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>116</v>
       </c>
       <c r="P22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q22" t="n">
-        <v>2</v>
-      </c>
-      <c r="R22" t="s"/>
-      <c r="S22" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s"/>
-      <c r="X22" t="s"/>
+      <c r="W22" t="s">
+        <v>227</v>
+      </c>
+      <c r="X22" t="s">
+        <v>228</v>
+      </c>
       <c r="Y22" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23">
@@ -3569,7 +4462,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -3578,39 +4471,53 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="J23" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="K23" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="L23" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="O23" t="s">
-        <v>79</v>
-      </c>
-      <c r="P23" t="s"/>
-      <c r="Q23" t="s"/>
-      <c r="R23" t="s"/>
-      <c r="S23" t="s"/>
+        <v>116</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3</v>
+      </c>
       <c r="T23" t="s"/>
-      <c r="U23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
+      <c r="W23" t="s">
+        <v>236</v>
+      </c>
+      <c r="X23" t="s">
+        <v>237</v>
+      </c>
       <c r="Y23" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="24">
@@ -3626,7 +4533,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -3635,39 +4542,53 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
+        <v>240</v>
+      </c>
+      <c r="J24" t="s">
+        <v>241</v>
+      </c>
+      <c r="K24" t="s">
+        <v>242</v>
+      </c>
+      <c r="L24" t="s">
+        <v>243</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
         <v>235</v>
-      </c>
-      <c r="J24" t="s">
-        <v>236</v>
-      </c>
-      <c r="K24" t="s">
-        <v>237</v>
-      </c>
-      <c r="L24" t="s">
-        <v>238</v>
-      </c>
-      <c r="M24" t="n">
-        <v>2</v>
-      </c>
-      <c r="N24" t="s">
-        <v>239</v>
       </c>
       <c r="O24" t="s">
         <v>53</v>
       </c>
-      <c r="P24" t="s"/>
-      <c r="Q24" t="s"/>
-      <c r="R24" t="s"/>
-      <c r="S24" t="s"/>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
       <c r="T24" t="s"/>
-      <c r="U24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
+      <c r="W24" t="s">
+        <v>244</v>
+      </c>
+      <c r="X24" t="s">
+        <v>245</v>
+      </c>
       <c r="Y24" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="25">
@@ -3683,7 +4604,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -3692,39 +4613,53 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="J25" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="K25" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="L25" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="O25" t="s">
-        <v>124</v>
-      </c>
-      <c r="P25" t="s"/>
-      <c r="Q25" t="s"/>
-      <c r="R25" t="s"/>
-      <c r="S25" t="s"/>
+        <v>116</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
       <c r="T25" t="s"/>
-      <c r="U25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s"/>
-      <c r="X25" t="s"/>
+      <c r="W25" t="s">
+        <v>253</v>
+      </c>
+      <c r="X25" t="s">
+        <v>254</v>
+      </c>
       <c r="Y25" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
     </row>
     <row r="26">
@@ -3740,7 +4675,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3749,45 +4684,53 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="J26" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="K26" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="L26" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="O26" t="s">
-        <v>79</v>
-      </c>
-      <c r="P26" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2</v>
+      </c>
       <c r="Q26" t="n">
         <v>1</v>
       </c>
       <c r="R26" t="n">
         <v>3</v>
       </c>
-      <c r="S26" t="s"/>
+      <c r="S26" t="n">
+        <v>1</v>
+      </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s"/>
-      <c r="X26" t="s"/>
+      <c r="W26" t="s">
+        <v>261</v>
+      </c>
+      <c r="X26" t="s">
+        <v>262</v>
+      </c>
       <c r="Y26" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27">
@@ -3803,7 +4746,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3812,45 +4755,53 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="J27" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="K27" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="L27" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="O27" t="s">
-        <v>106</v>
-      </c>
-      <c r="P27" t="s"/>
-      <c r="Q27" t="s"/>
+        <v>116</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
       <c r="R27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
+      <c r="W27" t="s">
+        <v>270</v>
+      </c>
+      <c r="X27" t="s">
+        <v>271</v>
+      </c>
       <c r="Y27" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
     </row>
     <row r="28">
@@ -3866,7 +4817,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3875,47 +4826,53 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="J28" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="K28" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="L28" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="M28" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="O28" t="s">
-        <v>106</v>
-      </c>
-      <c r="P28" t="s"/>
+        <v>116</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
       <c r="Q28" t="n">
-        <v>1</v>
-      </c>
-      <c r="R28" t="s"/>
-      <c r="S28" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="X28" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="Y28" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
     </row>
     <row r="29">
@@ -3931,7 +4888,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3940,33 +4897,37 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="J29" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="K29" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="L29" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="M29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="O29" t="s">
-        <v>79</v>
-      </c>
-      <c r="P29" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
       <c r="Q29" t="n">
-        <v>2</v>
-      </c>
-      <c r="R29" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
       <c r="S29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
@@ -3975,10 +4936,14 @@
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s"/>
-      <c r="X29" t="s"/>
+      <c r="W29" t="s">
+        <v>287</v>
+      </c>
+      <c r="X29" t="s">
+        <v>288</v>
+      </c>
       <c r="Y29" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
     </row>
     <row r="30">
@@ -3994,7 +4959,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -4003,45 +4968,53 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="J30" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="K30" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="L30" t="s">
+        <v>294</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
         <v>278</v>
       </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="s">
-        <v>279</v>
-      </c>
       <c r="O30" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="P30" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q30" t="s"/>
-      <c r="R30" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>3</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
       <c r="S30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s"/>
-      <c r="X30" t="s"/>
+      <c r="W30" t="s">
+        <v>295</v>
+      </c>
+      <c r="X30" t="s">
+        <v>296</v>
+      </c>
       <c r="Y30" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
     </row>
     <row r="31">
@@ -4057,7 +5030,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -4066,45 +5039,53 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="J31" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="K31" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="L31" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="M31" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>286</v>
+        <v>235</v>
       </c>
       <c r="O31" t="s">
-        <v>79</v>
-      </c>
-      <c r="P31" t="s"/>
-      <c r="Q31" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
       <c r="R31" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S31" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s"/>
-      <c r="X31" t="s"/>
+      <c r="W31" t="s">
+        <v>303</v>
+      </c>
+      <c r="X31" t="s">
+        <v>304</v>
+      </c>
       <c r="Y31" t="s">
-        <v>287</v>
+        <v>305</v>
       </c>
     </row>
     <row r="32">
@@ -4120,7 +5101,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -4129,45 +5110,53 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="J32" t="s">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="K32" t="s">
-        <v>291</v>
+        <v>309</v>
       </c>
       <c r="L32" t="s">
-        <v>292</v>
+        <v>310</v>
       </c>
       <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>278</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="n">
         <v>1</v>
       </c>
-      <c r="N32" t="s"/>
-      <c r="O32" t="s"/>
-      <c r="P32" t="n">
-        <v>3</v>
-      </c>
       <c r="Q32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S32" t="n">
         <v>2</v>
       </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s"/>
-      <c r="X32" t="s"/>
+      <c r="W32" t="s">
+        <v>311</v>
+      </c>
+      <c r="X32" t="s">
+        <v>312</v>
+      </c>
       <c r="Y32" t="s">
-        <v>292</v>
+        <v>313</v>
       </c>
     </row>
     <row r="33">
@@ -4183,7 +5172,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>293</v>
+        <v>314</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -4192,33 +5181,37 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="J33" t="s">
-        <v>295</v>
+        <v>316</v>
       </c>
       <c r="K33" t="s">
-        <v>296</v>
+        <v>317</v>
       </c>
       <c r="L33" t="s">
-        <v>297</v>
+        <v>318</v>
       </c>
       <c r="M33" t="n">
-        <v>3</v>
-      </c>
-      <c r="N33" t="s"/>
-      <c r="O33" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>278</v>
+      </c>
+      <c r="O33" t="s">
+        <v>116</v>
+      </c>
       <c r="P33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R33" t="n">
         <v>5</v>
       </c>
       <c r="S33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
@@ -4227,10 +5220,14 @@
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s"/>
-      <c r="X33" t="s"/>
+      <c r="W33" t="s">
+        <v>319</v>
+      </c>
+      <c r="X33" t="s">
+        <v>320</v>
+      </c>
       <c r="Y33" t="s">
-        <v>298</v>
+        <v>321</v>
       </c>
     </row>
     <row r="34">
@@ -4246,7 +5243,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>299</v>
+        <v>322</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -4255,39 +5252,53 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>300</v>
+        <v>323</v>
       </c>
       <c r="J34" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="K34" t="s">
-        <v>302</v>
+        <v>324</v>
       </c>
       <c r="L34" t="s">
-        <v>303</v>
+        <v>325</v>
       </c>
       <c r="M34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c r="O34" t="s">
-        <v>79</v>
-      </c>
-      <c r="P34" t="s"/>
-      <c r="Q34" t="s"/>
-      <c r="R34" t="s"/>
-      <c r="S34" t="s"/>
+        <v>116</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
       <c r="T34" t="s"/>
-      <c r="U34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s"/>
-      <c r="X34" t="s"/>
+      <c r="W34" t="s">
+        <v>319</v>
+      </c>
+      <c r="X34" t="s">
+        <v>320</v>
+      </c>
       <c r="Y34" t="s">
-        <v>305</v>
+        <v>326</v>
       </c>
     </row>
     <row r="35">
@@ -4303,7 +5314,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>306</v>
+        <v>327</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -4312,41 +5323,35 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="J35" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="K35" t="s">
-        <v>309</v>
+        <v>330</v>
       </c>
       <c r="L35" t="s">
-        <v>310</v>
+        <v>331</v>
       </c>
       <c r="M35" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" t="s">
+        <v>332</v>
+      </c>
+      <c r="O35" t="s">
+        <v>63</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="n">
         <v>3</v>
       </c>
-      <c r="N35" t="s">
-        <v>311</v>
-      </c>
-      <c r="O35" t="s">
-        <v>79</v>
-      </c>
-      <c r="P35" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>3</v>
-      </c>
-      <c r="R35" t="n">
-        <v>4</v>
-      </c>
-      <c r="S35" t="n">
-        <v>2</v>
-      </c>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -4354,7 +5359,7 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>312</v>
+        <v>333</v>
       </c>
     </row>
     <row r="36">
@@ -4370,7 +5375,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>313</v>
+        <v>334</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -4379,38 +5384,34 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>314</v>
+        <v>335</v>
       </c>
       <c r="J36" t="s">
-        <v>315</v>
+        <v>336</v>
       </c>
       <c r="K36" t="s">
-        <v>316</v>
+        <v>337</v>
       </c>
       <c r="L36" t="s">
-        <v>317</v>
+        <v>338</v>
       </c>
       <c r="M36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>311</v>
+        <v>339</v>
       </c>
       <c r="O36" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="P36" t="n">
         <v>1</v>
       </c>
       <c r="Q36" t="n">
-        <v>1</v>
-      </c>
-      <c r="R36" t="n">
-        <v>3</v>
-      </c>
-      <c r="S36" t="n">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
         <v>1</v>
@@ -4418,14 +5419,10 @@
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s">
-        <v>318</v>
-      </c>
-      <c r="X36" t="s">
-        <v>319</v>
-      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>320</v>
+        <v>338</v>
       </c>
     </row>
     <row r="37">
@@ -4441,7 +5438,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -4450,38 +5447,32 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>322</v>
+        <v>341</v>
       </c>
       <c r="J37" t="s">
-        <v>323</v>
+        <v>342</v>
       </c>
       <c r="K37" t="s">
-        <v>324</v>
+        <v>343</v>
       </c>
       <c r="L37" t="s">
-        <v>325</v>
+        <v>344</v>
       </c>
       <c r="M37" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>326</v>
+        <v>345</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
-      </c>
-      <c r="P37" t="n">
-        <v>1</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="P37" t="s"/>
       <c r="Q37" t="n">
-        <v>1</v>
-      </c>
-      <c r="R37" t="n">
-        <v>3</v>
-      </c>
-      <c r="S37" t="n">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
         <v>3</v>
@@ -4489,10 +5480,14 @@
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s"/>
-      <c r="X37" t="s"/>
+      <c r="W37" t="s">
+        <v>346</v>
+      </c>
+      <c r="X37" t="s">
+        <v>347</v>
+      </c>
       <c r="Y37" t="s">
-        <v>325</v>
+        <v>348</v>
       </c>
     </row>
     <row r="38">
@@ -4508,7 +5503,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>327</v>
+        <v>349</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -4517,53 +5512,39 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>328</v>
+        <v>350</v>
       </c>
       <c r="J38" t="s">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="K38" t="s">
-        <v>330</v>
+        <v>352</v>
       </c>
       <c r="L38" t="s">
-        <v>331</v>
+        <v>353</v>
       </c>
       <c r="M38" t="n">
         <v>3</v>
       </c>
       <c r="N38" t="s">
-        <v>326</v>
+        <v>354</v>
       </c>
       <c r="O38" t="s">
-        <v>79</v>
-      </c>
-      <c r="P38" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>2</v>
-      </c>
-      <c r="R38" t="n">
-        <v>4</v>
-      </c>
-      <c r="S38" t="n">
-        <v>3</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
-      <c r="U38" t="n">
-        <v>4</v>
-      </c>
+      <c r="U38" t="s"/>
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s">
-        <v>332</v>
-      </c>
-      <c r="X38" t="s">
-        <v>333</v>
-      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>334</v>
+        <v>353</v>
       </c>
     </row>
     <row r="39">
@@ -4579,7 +5560,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -4588,53 +5569,39 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="J39" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="K39" t="s">
-        <v>338</v>
+        <v>358</v>
       </c>
       <c r="L39" t="s">
-        <v>339</v>
+        <v>359</v>
       </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
-      </c>
-      <c r="P39" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>3</v>
-      </c>
-      <c r="R39" t="n">
-        <v>3</v>
-      </c>
-      <c r="S39" t="n">
-        <v>3</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
-      <c r="U39" t="n">
-        <v>3</v>
-      </c>
+      <c r="U39" t="s"/>
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s">
-        <v>341</v>
-      </c>
-      <c r="X39" t="s">
-        <v>342</v>
-      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>343</v>
+        <v>361</v>
       </c>
     </row>
     <row r="40">
@@ -4650,7 +5617,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>344</v>
+        <v>362</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4659,49 +5626,39 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>345</v>
+        <v>363</v>
       </c>
       <c r="J40" t="s">
-        <v>346</v>
+        <v>364</v>
       </c>
       <c r="K40" t="s">
-        <v>347</v>
+        <v>365</v>
       </c>
       <c r="L40" t="s">
-        <v>348</v>
+        <v>366</v>
       </c>
       <c r="M40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N40" t="s">
-        <v>340</v>
+        <v>367</v>
       </c>
       <c r="O40" t="s">
-        <v>79</v>
-      </c>
-      <c r="P40" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>3</v>
-      </c>
-      <c r="R40" t="n">
-        <v>4</v>
-      </c>
-      <c r="S40" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
-      <c r="U40" t="n">
-        <v>3</v>
-      </c>
+      <c r="U40" t="s"/>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>349</v>
+        <v>368</v>
       </c>
     </row>
     <row r="41">
@@ -4717,7 +5674,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4726,53 +5683,39 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="J41" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="K41" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="L41" t="s">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="M41" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
-      </c>
-      <c r="P41" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>5</v>
-      </c>
-      <c r="R41" t="n">
-        <v>5</v>
-      </c>
-      <c r="S41" t="n">
-        <v>4</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
       <c r="T41" t="s"/>
-      <c r="U41" t="n">
-        <v>5</v>
-      </c>
+      <c r="U41" t="s"/>
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s">
-        <v>356</v>
-      </c>
-      <c r="X41" t="s">
-        <v>357</v>
-      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
     </row>
     <row r="42">
@@ -4788,7 +5731,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4797,49 +5740,39 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="J42" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="K42" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="L42" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="M42" t="n">
-        <v>5</v>
-      </c>
-      <c r="N42" t="s"/>
-      <c r="O42" t="s"/>
-      <c r="P42" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>5</v>
-      </c>
-      <c r="R42" t="n">
-        <v>5</v>
-      </c>
-      <c r="S42" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N42" t="s">
+        <v>345</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
-      <c r="U42" t="n">
-        <v>5</v>
-      </c>
+      <c r="U42" t="s"/>
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s">
-        <v>364</v>
-      </c>
-      <c r="X42" t="s">
-        <v>365</v>
-      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
     </row>
     <row r="43">
@@ -4855,7 +5788,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4864,49 +5797,43 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="J43" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="K43" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="L43" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="M43" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>372</v>
+        <v>345</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
-      </c>
-      <c r="P43" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>1</v>
-      </c>
-      <c r="R43" t="n">
-        <v>2</v>
-      </c>
-      <c r="S43" t="n">
-        <v>1</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
       <c r="T43" t="s"/>
-      <c r="U43" t="n">
-        <v>1</v>
-      </c>
+      <c r="U43" t="s"/>
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s"/>
-      <c r="X43" t="s"/>
+      <c r="W43" t="s">
+        <v>386</v>
+      </c>
+      <c r="X43" t="s">
+        <v>387</v>
+      </c>
       <c r="Y43" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
     </row>
     <row r="44">
@@ -4922,7 +5849,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4931,49 +5858,45 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="J44" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="K44" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="L44" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="M44" t="n">
-        <v>4</v>
-      </c>
-      <c r="N44" t="s"/>
-      <c r="O44" t="s"/>
-      <c r="P44" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N44" t="s">
+        <v>345</v>
+      </c>
+      <c r="O44" t="s">
+        <v>116</v>
+      </c>
+      <c r="P44" t="s"/>
       <c r="Q44" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R44" t="n">
-        <v>5</v>
-      </c>
-      <c r="S44" t="n">
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S44" t="s"/>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s">
-        <v>379</v>
-      </c>
-      <c r="X44" t="s">
-        <v>380</v>
-      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
     </row>
     <row r="45">
@@ -4989,7 +5912,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4998,53 +5921,45 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="J45" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="K45" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="L45" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="M45" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="O45" t="s">
-        <v>124</v>
-      </c>
-      <c r="P45" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>3</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
       <c r="R45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S45" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s">
-        <v>388</v>
-      </c>
-      <c r="X45" t="s">
-        <v>389</v>
-      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
     </row>
     <row r="46">
@@ -5060,7 +5975,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -5069,38 +5984,32 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="J46" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="K46" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="L46" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
       <c r="N46" t="s">
-        <v>387</v>
+        <v>405</v>
       </c>
       <c r="O46" t="s">
-        <v>79</v>
-      </c>
-      <c r="P46" t="n">
-        <v>1</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P46" t="s"/>
       <c r="Q46" t="n">
         <v>1</v>
       </c>
-      <c r="R46" t="n">
-        <v>4</v>
-      </c>
-      <c r="S46" t="n">
-        <v>1</v>
-      </c>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
         <v>1</v>
@@ -5109,13 +6018,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="X46" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="Y46" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
     </row>
     <row r="47">
@@ -5131,7 +6040,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -5140,49 +6049,43 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="J47" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="K47" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="L47" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="M47" t="n">
         <v>3</v>
       </c>
-      <c r="N47" t="s"/>
-      <c r="O47" t="s"/>
-      <c r="P47" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>3</v>
-      </c>
+      <c r="N47" t="s">
+        <v>414</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
       <c r="R47" t="n">
-        <v>4</v>
-      </c>
-      <c r="S47" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S47" t="s"/>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
-      <c r="W47" t="s">
-        <v>404</v>
-      </c>
-      <c r="X47" t="s">
-        <v>405</v>
-      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
     </row>
     <row r="48">
@@ -5198,7 +6101,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -5207,53 +6110,45 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="J48" t="s">
-        <v>401</v>
+        <v>417</v>
       </c>
       <c r="K48" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="L48" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="M48" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N48" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="O48" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="P48" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>5</v>
-      </c>
-      <c r="R48" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
       <c r="S48" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
       </c>
-      <c r="W48" t="s">
-        <v>404</v>
-      </c>
-      <c r="X48" t="s">
-        <v>405</v>
-      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
     </row>
     <row r="49">
@@ -5269,7 +6164,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -5278,37 +6173,33 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="J49" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="K49" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="L49" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="M49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N49" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
-      </c>
-      <c r="P49" t="n">
-        <v>5</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="P49" t="s"/>
       <c r="Q49" t="n">
-        <v>4</v>
-      </c>
-      <c r="R49" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="R49" t="s"/>
       <c r="S49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
@@ -5317,14 +6208,10 @@
       <c r="V49" t="n">
         <v>0</v>
       </c>
-      <c r="W49" t="s">
-        <v>419</v>
-      </c>
-      <c r="X49" t="s">
-        <v>420</v>
-      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="50">
@@ -5340,7 +6227,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="G50" t="s">
         <v>46</v>
@@ -5349,53 +6236,45 @@
         <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="J50" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="K50" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="L50" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="M50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N50" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="O50" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="P50" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>2</v>
-      </c>
-      <c r="R50" t="n">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
       <c r="S50" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
       </c>
-      <c r="W50" t="s">
-        <v>428</v>
-      </c>
-      <c r="X50" t="s">
-        <v>429</v>
-      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="51">
@@ -5411,7 +6290,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -5420,51 +6299,43 @@
         <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="J51" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="K51" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="L51" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="M51" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N51" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="O51" t="s">
-        <v>79</v>
-      </c>
-      <c r="P51" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>5</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
       <c r="R51" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S51" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
       </c>
-      <c r="W51" t="s">
-        <v>437</v>
-      </c>
-      <c r="X51" t="s">
-        <v>438</v>
-      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
       <c r="Y51" t="s">
         <v>439</v>
       </c>
@@ -5503,25 +6374,21 @@
         <v>444</v>
       </c>
       <c r="M52" t="n">
-        <v>5</v>
-      </c>
-      <c r="N52" t="s">
-        <v>445</v>
-      </c>
-      <c r="O52" t="s">
-        <v>63</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N52" t="s"/>
+      <c r="O52" t="s"/>
       <c r="P52" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q52" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R52" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S52" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
@@ -5530,14 +6397,10 @@
       <c r="V52" t="n">
         <v>0</v>
       </c>
-      <c r="W52" t="s">
-        <v>446</v>
-      </c>
-      <c r="X52" t="s">
-        <v>447</v>
-      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="53">
@@ -5553,58 +6416,54 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
+        <v>445</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>446</v>
+      </c>
+      <c r="J53" t="s">
+        <v>447</v>
+      </c>
+      <c r="K53" t="s">
+        <v>448</v>
+      </c>
+      <c r="L53" t="s">
         <v>449</v>
       </c>
-      <c r="G53" t="s">
-        <v>46</v>
-      </c>
-      <c r="H53" t="s">
-        <v>47</v>
-      </c>
-      <c r="I53" t="s">
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
         <v>450</v>
       </c>
-      <c r="J53" t="s">
-        <v>451</v>
-      </c>
-      <c r="K53" t="s">
-        <v>452</v>
-      </c>
-      <c r="L53" t="s">
-        <v>453</v>
-      </c>
-      <c r="M53" t="n">
-        <v>4</v>
-      </c>
-      <c r="N53" t="s"/>
-      <c r="O53" t="s"/>
+      <c r="O53" t="s">
+        <v>116</v>
+      </c>
       <c r="P53" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q53" t="s"/>
       <c r="R53" t="n">
         <v>4</v>
       </c>
-      <c r="S53" t="n">
-        <v>4</v>
-      </c>
+      <c r="S53" t="s"/>
       <c r="T53" t="s"/>
       <c r="U53" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V53" t="n">
         <v>0</v>
       </c>
-      <c r="W53" t="s">
-        <v>454</v>
-      </c>
-      <c r="X53" t="s">
-        <v>455</v>
-      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
     </row>
     <row r="54">
@@ -5620,7 +6479,7 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="G54" t="s">
         <v>46</v>
@@ -5629,53 +6488,45 @@
         <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="J54" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="K54" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="L54" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="M54" t="n">
-        <v>5</v>
-      </c>
-      <c r="N54" t="s">
-        <v>462</v>
-      </c>
-      <c r="O54" t="s">
-        <v>53</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
       <c r="P54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q54" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
       </c>
-      <c r="W54" t="s">
-        <v>463</v>
-      </c>
-      <c r="X54" t="s">
-        <v>464</v>
-      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
     </row>
     <row r="55">
@@ -5691,7 +6542,7 @@
         <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="G55" t="s">
         <v>46</v>
@@ -5700,39 +6551,45 @@
         <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="J55" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="K55" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="L55" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="M55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N55" t="s"/>
       <c r="O55" t="s"/>
-      <c r="P55" t="s"/>
-      <c r="Q55" t="s"/>
-      <c r="R55" t="s"/>
-      <c r="S55" t="s"/>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>2</v>
+      </c>
       <c r="T55" t="s"/>
-      <c r="U55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
       <c r="V55" t="n">
         <v>0</v>
       </c>
-      <c r="W55" t="s">
-        <v>471</v>
-      </c>
-      <c r="X55" t="s">
-        <v>472</v>
-      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
     </row>
     <row r="56">
@@ -5748,7 +6605,7 @@
         <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="G56" t="s">
         <v>46</v>
@@ -5757,53 +6614,39 @@
         <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="J56" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="K56" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="L56" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="M56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N56" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="O56" t="s">
-        <v>53</v>
-      </c>
-      <c r="P56" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>3</v>
-      </c>
-      <c r="R56" t="n">
-        <v>5</v>
-      </c>
-      <c r="S56" t="n">
-        <v>4</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
       <c r="T56" t="s"/>
-      <c r="U56" t="n">
-        <v>4</v>
-      </c>
+      <c r="U56" t="s"/>
       <c r="V56" t="n">
         <v>0</v>
       </c>
-      <c r="W56" t="s">
-        <v>480</v>
-      </c>
-      <c r="X56" t="s">
-        <v>481</v>
-      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
     </row>
     <row r="57">
@@ -5819,7 +6662,7 @@
         <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="G57" t="s">
         <v>46</v>
@@ -5828,53 +6671,49 @@
         <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="J57" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="K57" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="L57" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="M57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N57" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="O57" t="s">
         <v>63</v>
       </c>
       <c r="P57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T57" t="s"/>
       <c r="U57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V57" t="n">
         <v>0</v>
       </c>
-      <c r="W57" t="s">
-        <v>480</v>
-      </c>
-      <c r="X57" t="s">
-        <v>481</v>
-      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
     </row>
     <row r="58">
@@ -5890,7 +6729,7 @@
         <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="G58" t="s">
         <v>46</v>
@@ -5899,53 +6738,49 @@
         <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="J58" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="K58" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="L58" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="M58" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N58" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="O58" t="s">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="P58" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q58" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T58" t="s"/>
       <c r="U58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V58" t="n">
         <v>0</v>
       </c>
-      <c r="W58" t="s">
-        <v>494</v>
-      </c>
-      <c r="X58" t="s">
-        <v>495</v>
-      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
     </row>
     <row r="59">
@@ -5961,7 +6796,7 @@
         <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="G59" t="s">
         <v>46</v>
@@ -5970,49 +6805,49 @@
         <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="J59" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="K59" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="L59" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
       <c r="M59" t="n">
-        <v>5</v>
-      </c>
-      <c r="N59" t="s"/>
-      <c r="O59" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N59" t="s">
+        <v>487</v>
+      </c>
+      <c r="O59" t="s">
+        <v>116</v>
+      </c>
       <c r="P59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T59" t="s"/>
       <c r="U59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V59" t="n">
         <v>0</v>
       </c>
-      <c r="W59" t="s">
-        <v>502</v>
-      </c>
-      <c r="X59" t="s">
-        <v>503</v>
-      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>504</v>
+        <v>488</v>
       </c>
     </row>
     <row r="60">
@@ -6028,7 +6863,7 @@
         <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>505</v>
+        <v>489</v>
       </c>
       <c r="G60" t="s">
         <v>46</v>
@@ -6037,49 +6872,53 @@
         <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="J60" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="K60" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="L60" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="M60" t="n">
-        <v>5</v>
-      </c>
-      <c r="N60" t="s"/>
-      <c r="O60" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N60" t="s">
+        <v>487</v>
+      </c>
+      <c r="O60" t="s">
+        <v>116</v>
+      </c>
       <c r="P60" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q60" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S60" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T60" t="s"/>
       <c r="U60" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V60" t="n">
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="X60" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="Y60" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
     </row>
     <row r="61">
@@ -6095,7 +6934,7 @@
         <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="G61" t="s">
         <v>46</v>
@@ -6104,41 +6943,41 @@
         <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="J61" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="K61" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="L61" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
       <c r="N61" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="O61" t="s">
         <v>53</v>
       </c>
       <c r="P61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q61" t="n">
         <v>1</v>
       </c>
       <c r="R61" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S61" t="n">
         <v>1</v>
       </c>
       <c r="T61" t="s"/>
       <c r="U61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V61" t="n">
         <v>0</v>
@@ -6146,7 +6985,7 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
     </row>
     <row r="62">
@@ -6162,7 +7001,7 @@
         <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="G62" t="s">
         <v>46</v>
@@ -6171,16 +7010,16 @@
         <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="J62" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="K62" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="L62" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="M62" t="n">
         <v>1</v>
@@ -6193,21 +7032,27 @@
       <c r="Q62" t="n">
         <v>1</v>
       </c>
-      <c r="R62" t="s"/>
+      <c r="R62" t="n">
+        <v>1</v>
+      </c>
       <c r="S62" t="n">
         <v>1</v>
       </c>
       <c r="T62" t="s"/>
       <c r="U62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V62" t="n">
         <v>0</v>
       </c>
-      <c r="W62" t="s"/>
-      <c r="X62" t="s"/>
+      <c r="W62" t="s">
+        <v>508</v>
+      </c>
+      <c r="X62" t="s">
+        <v>509</v>
+      </c>
       <c r="Y62" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
     </row>
     <row r="63">
@@ -6223,7 +7068,7 @@
         <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="G63" t="s">
         <v>46</v>
@@ -6232,35 +7077,49 @@
         <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="J63" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="K63" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="L63" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="M63" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N63" t="s"/>
       <c r="O63" t="s"/>
-      <c r="P63" t="s"/>
-      <c r="Q63" t="s"/>
-      <c r="R63" t="s"/>
-      <c r="S63" t="s"/>
+      <c r="P63" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>1</v>
+      </c>
+      <c r="R63" t="n">
+        <v>1</v>
+      </c>
+      <c r="S63" t="n">
+        <v>1</v>
+      </c>
       <c r="T63" t="s"/>
-      <c r="U63" t="s"/>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
       <c r="V63" t="n">
         <v>0</v>
       </c>
-      <c r="W63" t="s"/>
-      <c r="X63" t="s"/>
+      <c r="W63" t="s">
+        <v>508</v>
+      </c>
+      <c r="X63" t="s">
+        <v>509</v>
+      </c>
       <c r="Y63" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
     </row>
     <row r="64">
@@ -6276,44 +7135,2904 @@
         <v>44</v>
       </c>
       <c r="F64" t="s">
+        <v>517</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>518</v>
+      </c>
+      <c r="J64" t="s">
+        <v>519</v>
+      </c>
+      <c r="K64" t="s">
+        <v>520</v>
+      </c>
+      <c r="L64" t="s">
+        <v>521</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3</v>
+      </c>
+      <c r="N64" t="s">
+        <v>502</v>
+      </c>
+      <c r="O64" t="s">
+        <v>116</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>2</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>3</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>4</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>522</v>
+      </c>
+      <c r="X64" t="s">
+        <v>523</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>525</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
         <v>526</v>
       </c>
-      <c r="G64" t="s">
-        <v>46</v>
-      </c>
-      <c r="H64" t="s">
-        <v>47</v>
-      </c>
-      <c r="I64" t="s">
+      <c r="J65" t="s">
         <v>527</v>
       </c>
-      <c r="J64" t="s">
+      <c r="K65" t="s">
         <v>528</v>
       </c>
-      <c r="K64" t="s">
+      <c r="L65" t="s">
         <v>529</v>
       </c>
-      <c r="L64" t="s">
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="N65" t="s">
         <v>530</v>
       </c>
-      <c r="M64" t="n">
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>3</v>
+      </c>
+      <c r="R65" t="n">
+        <v>3</v>
+      </c>
+      <c r="S65" t="n">
+        <v>3</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>3</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>508</v>
+      </c>
+      <c r="X65" t="s">
+        <v>509</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>532</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>533</v>
+      </c>
+      <c r="J66" t="s">
+        <v>534</v>
+      </c>
+      <c r="K66" t="s">
+        <v>535</v>
+      </c>
+      <c r="L66" t="s">
+        <v>536</v>
+      </c>
+      <c r="M66" t="n">
+        <v>3</v>
+      </c>
+      <c r="N66" t="s">
+        <v>530</v>
+      </c>
+      <c r="O66" t="s">
+        <v>116</v>
+      </c>
+      <c r="P66" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>3</v>
+      </c>
+      <c r="R66" t="n">
         <v>4</v>
       </c>
-      <c r="N64" t="s"/>
-      <c r="O64" t="s"/>
-      <c r="P64" t="s"/>
-      <c r="Q64" t="s"/>
-      <c r="R64" t="s"/>
-      <c r="S64" t="s"/>
-      <c r="T64" t="s"/>
-      <c r="U64" t="s"/>
-      <c r="V64" t="n">
-        <v>0</v>
-      </c>
-      <c r="W64" t="s"/>
-      <c r="X64" t="s"/>
-      <c r="Y64" t="s">
+      <c r="S66" t="n">
+        <v>3</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>3</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>538</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>539</v>
+      </c>
+      <c r="J67" t="s">
+        <v>540</v>
+      </c>
+      <c r="K67" t="s">
+        <v>541</v>
+      </c>
+      <c r="L67" t="s">
+        <v>542</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" t="s">
         <v>530</v>
+      </c>
+      <c r="O67" t="s">
+        <v>82</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="s"/>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>543</v>
+      </c>
+      <c r="X67" t="s">
+        <v>544</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>546</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>547</v>
+      </c>
+      <c r="J68" t="s">
+        <v>548</v>
+      </c>
+      <c r="K68" t="s">
+        <v>549</v>
+      </c>
+      <c r="L68" t="s">
+        <v>550</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>551</v>
+      </c>
+      <c r="O68" t="s">
+        <v>116</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>552</v>
+      </c>
+      <c r="X68" t="s">
+        <v>553</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>555</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>556</v>
+      </c>
+      <c r="J69" t="s">
+        <v>557</v>
+      </c>
+      <c r="K69" t="s">
+        <v>558</v>
+      </c>
+      <c r="L69" t="s">
+        <v>559</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>560</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>561</v>
+      </c>
+      <c r="X69" t="s">
+        <v>562</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>564</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>565</v>
+      </c>
+      <c r="J70" t="s">
+        <v>566</v>
+      </c>
+      <c r="K70" t="s">
+        <v>567</v>
+      </c>
+      <c r="L70" t="s">
+        <v>568</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s"/>
+      <c r="O70" t="s"/>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>569</v>
+      </c>
+      <c r="X70" t="s">
+        <v>570</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>572</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>573</v>
+      </c>
+      <c r="J71" t="s">
+        <v>574</v>
+      </c>
+      <c r="K71" t="s">
+        <v>575</v>
+      </c>
+      <c r="L71" t="s">
+        <v>576</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="s">
+        <v>577</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>1</v>
+      </c>
+      <c r="R71" t="n">
+        <v>2</v>
+      </c>
+      <c r="S71" t="n">
+        <v>1</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>1</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>579</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>580</v>
+      </c>
+      <c r="J72" t="s">
+        <v>581</v>
+      </c>
+      <c r="K72" t="s">
+        <v>582</v>
+      </c>
+      <c r="L72" t="s">
+        <v>583</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+      <c r="N72" t="s">
+        <v>560</v>
+      </c>
+      <c r="O72" t="s">
+        <v>63</v>
+      </c>
+      <c r="P72" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>1</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>2</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>585</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>586</v>
+      </c>
+      <c r="J73" t="s">
+        <v>587</v>
+      </c>
+      <c r="K73" t="s">
+        <v>588</v>
+      </c>
+      <c r="L73" t="s">
+        <v>589</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" t="s"/>
+      <c r="O73" t="s"/>
+      <c r="P73" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>1</v>
+      </c>
+      <c r="R73" t="n">
+        <v>2</v>
+      </c>
+      <c r="S73" t="n">
+        <v>2</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>1</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>590</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>591</v>
+      </c>
+      <c r="J74" t="s">
+        <v>592</v>
+      </c>
+      <c r="K74" t="s">
+        <v>593</v>
+      </c>
+      <c r="L74" t="s">
+        <v>594</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s"/>
+      <c r="O74" t="s"/>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>2</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>595</v>
+      </c>
+      <c r="X74" t="s">
+        <v>596</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>598</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>599</v>
+      </c>
+      <c r="J75" t="s">
+        <v>600</v>
+      </c>
+      <c r="K75" t="s">
+        <v>601</v>
+      </c>
+      <c r="L75" t="s">
+        <v>602</v>
+      </c>
+      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+      <c r="N75" t="s">
+        <v>603</v>
+      </c>
+      <c r="O75" t="s">
+        <v>177</v>
+      </c>
+      <c r="P75" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>3</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>1</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>3</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>604</v>
+      </c>
+      <c r="X75" t="s">
+        <v>605</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>607</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>608</v>
+      </c>
+      <c r="J76" t="s">
+        <v>609</v>
+      </c>
+      <c r="K76" t="s">
+        <v>610</v>
+      </c>
+      <c r="L76" t="s">
+        <v>611</v>
+      </c>
+      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+      <c r="N76" t="s">
+        <v>603</v>
+      </c>
+      <c r="O76" t="s">
+        <v>116</v>
+      </c>
+      <c r="P76" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>1</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>1</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>1</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>612</v>
+      </c>
+      <c r="X76" t="s">
+        <v>613</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>615</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>616</v>
+      </c>
+      <c r="J77" t="s">
+        <v>617</v>
+      </c>
+      <c r="K77" t="s">
+        <v>618</v>
+      </c>
+      <c r="L77" t="s">
+        <v>619</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>620</v>
+      </c>
+      <c r="O77" t="s">
+        <v>116</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>4</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>621</v>
+      </c>
+      <c r="X77" t="s">
+        <v>622</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>624</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>625</v>
+      </c>
+      <c r="J78" t="s">
+        <v>626</v>
+      </c>
+      <c r="K78" t="s">
+        <v>627</v>
+      </c>
+      <c r="L78" t="s">
+        <v>628</v>
+      </c>
+      <c r="M78" t="n">
+        <v>2</v>
+      </c>
+      <c r="N78" t="s">
+        <v>620</v>
+      </c>
+      <c r="O78" t="s">
+        <v>116</v>
+      </c>
+      <c r="P78" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>2</v>
+      </c>
+      <c r="R78" t="n">
+        <v>3</v>
+      </c>
+      <c r="S78" t="n">
+        <v>2</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>1</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>629</v>
+      </c>
+      <c r="X78" t="s">
+        <v>630</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>632</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>633</v>
+      </c>
+      <c r="J79" t="s">
+        <v>634</v>
+      </c>
+      <c r="K79" t="s">
+        <v>635</v>
+      </c>
+      <c r="L79" t="s">
+        <v>636</v>
+      </c>
+      <c r="M79" t="n">
+        <v>3</v>
+      </c>
+      <c r="N79" t="s"/>
+      <c r="O79" t="s"/>
+      <c r="P79" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>3</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>3</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>4</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>637</v>
+      </c>
+      <c r="X79" t="s">
+        <v>638</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>640</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>641</v>
+      </c>
+      <c r="J80" t="s">
+        <v>634</v>
+      </c>
+      <c r="K80" t="s">
+        <v>642</v>
+      </c>
+      <c r="L80" t="s">
+        <v>643</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>620</v>
+      </c>
+      <c r="O80" t="s">
+        <v>116</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>637</v>
+      </c>
+      <c r="X80" t="s">
+        <v>638</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>645</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>646</v>
+      </c>
+      <c r="J81" t="s">
+        <v>647</v>
+      </c>
+      <c r="K81" t="s">
+        <v>648</v>
+      </c>
+      <c r="L81" t="s">
+        <v>649</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>650</v>
+      </c>
+      <c r="O81" t="s">
+        <v>53</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>4</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>4</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>651</v>
+      </c>
+      <c r="X81" t="s">
+        <v>652</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>654</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>655</v>
+      </c>
+      <c r="J82" t="s">
+        <v>656</v>
+      </c>
+      <c r="K82" t="s">
+        <v>657</v>
+      </c>
+      <c r="L82" t="s">
+        <v>658</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>620</v>
+      </c>
+      <c r="O82" t="s">
+        <v>82</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>4</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>659</v>
+      </c>
+      <c r="X82" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>662</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>663</v>
+      </c>
+      <c r="J83" t="s">
+        <v>664</v>
+      </c>
+      <c r="K83" t="s">
+        <v>665</v>
+      </c>
+      <c r="L83" t="s">
+        <v>666</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>667</v>
+      </c>
+      <c r="O83" t="s">
+        <v>116</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>668</v>
+      </c>
+      <c r="X83" t="s">
+        <v>669</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>671</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>672</v>
+      </c>
+      <c r="J84" t="s">
+        <v>673</v>
+      </c>
+      <c r="K84" t="s">
+        <v>674</v>
+      </c>
+      <c r="L84" t="s">
+        <v>675</v>
+      </c>
+      <c r="M84" t="n">
+        <v>2</v>
+      </c>
+      <c r="N84" t="s">
+        <v>676</v>
+      </c>
+      <c r="O84" t="s">
+        <v>116</v>
+      </c>
+      <c r="P84" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>2</v>
+      </c>
+      <c r="R84" t="n">
+        <v>3</v>
+      </c>
+      <c r="S84" t="n">
+        <v>3</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>4</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>677</v>
+      </c>
+      <c r="X84" t="s">
+        <v>678</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>680</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>681</v>
+      </c>
+      <c r="J85" t="s">
+        <v>682</v>
+      </c>
+      <c r="K85" t="s">
+        <v>683</v>
+      </c>
+      <c r="L85" t="s">
+        <v>684</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>685</v>
+      </c>
+      <c r="O85" t="s">
+        <v>116</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>686</v>
+      </c>
+      <c r="X85" t="s">
+        <v>687</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>689</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>690</v>
+      </c>
+      <c r="J86" t="s">
+        <v>691</v>
+      </c>
+      <c r="K86" t="s">
+        <v>692</v>
+      </c>
+      <c r="L86" t="s">
+        <v>693</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>694</v>
+      </c>
+      <c r="O86" t="s">
+        <v>82</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>695</v>
+      </c>
+      <c r="X86" t="s">
+        <v>696</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>698</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>699</v>
+      </c>
+      <c r="J87" t="s">
+        <v>700</v>
+      </c>
+      <c r="K87" t="s">
+        <v>701</v>
+      </c>
+      <c r="L87" t="s">
+        <v>702</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>703</v>
+      </c>
+      <c r="O87" t="s">
+        <v>63</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>4</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>695</v>
+      </c>
+      <c r="X87" t="s">
+        <v>696</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>705</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>706</v>
+      </c>
+      <c r="J88" t="s">
+        <v>707</v>
+      </c>
+      <c r="K88" t="s">
+        <v>708</v>
+      </c>
+      <c r="L88" t="s">
+        <v>709</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>710</v>
+      </c>
+      <c r="O88" t="s">
+        <v>82</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>711</v>
+      </c>
+      <c r="X88" t="s">
+        <v>712</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>714</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>715</v>
+      </c>
+      <c r="J89" t="s">
+        <v>716</v>
+      </c>
+      <c r="K89" t="s">
+        <v>717</v>
+      </c>
+      <c r="L89" t="s">
+        <v>718</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s"/>
+      <c r="O89" t="s"/>
+      <c r="P89" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>4</v>
+      </c>
+      <c r="R89" t="n">
+        <v>4</v>
+      </c>
+      <c r="S89" t="n">
+        <v>4</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>4</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>719</v>
+      </c>
+      <c r="X89" t="s">
+        <v>720</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>722</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>723</v>
+      </c>
+      <c r="J90" t="s">
+        <v>724</v>
+      </c>
+      <c r="K90" t="s">
+        <v>725</v>
+      </c>
+      <c r="L90" t="s">
+        <v>726</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>727</v>
+      </c>
+      <c r="O90" t="s">
+        <v>53</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>728</v>
+      </c>
+      <c r="X90" t="s">
+        <v>729</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>731</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>732</v>
+      </c>
+      <c r="J91" t="s">
+        <v>733</v>
+      </c>
+      <c r="K91" t="s">
+        <v>734</v>
+      </c>
+      <c r="L91" t="s">
+        <v>735</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s"/>
+      <c r="O91" t="s"/>
+      <c r="P91" t="s"/>
+      <c r="Q91" t="s"/>
+      <c r="R91" t="s"/>
+      <c r="S91" t="s"/>
+      <c r="T91" t="s"/>
+      <c r="U91" t="s"/>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>736</v>
+      </c>
+      <c r="X91" t="s">
+        <v>737</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>739</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>740</v>
+      </c>
+      <c r="J92" t="s">
+        <v>741</v>
+      </c>
+      <c r="K92" t="s">
+        <v>742</v>
+      </c>
+      <c r="L92" t="s">
+        <v>743</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s"/>
+      <c r="O92" t="s"/>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>4</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>4</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>744</v>
+      </c>
+      <c r="X92" t="s">
+        <v>745</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>747</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>748</v>
+      </c>
+      <c r="J93" t="s">
+        <v>749</v>
+      </c>
+      <c r="K93" t="s">
+        <v>750</v>
+      </c>
+      <c r="L93" t="s">
+        <v>751</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>752</v>
+      </c>
+      <c r="O93" t="s">
+        <v>82</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>4</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>753</v>
+      </c>
+      <c r="X93" t="s">
+        <v>754</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>756</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>757</v>
+      </c>
+      <c r="J94" t="s">
+        <v>758</v>
+      </c>
+      <c r="K94" t="s">
+        <v>759</v>
+      </c>
+      <c r="L94" t="s">
+        <v>760</v>
+      </c>
+      <c r="M94" t="n">
+        <v>4</v>
+      </c>
+      <c r="N94" t="s">
+        <v>703</v>
+      </c>
+      <c r="O94" t="s">
+        <v>53</v>
+      </c>
+      <c r="P94" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>3</v>
+      </c>
+      <c r="R94" t="n">
+        <v>5</v>
+      </c>
+      <c r="S94" t="n">
+        <v>4</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>4</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>761</v>
+      </c>
+      <c r="X94" t="s">
+        <v>762</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>764</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>765</v>
+      </c>
+      <c r="J95" t="s">
+        <v>758</v>
+      </c>
+      <c r="K95" t="s">
+        <v>766</v>
+      </c>
+      <c r="L95" t="s">
+        <v>767</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>752</v>
+      </c>
+      <c r="O95" t="s">
+        <v>82</v>
+      </c>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>5</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>4</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s">
+        <v>761</v>
+      </c>
+      <c r="X95" t="s">
+        <v>762</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>769</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>770</v>
+      </c>
+      <c r="J96" t="s">
+        <v>771</v>
+      </c>
+      <c r="K96" t="s">
+        <v>772</v>
+      </c>
+      <c r="L96" t="s">
+        <v>773</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s">
+        <v>752</v>
+      </c>
+      <c r="O96" t="s">
+        <v>82</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>5</v>
+      </c>
+      <c r="R96" t="n">
+        <v>5</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s">
+        <v>774</v>
+      </c>
+      <c r="X96" t="s">
+        <v>775</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>777</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>778</v>
+      </c>
+      <c r="J97" t="s">
+        <v>779</v>
+      </c>
+      <c r="K97" t="s">
+        <v>780</v>
+      </c>
+      <c r="L97" t="s">
+        <v>781</v>
+      </c>
+      <c r="M97" t="n">
+        <v>2</v>
+      </c>
+      <c r="N97" t="s"/>
+      <c r="O97" t="s"/>
+      <c r="P97" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>3</v>
+      </c>
+      <c r="R97" t="n">
+        <v>4</v>
+      </c>
+      <c r="S97" t="n">
+        <v>1</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>2</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s">
+        <v>782</v>
+      </c>
+      <c r="X97" t="s">
+        <v>783</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>785</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>786</v>
+      </c>
+      <c r="J98" t="s">
+        <v>787</v>
+      </c>
+      <c r="K98" t="s">
+        <v>788</v>
+      </c>
+      <c r="L98" t="s">
+        <v>789</v>
+      </c>
+      <c r="M98" t="n">
+        <v>4</v>
+      </c>
+      <c r="N98" t="s">
+        <v>676</v>
+      </c>
+      <c r="O98" t="s">
+        <v>53</v>
+      </c>
+      <c r="P98" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>3</v>
+      </c>
+      <c r="R98" t="n">
+        <v>3</v>
+      </c>
+      <c r="S98" t="n">
+        <v>4</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>3</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s">
+        <v>790</v>
+      </c>
+      <c r="X98" t="s">
+        <v>791</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>793</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>794</v>
+      </c>
+      <c r="J99" t="s">
+        <v>787</v>
+      </c>
+      <c r="K99" t="s">
+        <v>795</v>
+      </c>
+      <c r="L99" t="s">
+        <v>796</v>
+      </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="s"/>
+      <c r="O99" t="s"/>
+      <c r="P99" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>5</v>
+      </c>
+      <c r="R99" t="n">
+        <v>5</v>
+      </c>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s">
+        <v>790</v>
+      </c>
+      <c r="X99" t="s">
+        <v>791</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>798</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>799</v>
+      </c>
+      <c r="J100" t="s">
+        <v>787</v>
+      </c>
+      <c r="K100" t="s">
+        <v>800</v>
+      </c>
+      <c r="L100" t="s">
+        <v>801</v>
+      </c>
+      <c r="M100" t="n">
+        <v>5</v>
+      </c>
+      <c r="N100" t="s"/>
+      <c r="O100" t="s"/>
+      <c r="P100" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>5</v>
+      </c>
+      <c r="R100" t="n">
+        <v>5</v>
+      </c>
+      <c r="S100" t="n">
+        <v>5</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s">
+        <v>790</v>
+      </c>
+      <c r="X100" t="s">
+        <v>791</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>803</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>804</v>
+      </c>
+      <c r="J101" t="s">
+        <v>805</v>
+      </c>
+      <c r="K101" t="s">
+        <v>806</v>
+      </c>
+      <c r="L101" t="s">
+        <v>807</v>
+      </c>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+      <c r="N101" t="s">
+        <v>808</v>
+      </c>
+      <c r="O101" t="s">
+        <v>53</v>
+      </c>
+      <c r="P101" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>1</v>
+      </c>
+      <c r="R101" t="n">
+        <v>1</v>
+      </c>
+      <c r="S101" t="n">
+        <v>1</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>5</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>809</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>810</v>
+      </c>
+      <c r="J102" t="s">
+        <v>811</v>
+      </c>
+      <c r="K102" t="s">
+        <v>812</v>
+      </c>
+      <c r="L102" t="s">
+        <v>813</v>
+      </c>
+      <c r="M102" t="n">
+        <v>5</v>
+      </c>
+      <c r="N102" t="s"/>
+      <c r="O102" t="s"/>
+      <c r="P102" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>5</v>
+      </c>
+      <c r="R102" t="n">
+        <v>5</v>
+      </c>
+      <c r="S102" t="n">
+        <v>5</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>5</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>814</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>815</v>
+      </c>
+      <c r="J103" t="s">
+        <v>816</v>
+      </c>
+      <c r="K103" t="s">
+        <v>817</v>
+      </c>
+      <c r="L103" t="s">
+        <v>818</v>
+      </c>
+      <c r="M103" t="n">
+        <v>2</v>
+      </c>
+      <c r="N103" t="s">
+        <v>819</v>
+      </c>
+      <c r="O103" t="s">
+        <v>63</v>
+      </c>
+      <c r="P103" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>3</v>
+      </c>
+      <c r="R103" t="n">
+        <v>4</v>
+      </c>
+      <c r="S103" t="n">
+        <v>2</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="s"/>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>821</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>822</v>
+      </c>
+      <c r="J104" t="s">
+        <v>823</v>
+      </c>
+      <c r="K104" t="s">
+        <v>824</v>
+      </c>
+      <c r="L104" t="s">
+        <v>825</v>
+      </c>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="N104" t="s"/>
+      <c r="O104" t="s"/>
+      <c r="P104" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>1</v>
+      </c>
+      <c r="R104" t="s"/>
+      <c r="S104" t="n">
+        <v>1</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>2</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>826</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>827</v>
+      </c>
+      <c r="J105" t="s">
+        <v>828</v>
+      </c>
+      <c r="K105" t="s">
+        <v>829</v>
+      </c>
+      <c r="L105" t="s">
+        <v>830</v>
+      </c>
+      <c r="M105" t="n">
+        <v>3</v>
+      </c>
+      <c r="N105" t="s"/>
+      <c r="O105" t="s"/>
+      <c r="P105" t="s"/>
+      <c r="Q105" t="s"/>
+      <c r="R105" t="s"/>
+      <c r="S105" t="s"/>
+      <c r="T105" t="s"/>
+      <c r="U105" t="s"/>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>36014</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>831</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>832</v>
+      </c>
+      <c r="J106" t="s">
+        <v>833</v>
+      </c>
+      <c r="K106" t="s">
+        <v>834</v>
+      </c>
+      <c r="L106" t="s">
+        <v>835</v>
+      </c>
+      <c r="M106" t="n">
+        <v>4</v>
+      </c>
+      <c r="N106" t="s"/>
+      <c r="O106" t="s"/>
+      <c r="P106" t="s"/>
+      <c r="Q106" t="s"/>
+      <c r="R106" t="s"/>
+      <c r="S106" t="s"/>
+      <c r="T106" t="s"/>
+      <c r="U106" t="s"/>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s"/>
+      <c r="X106" t="s"/>
+      <c r="Y106" t="s">
+        <v>835</v>
       </c>
     </row>
   </sheetData>
